--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{888B6881-CFEC-442F-9C6D-DC69F0A7772E}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C3B641-6B3D-40A0-A6C4-DE94E5AF2AD0}"/>
   <bookViews>
-    <workbookView xWindow="29496" yWindow="0" windowWidth="16584" windowHeight="25320" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
+    <workbookView xWindow="31860" yWindow="0" windowWidth="14220" windowHeight="25320" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
   <si>
     <t>InstanceData</t>
   </si>
@@ -92,12 +92,6 @@
     <t>Struct</t>
   </si>
   <si>
-    <t>BaseBoundingBox</t>
-  </si>
-  <si>
-    <t>BaseBoundingSphere</t>
-  </si>
-  <si>
     <t>BoundingBox</t>
   </si>
   <si>
@@ -110,12 +104,6 @@
     <t>FrustumCullingEnabled</t>
   </si>
   <si>
-    <t>DirectX::BoundingBox*</t>
-  </si>
-  <si>
-    <t>DirectX::BoundingSphere*</t>
-  </si>
-  <si>
     <t>DirectX::BoundingBox</t>
   </si>
   <si>
@@ -137,9 +125,6 @@
     <t>Geo</t>
   </si>
   <si>
-    <t>Component</t>
-  </si>
-  <si>
     <t>Datas</t>
   </si>
   <si>
@@ -336,6 +321,12 @@
   </si>
   <si>
     <t>Config</t>
+  </si>
+  <si>
+    <t>MeshComponent</t>
+  </si>
+  <si>
+    <t>DX12_MeshComponent*</t>
   </si>
 </sst>
 </file>
@@ -941,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2829DBA9-5371-49D6-92D0-267134EE5124}">
-  <dimension ref="B1:O78"/>
+  <dimension ref="B1:S66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,11 +943,15 @@
     <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.88671875" style="1" customWidth="1"/>
-    <col min="5" max="15" width="9.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="1" customWidth="1"/>
+    <col min="9" max="19" width="9.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
@@ -966,697 +961,663 @@
       <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="14"/>
       <c r="C6" s="3" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="H6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14"/>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="14"/>
+      <c r="C12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="14"/>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
       <c r="C16" s="3" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
       <c r="C17" s="3" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
       <c r="C18" s="3" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14"/>
       <c r="C19" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>11</v>
+      <c r="B20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
       <c r="C21" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
       <c r="C22" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="15"/>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>0</v>
+      <c r="B24" s="14"/>
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="14"/>
       <c r="C25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="14"/>
-      <c r="C27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>20</v>
+      <c r="B27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
       <c r="C28" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="14"/>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="14"/>
       <c r="C30" s="3" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="14"/>
       <c r="C31" s="3" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>31</v>
+      <c r="B32" s="14"/>
+      <c r="C32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="14"/>
       <c r="C33" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="14"/>
       <c r="C34" s="3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="14"/>
       <c r="C35" s="3" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="14"/>
       <c r="C36" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="15"/>
+      <c r="C37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
-      <c r="C40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="15"/>
-      <c r="C41" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>16</v>
+      <c r="B40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="C43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>73</v>
+      <c r="B44" s="14"/>
+      <c r="C44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="14"/>
       <c r="C45" s="3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="14"/>
       <c r="C46" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="14"/>
       <c r="C47" s="3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="14"/>
-      <c r="C49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>74</v>
+      <c r="B48" s="14"/>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="15"/>
+      <c r="C49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="14"/>
-      <c r="C50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>75</v>
+      <c r="B50" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="14"/>
       <c r="C51" s="3" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="14"/>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="14"/>
       <c r="C53" s="3" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="14"/>
+      <c r="C54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="14"/>
       <c r="C55" s="3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="14"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
       <c r="C57" s="3" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="14"/>
-      <c r="C58" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>46</v>
+      <c r="B58" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="14"/>
       <c r="C59" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="14"/>
       <c r="C60" s="3" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>54</v>
+      <c r="B61" s="14"/>
+      <c r="C61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="14"/>
       <c r="C62" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="14"/>
       <c r="C63" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="14"/>
       <c r="C64" s="3" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="14"/>
       <c r="C65" s="3" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="14"/>
-      <c r="C66" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="14"/>
-      <c r="C67" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="14"/>
-      <c r="C69" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="14"/>
-      <c r="C70" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="14"/>
-      <c r="C71" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="14"/>
-      <c r="C72" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="14"/>
-      <c r="C73" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="14"/>
-      <c r="C74" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="14"/>
-      <c r="C75" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="14"/>
-      <c r="C76" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="14"/>
-      <c r="C77" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="15"/>
-      <c r="C78" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>67</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="15"/>
+      <c r="C66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C3B641-6B3D-40A0-A6C4-DE94E5AF2AD0}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1292D5CB-F367-487A-AB1D-357C0AAAC06F}"/>
   <bookViews>
-    <workbookView xWindow="31860" yWindow="0" windowWidth="14220" windowHeight="25320" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
+    <workbookView xWindow="1440" yWindow="3312" windowWidth="14508" windowHeight="18684" activeTab="1" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Struct" sheetId="1" r:id="rId1"/>
+    <sheet name="Function" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="97">
   <si>
     <t>InstanceData</t>
   </si>
@@ -934,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2829DBA9-5371-49D6-92D0-267134EE5124}">
   <dimension ref="B1:S66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1624,4 +1625,620 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA21CF0-8236-4A40-BA73-8D682A484C77}">
+  <dimension ref="B1:D66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="14"/>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="14"/>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="14"/>
+      <c r="C12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="14"/>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="14"/>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="14"/>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
+      <c r="C29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="15"/>
+      <c r="C37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="C43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+      <c r="C44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+      <c r="C45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="15"/>
+      <c r="C49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="14"/>
+      <c r="C51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+      <c r="C52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="14"/>
+      <c r="C53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="14"/>
+      <c r="C54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="14"/>
+      <c r="C55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="14"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="14"/>
+      <c r="C57" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="14"/>
+      <c r="C59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="14"/>
+      <c r="C60" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="14"/>
+      <c r="C61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="14"/>
+      <c r="C62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="14"/>
+      <c r="C63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="14"/>
+      <c r="C64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="14"/>
+      <c r="C65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="15"/>
+      <c r="C66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1292D5CB-F367-487A-AB1D-357C0AAAC06F}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AFF6957-A253-45EC-8DD2-758B767600DC}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="3312" windowWidth="14508" windowHeight="18684" activeTab="1" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
+    <workbookView xWindow="1440" yWindow="3312" windowWidth="26604" windowHeight="21600" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Struct" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="103">
   <si>
     <t>InstanceData</t>
   </si>
@@ -328,6 +328,24 @@
   </si>
   <si>
     <t>DX12_MeshComponent*</t>
+  </si>
+  <si>
+    <t>SceneComponent</t>
+  </si>
+  <si>
+    <t>eCFGSceneComponent</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>MeshHandles</t>
+  </si>
+  <si>
+    <t>Instances</t>
+  </si>
+  <si>
+    <t>std::vector&lt;std::vector&lt;uint32_t&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -933,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2829DBA9-5371-49D6-92D0-267134EE5124}">
-  <dimension ref="B1:S66"/>
+  <dimension ref="B1:S62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1526,36 +1544,34 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="14"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="14"/>
-      <c r="C57" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="9" t="s">
+      <c r="D56" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D59" s="10" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="14"/>
-      <c r="C59" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
@@ -1564,61 +1580,25 @@
         <v>92</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="14"/>
       <c r="C61" s="3" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="14"/>
-      <c r="C62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="14"/>
-      <c r="C63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="14"/>
-      <c r="C64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="14"/>
-      <c r="C65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="15"/>
-      <c r="C66" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>34</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="15"/>
+      <c r="C62" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA21CF0-8236-4A40-BA73-8D682A484C77}">
   <dimension ref="B1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AFF6957-A253-45EC-8DD2-758B767600DC}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{105602D1-2DEE-4E44-8149-3C5040580828}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="3312" windowWidth="26604" windowHeight="21600" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Struct" sheetId="1" r:id="rId1"/>
     <sheet name="Function" sheetId="2" r:id="rId2"/>
+    <sheet name="일정" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="114">
   <si>
     <t>InstanceData</t>
   </si>
@@ -346,13 +347,46 @@
   </si>
   <si>
     <t>std::vector&lt;std::vector&lt;uint32_t&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Daily Routine</t>
+  </si>
+  <si>
+    <t>To Do List</t>
+  </si>
+  <si>
+    <t>Meal &amp; Money</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>코딩 시작</t>
+  </si>
+  <si>
+    <t>병렬 처리 구조 개선</t>
+  </si>
+  <si>
+    <t>Singleton 떡칠 제거 -&gt; 의존성 주입으로 수정</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>마무리!</t>
+  </si>
+  <si>
+    <t>본가 방문</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,8 +401,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,8 +433,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -590,11 +636,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -617,6 +715,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2829DBA9-5371-49D6-92D0-267134EE5124}">
   <dimension ref="B1:S62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -2221,4 +2341,1067 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE69813-0201-43C0-866C-5D3C128F7149}">
+  <dimension ref="A1:O43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="28.109375" style="1" customWidth="1"/>
+    <col min="16" max="26" width="9.21875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="16">
+        <f>DATE(2025, 7, 12)</f>
+        <v>45850</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="str">
+        <f>"MON  "&amp;A2</f>
+        <v>MON  7</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23" t="str">
+        <f>"TUE  "&amp;SUM(A2,1)</f>
+        <v>TUE  8</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23" t="str">
+        <f>"WEN  "&amp;SUM(A2,2)</f>
+        <v>WEN  9</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23" t="str">
+        <f>"TUE  "&amp;SUM(A2,3)</f>
+        <v>TUE  10</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23" t="str">
+        <f>"FRI  "&amp;SUM(A2,4)</f>
+        <v>FRI  11</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23" t="str">
+        <f>"SAT  "&amp;SUM(A2,5)</f>
+        <v>SAT  12</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23" t="str">
+        <f>"SUN  "&amp;SUM(A2,6)</f>
+        <v>SUN  13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="18"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="17">
+        <v>6</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17">
+        <v>6</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="17">
+        <v>6</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="17">
+        <v>6</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="17">
+        <v>6</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="17">
+        <v>6</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="17">
+        <v>6</v>
+      </c>
+      <c r="O24" s="18"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="17">
+        <v>7</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="17">
+        <v>7</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="17">
+        <v>7</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="17">
+        <v>7</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="17">
+        <v>7</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="17">
+        <v>7</v>
+      </c>
+      <c r="M25" s="18"/>
+      <c r="N25" s="17">
+        <v>7</v>
+      </c>
+      <c r="O25" s="18"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="17">
+        <v>8</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="17">
+        <v>8</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="17">
+        <v>8</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="17">
+        <v>8</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="17">
+        <v>8</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="17">
+        <v>8</v>
+      </c>
+      <c r="M26" s="18"/>
+      <c r="N26" s="17">
+        <v>8</v>
+      </c>
+      <c r="O26" s="18"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="17">
+        <v>9</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="17">
+        <v>9</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="17">
+        <v>9</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="17">
+        <v>9</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="17">
+        <v>9</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="17">
+        <v>9</v>
+      </c>
+      <c r="M27" s="18"/>
+      <c r="N27" s="17">
+        <v>9</v>
+      </c>
+      <c r="O27" s="18"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="17">
+        <v>10</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="17">
+        <v>10</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="17">
+        <v>10</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="17">
+        <v>10</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="17">
+        <v>10</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="17">
+        <v>10</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N28" s="17">
+        <v>10</v>
+      </c>
+      <c r="O28" s="18"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="17">
+        <v>11</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="17">
+        <v>11</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17">
+        <v>11</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="17">
+        <v>11</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="17">
+        <v>11</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="17">
+        <v>11</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N29" s="17">
+        <v>11</v>
+      </c>
+      <c r="O29" s="18"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="17">
+        <v>12</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="17">
+        <v>12</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="17">
+        <v>12</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="17">
+        <v>12</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="17">
+        <v>12</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="17">
+        <v>12</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N30" s="17">
+        <v>12</v>
+      </c>
+      <c r="O30" s="18"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="17">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="17">
+        <v>1</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="17">
+        <v>1</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="17">
+        <v>1</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="17">
+        <v>1</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N31" s="17">
+        <v>1</v>
+      </c>
+      <c r="O31" s="18"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="17">
+        <v>2</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="17">
+        <v>2</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="17">
+        <v>2</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="17">
+        <v>2</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="17">
+        <v>2</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="17">
+        <v>2</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N32" s="17">
+        <v>2</v>
+      </c>
+      <c r="O32" s="18"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="17">
+        <v>3</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="17">
+        <v>3</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="17">
+        <v>3</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="17">
+        <v>3</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="J33" s="17">
+        <v>3</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="17">
+        <v>3</v>
+      </c>
+      <c r="M33" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N33" s="17">
+        <v>3</v>
+      </c>
+      <c r="O33" s="18"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="17">
+        <v>4</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="17">
+        <v>4</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="17">
+        <v>4</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="17">
+        <v>4</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="17">
+        <v>4</v>
+      </c>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17">
+        <v>4</v>
+      </c>
+      <c r="M34" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N34" s="17">
+        <v>4</v>
+      </c>
+      <c r="O34" s="18"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="17">
+        <v>5</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="17">
+        <v>5</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="17">
+        <v>5</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="17">
+        <v>5</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="17">
+        <v>5</v>
+      </c>
+      <c r="K35" s="18"/>
+      <c r="L35" s="17">
+        <v>5</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N35" s="17">
+        <v>5</v>
+      </c>
+      <c r="O35" s="18"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="17">
+        <v>6</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="17">
+        <v>6</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="17">
+        <v>6</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="17">
+        <v>6</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="17">
+        <v>6</v>
+      </c>
+      <c r="K36" s="18"/>
+      <c r="L36" s="17">
+        <v>6</v>
+      </c>
+      <c r="M36" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N36" s="17">
+        <v>6</v>
+      </c>
+      <c r="O36" s="18"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="17">
+        <v>7</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="17">
+        <v>7</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="17">
+        <v>7</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="17">
+        <v>7</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="17">
+        <v>7</v>
+      </c>
+      <c r="K37" s="18"/>
+      <c r="L37" s="17">
+        <v>7</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37" s="17">
+        <v>7</v>
+      </c>
+      <c r="O37" s="18"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="17">
+        <v>8</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="17">
+        <v>8</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="17">
+        <v>8</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="17">
+        <v>8</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="17">
+        <v>8</v>
+      </c>
+      <c r="K38" s="18"/>
+      <c r="L38" s="17">
+        <v>8</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N38" s="17">
+        <v>8</v>
+      </c>
+      <c r="O38" s="18"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="17">
+        <v>9</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="17">
+        <v>9</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="17">
+        <v>9</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="17">
+        <v>9</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="17">
+        <v>9</v>
+      </c>
+      <c r="K39" s="18"/>
+      <c r="L39" s="17">
+        <v>9</v>
+      </c>
+      <c r="M39" s="18"/>
+      <c r="N39" s="17">
+        <v>9</v>
+      </c>
+      <c r="O39" s="18"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="17">
+        <v>10</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="17">
+        <v>10</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="17">
+        <v>10</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="17">
+        <v>10</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="17">
+        <v>10</v>
+      </c>
+      <c r="K40" s="18"/>
+      <c r="L40" s="17">
+        <v>10</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="N40" s="17">
+        <v>10</v>
+      </c>
+      <c r="O40" s="18"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="17">
+        <v>11</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="17">
+        <v>11</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="17">
+        <v>11</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="17">
+        <v>11</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="J41" s="17">
+        <v>11</v>
+      </c>
+      <c r="K41" s="18"/>
+      <c r="L41" s="17">
+        <v>11</v>
+      </c>
+      <c r="M41" s="18"/>
+      <c r="N41" s="17">
+        <v>11</v>
+      </c>
+      <c r="O41" s="18"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="17">
+        <v>12</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="17">
+        <v>12</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="17">
+        <v>12</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="17">
+        <v>12</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="17">
+        <v>12</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="17">
+        <v>12</v>
+      </c>
+      <c r="M42" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="N42" s="17">
+        <v>12</v>
+      </c>
+      <c r="O42" s="18"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="17">
+        <v>1</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="17">
+        <v>1</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="17">
+        <v>1</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="17">
+        <v>1</v>
+      </c>
+      <c r="I43" s="18"/>
+      <c r="J43" s="17">
+        <v>1</v>
+      </c>
+      <c r="K43" s="18"/>
+      <c r="L43" s="17">
+        <v>1</v>
+      </c>
+      <c r="M43" s="18"/>
+      <c r="N43" s="17">
+        <v>1</v>
+      </c>
+      <c r="O43" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{105602D1-2DEE-4E44-8149-3C5040580828}"/>
+  <xr:revisionPtr revIDLastSave="442" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74ADA2FD-379F-40AD-A608-D217FF3D2B24}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="137">
   <si>
     <t>InstanceData</t>
   </si>
@@ -364,9 +364,6 @@
     <t>Timeline</t>
   </si>
   <si>
-    <t>코딩 시작</t>
-  </si>
-  <si>
     <t>병렬 처리 구조 개선</t>
   </si>
   <si>
@@ -380,12 +377,87 @@
   </si>
   <si>
     <t>본가 방문</t>
+  </si>
+  <si>
+    <t>sprite 방식 기본 렌더링 구현</t>
+  </si>
+  <si>
+    <t>Mesh 이동 구현</t>
+  </si>
+  <si>
+    <t>Sprite 기본 렌더링 구현</t>
+  </si>
+  <si>
+    <t>ImGui에서 Instance 데이터 띄우기</t>
+  </si>
+  <si>
+    <t>MeshIndex</t>
+  </si>
+  <si>
+    <t>eCFGRenderItem</t>
+  </si>
+  <si>
+    <t>eRenderLayer</t>
+  </si>
+  <si>
+    <t>TargetLayer</t>
+  </si>
+  <si>
+    <t>DX12_MeshHandle</t>
+  </si>
+  <si>
+    <t>MeshHandle</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>UseCulling</t>
+  </si>
+  <si>
+    <t>ShowBoundingBox</t>
+  </si>
+  <si>
+    <t>ShowBoundingSphere</t>
+  </si>
+  <si>
+    <t>Pickable</t>
+  </si>
+  <si>
+    <t>UseQuat</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>1 &lt;&lt; 0</t>
+  </si>
+  <si>
+    <t>1 &lt;&lt; 1</t>
+  </si>
+  <si>
+    <t>1 &lt;&lt; 2</t>
+  </si>
+  <si>
+    <t>1 &lt;&lt; 3</t>
+  </si>
+  <si>
+    <t>eCFGInstanceComponent</t>
+  </si>
+  <si>
+    <t>Instance 관리 간 mesh 관리 최적화</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="ddd\ \ d"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -688,11 +760,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -719,23 +826,89 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,6 +925,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1071,654 +1248,854 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2829DBA9-5371-49D6-92D0-267134EE5124}">
-  <dimension ref="B1:S62"/>
+  <dimension ref="B1:R82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="1" customWidth="1"/>
-    <col min="9" max="19" width="9.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="28"/>
+    <col min="2" max="2" width="23.33203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="38" style="27" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="16" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="18" width="9.21875" style="27" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="9" t="s">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="3" t="s">
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="3" t="s">
+      <c r="D10" s="37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14"/>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="14"/>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14"/>
-      <c r="C12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14"/>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="3" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="35"/>
+      <c r="C16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="37" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="37" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="14"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="37" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="37" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="37" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="14"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="37" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="34" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="14"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="37" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="14"/>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="35"/>
+      <c r="C32" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="14"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="14"/>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="35"/>
+      <c r="C34" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="14"/>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="35"/>
+      <c r="C35" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="37" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="35"/>
+      <c r="C36" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="15"/>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="42" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="35"/>
+      <c r="C41" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="35"/>
+      <c r="C42" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="35"/>
+      <c r="C43" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="35"/>
+      <c r="C44" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="35"/>
+      <c r="C45" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="35"/>
+      <c r="C46" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="35"/>
+      <c r="C47" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="40"/>
+      <c r="C48" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C51" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D51" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
-      <c r="C41" s="3" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="35"/>
+      <c r="C52" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D52" s="37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
-      <c r="C42" s="3" t="s">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="35"/>
+      <c r="C53" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D53" s="37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
-      <c r="C43" s="3" t="s">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="35"/>
+      <c r="C54" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D54" s="37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
-      <c r="C44" s="3" t="s">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="35"/>
+      <c r="C55" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D55" s="37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="14"/>
-      <c r="C45" s="3" t="s">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="35"/>
+      <c r="C56" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D56" s="37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="14"/>
-      <c r="C46" s="3" t="s">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="35"/>
+      <c r="C57" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D57" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="14"/>
-      <c r="C47" s="3" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="35"/>
+      <c r="C58" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D58" s="37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="14"/>
-      <c r="C48" s="3" t="s">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="35"/>
+      <c r="C59" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D59" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="15"/>
-      <c r="C49" s="4" t="s">
+    <row r="60" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="40"/>
+      <c r="C60" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D60" s="42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="8" t="s">
+    <row r="61" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C63" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D63" s="39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="14"/>
-      <c r="C51" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="14"/>
-      <c r="C52" s="3" t="s">
+      <c r="F63" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H63" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="35"/>
+      <c r="C64" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="35"/>
+      <c r="G64" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H64" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="35"/>
+      <c r="C65" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D65" s="37" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="14"/>
-      <c r="C53" s="3" t="s">
+      <c r="F65" s="35"/>
+      <c r="G65" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="H65" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="35"/>
+      <c r="C66" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D66" s="37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="14"/>
-      <c r="C54" s="3" t="s">
+      <c r="F66" s="35"/>
+      <c r="G66" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H66" s="37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="35"/>
+      <c r="C67" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D67" s="37" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="14"/>
-      <c r="C55" s="3" t="s">
+      <c r="F67" s="35"/>
+      <c r="G67" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H67" s="37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="35"/>
+      <c r="C68" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D68" s="37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="14"/>
-      <c r="C56" s="3" t="s">
+      <c r="F68" s="40"/>
+      <c r="G68" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H68" s="42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="40"/>
+      <c r="C69" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D69" s="42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="5" t="s">
+    <row r="70" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C71" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D71" s="31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="8" t="s">
+      <c r="F71" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C72" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D72" s="34" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="14"/>
-      <c r="C60" s="3" t="s">
+      <c r="F72" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H72" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="35"/>
+      <c r="C73" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D73" s="37" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="14"/>
-      <c r="C61" s="3" t="s">
+      <c r="F73" s="35"/>
+      <c r="G73" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H73" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="35"/>
+      <c r="C74" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D74" s="37" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="15"/>
-      <c r="C62" s="4" t="s">
+      <c r="F74" s="35"/>
+      <c r="G74" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="H74" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="40"/>
+      <c r="C75" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D75" s="42" t="s">
         <v>99</v>
+      </c>
+      <c r="F75" s="35"/>
+      <c r="G75" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H75" s="37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F76" s="35"/>
+      <c r="G76" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H76" s="37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="40"/>
+      <c r="G77" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H77" s="42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="35"/>
+      <c r="C79" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="35"/>
+      <c r="C80" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="43"/>
+      <c r="C81" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="40"/>
+      <c r="C82" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="42" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2345,1059 +2722,1084 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE69813-0201-43C0-866C-5D3C128F7149}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="25" customWidth="1"/>
     <col min="4" max="4" width="2.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="25" customWidth="1"/>
     <col min="6" max="6" width="2.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="25" customWidth="1"/>
     <col min="8" max="8" width="2.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="25" customWidth="1"/>
     <col min="10" max="10" width="2.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25" style="25" customWidth="1"/>
     <col min="12" max="12" width="2.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="25" customWidth="1"/>
     <col min="14" max="14" width="2.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="28.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="25" customWidth="1"/>
     <col min="16" max="26" width="9.21875" style="1" customWidth="1"/>
     <col min="27" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16">
-        <f>DATE(2025, 7, 12)</f>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="16"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="20"/>
+      <c r="C2" s="22">
+        <f>DATE(2025, 7, 7)</f>
+        <v>45845</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="22">
+        <f>C2+1</f>
+        <v>45846</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="22">
+        <f>E2+1</f>
+        <v>45847</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="22">
+        <f>G2+1</f>
+        <v>45848</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="22">
+        <f>I2+1</f>
+        <v>45849</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="22">
+        <f>K2+1</f>
         <v>45850</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>7</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="str">
-        <f>"MON  "&amp;A2</f>
-        <v>MON  7</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23" t="str">
-        <f>"TUE  "&amp;SUM(A2,1)</f>
-        <v>TUE  8</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="str">
-        <f>"WEN  "&amp;SUM(A2,2)</f>
-        <v>WEN  9</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23" t="str">
-        <f>"TUE  "&amp;SUM(A2,3)</f>
-        <v>TUE  10</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23" t="str">
-        <f>"FRI  "&amp;SUM(A2,4)</f>
-        <v>FRI  11</v>
-      </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23" t="str">
-        <f>"SAT  "&amp;SUM(A2,5)</f>
-        <v>SAT  12</v>
-      </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23" t="str">
-        <f>"SUN  "&amp;SUM(A2,6)</f>
-        <v>SUN  13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20" t="s">
+      <c r="N2" s="20"/>
+      <c r="O2" s="22">
+        <f>M2+1</f>
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J3" s="19"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="26"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="24"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20" t="s">
+      <c r="O5" s="24"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="21"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J6" s="19"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
+      <c r="M7" s="24"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="24"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="24"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="24"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="24"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20" t="s">
+      <c r="O10" s="24"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="21"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J11" s="19"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="26"/>
+    </row>
+    <row r="12" spans="2:15" ht="21.6" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="17"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="18"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14" s="24"/>
+      <c r="N14" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="18"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
+      <c r="K16" s="24"/>
       <c r="L16" s="17"/>
-      <c r="M16" s="18"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="18"/>
+      <c r="O16" s="24"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="26"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="K18" s="24"/>
       <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="18"/>
+      <c r="O18" s="24"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="24"/>
       <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="18"/>
+      <c r="O19" s="24"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="K20" s="24"/>
       <c r="L20" s="17"/>
-      <c r="M20" s="18"/>
+      <c r="M20" s="24"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="18"/>
+      <c r="O20" s="24"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="24"/>
       <c r="L21" s="17"/>
-      <c r="M21" s="18"/>
+      <c r="M21" s="24"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="18"/>
+      <c r="O21" s="24"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
+      <c r="K22" s="24"/>
       <c r="L22" s="17"/>
-      <c r="M22" s="18"/>
+      <c r="M22" s="24"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="18"/>
+      <c r="O22" s="24"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="26"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="17">
         <v>6</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="17">
         <v>6</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="17">
         <v>6</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="17">
         <v>6</v>
       </c>
-      <c r="I24" s="18"/>
+      <c r="I24" s="24"/>
       <c r="J24" s="17">
         <v>6</v>
       </c>
-      <c r="K24" s="18"/>
+      <c r="K24" s="24"/>
       <c r="L24" s="17">
         <v>6</v>
       </c>
-      <c r="M24" s="18"/>
+      <c r="M24" s="24"/>
       <c r="N24" s="17">
         <v>6</v>
       </c>
-      <c r="O24" s="18"/>
+      <c r="O24" s="24"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="17">
         <v>7</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="17">
         <v>7</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="17">
         <v>7</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="17">
         <v>7</v>
       </c>
-      <c r="I25" s="18"/>
+      <c r="I25" s="24"/>
       <c r="J25" s="17">
         <v>7</v>
       </c>
-      <c r="K25" s="18"/>
+      <c r="K25" s="24"/>
       <c r="L25" s="17">
         <v>7</v>
       </c>
-      <c r="M25" s="18"/>
+      <c r="M25" s="24"/>
       <c r="N25" s="17">
         <v>7</v>
       </c>
-      <c r="O25" s="18"/>
+      <c r="O25" s="24"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="17">
         <v>8</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="17">
         <v>8</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="17">
         <v>8</v>
       </c>
-      <c r="G26" s="18"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="17">
         <v>8</v>
       </c>
-      <c r="I26" s="18"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="17">
         <v>8</v>
       </c>
-      <c r="K26" s="18"/>
+      <c r="K26" s="24"/>
       <c r="L26" s="17">
         <v>8</v>
       </c>
-      <c r="M26" s="18"/>
+      <c r="M26" s="24"/>
       <c r="N26" s="17">
         <v>8</v>
       </c>
-      <c r="O26" s="18"/>
+      <c r="O26" s="24"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="17">
         <v>9</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="17">
         <v>9</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="17">
         <v>9</v>
       </c>
-      <c r="G27" s="18"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="17">
         <v>9</v>
       </c>
-      <c r="I27" s="18"/>
+      <c r="I27" s="24"/>
       <c r="J27" s="17">
         <v>9</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="24"/>
       <c r="L27" s="17">
         <v>9</v>
       </c>
-      <c r="M27" s="18"/>
+      <c r="M27" s="24"/>
       <c r="N27" s="17">
         <v>9</v>
       </c>
-      <c r="O27" s="18"/>
+      <c r="O27" s="24"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="17">
         <v>10</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="17">
         <v>10</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="17">
         <v>10</v>
       </c>
-      <c r="G28" s="18"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="17">
         <v>10</v>
       </c>
-      <c r="I28" s="18"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="17">
         <v>10</v>
       </c>
-      <c r="K28" s="18"/>
+      <c r="K28" s="24"/>
       <c r="L28" s="17">
         <v>10</v>
       </c>
-      <c r="M28" s="18" t="s">
-        <v>113</v>
+      <c r="M28" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="N28" s="17">
         <v>10</v>
       </c>
-      <c r="O28" s="18"/>
+      <c r="O28" s="24"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="17">
         <v>11</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="17">
         <v>11</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="17">
         <v>11</v>
       </c>
-      <c r="G29" s="18"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="17">
         <v>11</v>
       </c>
-      <c r="I29" s="18"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="17">
         <v>11</v>
       </c>
-      <c r="K29" s="18"/>
+      <c r="K29" s="24"/>
       <c r="L29" s="17">
         <v>11</v>
       </c>
-      <c r="M29" s="18" t="s">
-        <v>113</v>
+      <c r="M29" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="N29" s="17">
         <v>11</v>
       </c>
-      <c r="O29" s="18"/>
+      <c r="O29" s="24" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="17">
         <v>12</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="17">
         <v>12</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="17">
         <v>12</v>
       </c>
-      <c r="G30" s="18"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="17">
         <v>12</v>
       </c>
-      <c r="I30" s="18"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="17">
         <v>12</v>
       </c>
-      <c r="K30" s="18"/>
+      <c r="K30" s="24"/>
       <c r="L30" s="17">
         <v>12</v>
       </c>
-      <c r="M30" s="18" t="s">
-        <v>113</v>
+      <c r="M30" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="N30" s="17">
         <v>12</v>
       </c>
-      <c r="O30" s="18"/>
+      <c r="O30" s="24" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="17">
         <v>1</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="17">
         <v>1</v>
       </c>
-      <c r="E31" s="18"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="17">
         <v>1</v>
       </c>
-      <c r="G31" s="18"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="17">
         <v>1</v>
       </c>
-      <c r="I31" s="18"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="17">
         <v>1</v>
       </c>
-      <c r="K31" s="18"/>
+      <c r="K31" s="24"/>
       <c r="L31" s="17">
         <v>1</v>
       </c>
-      <c r="M31" s="18" t="s">
-        <v>113</v>
+      <c r="M31" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="N31" s="17">
         <v>1</v>
       </c>
-      <c r="O31" s="18"/>
+      <c r="O31" s="24" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="17">
         <v>2</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="17">
         <v>2</v>
       </c>
-      <c r="E32" s="18"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="17">
         <v>2</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="17">
         <v>2</v>
       </c>
-      <c r="I32" s="18"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="17">
         <v>2</v>
       </c>
-      <c r="K32" s="18"/>
+      <c r="K32" s="24"/>
       <c r="L32" s="17">
         <v>2</v>
       </c>
-      <c r="M32" s="18" t="s">
-        <v>113</v>
+      <c r="M32" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="N32" s="17">
         <v>2</v>
       </c>
-      <c r="O32" s="18"/>
+      <c r="O32" s="24" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="17">
         <v>3</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="17">
         <v>3</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="17">
         <v>3</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="17">
         <v>3</v>
       </c>
-      <c r="I33" s="18"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="17">
         <v>3</v>
       </c>
-      <c r="K33" s="18"/>
+      <c r="K33" s="24"/>
       <c r="L33" s="17">
         <v>3</v>
       </c>
-      <c r="M33" s="18" t="s">
-        <v>113</v>
+      <c r="M33" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="N33" s="17">
         <v>3</v>
       </c>
-      <c r="O33" s="18"/>
+      <c r="O33" s="24" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="17">
         <v>4</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="17">
         <v>4</v>
       </c>
-      <c r="E34" s="18"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="17">
         <v>4</v>
       </c>
-      <c r="G34" s="18"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="17">
         <v>4</v>
       </c>
-      <c r="I34" s="18"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="17">
         <v>4</v>
       </c>
-      <c r="K34" s="18"/>
+      <c r="K34" s="24"/>
       <c r="L34" s="17">
         <v>4</v>
       </c>
-      <c r="M34" s="18" t="s">
-        <v>113</v>
+      <c r="M34" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="N34" s="17">
         <v>4</v>
       </c>
-      <c r="O34" s="18"/>
+      <c r="O34" s="24" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="17">
         <v>5</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="17">
         <v>5</v>
       </c>
-      <c r="E35" s="18"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="17">
         <v>5</v>
       </c>
-      <c r="G35" s="18"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="17">
         <v>5</v>
       </c>
-      <c r="I35" s="18"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="17">
         <v>5</v>
       </c>
-      <c r="K35" s="18"/>
+      <c r="K35" s="24"/>
       <c r="L35" s="17">
         <v>5</v>
       </c>
-      <c r="M35" s="18" t="s">
-        <v>113</v>
+      <c r="M35" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="N35" s="17">
         <v>5</v>
       </c>
-      <c r="O35" s="18"/>
+      <c r="O35" s="24"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="17">
         <v>6</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="17">
         <v>6</v>
       </c>
-      <c r="E36" s="18"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="17">
         <v>6</v>
       </c>
-      <c r="G36" s="18"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="17">
         <v>6</v>
       </c>
-      <c r="I36" s="18"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="17">
         <v>6</v>
       </c>
-      <c r="K36" s="18"/>
+      <c r="K36" s="24"/>
       <c r="L36" s="17">
         <v>6</v>
       </c>
-      <c r="M36" s="18" t="s">
-        <v>113</v>
+      <c r="M36" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="N36" s="17">
         <v>6</v>
       </c>
-      <c r="O36" s="18"/>
+      <c r="O36" s="24" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="17">
         <v>7</v>
       </c>
-      <c r="C37" s="18"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="17">
         <v>7</v>
       </c>
-      <c r="E37" s="18"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="17">
         <v>7</v>
       </c>
-      <c r="G37" s="18"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="17">
         <v>7</v>
       </c>
-      <c r="I37" s="18"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="17">
         <v>7</v>
       </c>
-      <c r="K37" s="18"/>
+      <c r="K37" s="24"/>
       <c r="L37" s="17">
         <v>7</v>
       </c>
-      <c r="M37" s="18" t="s">
-        <v>113</v>
+      <c r="M37" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="N37" s="17">
         <v>7</v>
       </c>
-      <c r="O37" s="18"/>
+      <c r="O37" s="24" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="17">
         <v>8</v>
       </c>
-      <c r="C38" s="18"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="17">
         <v>8</v>
       </c>
-      <c r="E38" s="18"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="17">
         <v>8</v>
       </c>
-      <c r="G38" s="18"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="17">
         <v>8</v>
       </c>
-      <c r="I38" s="18"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="17">
         <v>8</v>
       </c>
-      <c r="K38" s="18"/>
+      <c r="K38" s="24"/>
       <c r="L38" s="17">
         <v>8</v>
       </c>
-      <c r="M38" s="18" t="s">
-        <v>113</v>
+      <c r="M38" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="N38" s="17">
         <v>8</v>
       </c>
-      <c r="O38" s="18"/>
+      <c r="O38" s="24" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="17">
         <v>9</v>
       </c>
-      <c r="C39" s="18"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="17">
         <v>9</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="17">
         <v>9</v>
       </c>
-      <c r="G39" s="18"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="17">
         <v>9</v>
       </c>
-      <c r="I39" s="18"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="17">
         <v>9</v>
       </c>
-      <c r="K39" s="18"/>
+      <c r="K39" s="24"/>
       <c r="L39" s="17">
         <v>9</v>
       </c>
-      <c r="M39" s="18"/>
+      <c r="M39" s="24"/>
       <c r="N39" s="17">
         <v>9</v>
       </c>
-      <c r="O39" s="18"/>
+      <c r="O39" s="24"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="17">
         <v>10</v>
       </c>
-      <c r="C40" s="18"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="17">
         <v>10</v>
       </c>
-      <c r="E40" s="18"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="17">
         <v>10</v>
       </c>
-      <c r="G40" s="18"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="17">
         <v>10</v>
       </c>
-      <c r="I40" s="18"/>
+      <c r="I40" s="24"/>
       <c r="J40" s="17">
         <v>10</v>
       </c>
-      <c r="K40" s="18"/>
+      <c r="K40" s="24"/>
       <c r="L40" s="17">
         <v>10</v>
       </c>
-      <c r="M40" s="18" t="s">
+      <c r="M40" s="24" t="s">
         <v>108</v>
       </c>
       <c r="N40" s="17">
         <v>10</v>
       </c>
-      <c r="O40" s="18"/>
+      <c r="O40" s="24"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="17">
         <v>11</v>
       </c>
-      <c r="C41" s="18"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="17">
         <v>11</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="17">
         <v>11</v>
       </c>
-      <c r="G41" s="18"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="17">
         <v>11</v>
       </c>
-      <c r="I41" s="18"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="17">
         <v>11</v>
       </c>
-      <c r="K41" s="18"/>
+      <c r="K41" s="24"/>
       <c r="L41" s="17">
         <v>11</v>
       </c>
-      <c r="M41" s="18"/>
+      <c r="M41" s="24"/>
       <c r="N41" s="17">
         <v>11</v>
       </c>
-      <c r="O41" s="18"/>
+      <c r="O41" s="24"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="17">
         <v>12</v>
       </c>
-      <c r="C42" s="18"/>
+      <c r="C42" s="24"/>
       <c r="D42" s="17">
         <v>12</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="17">
         <v>12</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="17">
         <v>12</v>
       </c>
-      <c r="I42" s="18"/>
+      <c r="I42" s="24"/>
       <c r="J42" s="17">
         <v>12</v>
       </c>
-      <c r="K42" s="18"/>
+      <c r="K42" s="24"/>
       <c r="L42" s="17">
         <v>12</v>
       </c>
-      <c r="M42" s="18" t="s">
-        <v>112</v>
+      <c r="M42" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="N42" s="17">
         <v>12</v>
       </c>
-      <c r="O42" s="18"/>
+      <c r="O42" s="24"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="17">
         <v>1</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="17">
         <v>1</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="17">
         <v>1</v>
       </c>
-      <c r="G43" s="18"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="17">
         <v>1</v>
       </c>
-      <c r="I43" s="18"/>
+      <c r="I43" s="24"/>
       <c r="J43" s="17">
         <v>1</v>
       </c>
-      <c r="K43" s="18"/>
+      <c r="K43" s="24"/>
       <c r="L43" s="17">
         <v>1</v>
       </c>
-      <c r="M43" s="18"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="17">
         <v>1</v>
       </c>
-      <c r="O43" s="18"/>
+      <c r="O43" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74ADA2FD-379F-40AD-A608-D217FF3D2B24}"/>
+  <xr:revisionPtr revIDLastSave="491" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DE85A4C-5B9E-4763-8BBB-AFB6B9D47D61}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="144">
   <si>
     <t>InstanceData</t>
   </si>
@@ -449,14 +449,36 @@
   </si>
   <si>
     <t>Instance 관리 간 mesh 관리 최적화</t>
+  </si>
+  <si>
+    <t>USI-T Checklist 진행</t>
+  </si>
+  <si>
+    <t>CSPI+ TX Data Generator 제작</t>
+  </si>
+  <si>
+    <t>USI-T SMART EQ2 기능 제작</t>
+  </si>
+  <si>
+    <t>USI-T RX SBC 통신 RD2 기능 제작</t>
+  </si>
+  <si>
+    <t>집안일 빨래</t>
+  </si>
+  <si>
+    <t>Instance 관리 방식 개선</t>
+  </si>
+  <si>
+    <t>Instance 관리 방식 안정화</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="ddd\ \ d"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="ddd\ \ d"/>
+    <numFmt numFmtId="165" formatCode="m/d\ \[ddd\]"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -799,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -822,23 +844,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,9 +855,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -910,6 +916,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,10 +952,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1256,845 +1279,845 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="28"/>
-    <col min="2" max="2" width="23.33203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="38" style="27" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="27" customWidth="1"/>
-    <col min="6" max="6" width="16" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="18" width="9.21875" style="27" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="28"/>
+    <col min="1" max="1" width="8.88671875" style="22"/>
+    <col min="2" max="2" width="23.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38" style="21" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="16" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="18" width="9.21875" style="21" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="35"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="31" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="35"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="31" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="35"/>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="31" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="35"/>
-      <c r="C19" s="36" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="35"/>
-      <c r="C26" s="36" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="35"/>
-      <c r="C28" s="36" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="31" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="35"/>
-      <c r="C29" s="36" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="35"/>
-      <c r="C30" s="36" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
-      <c r="C31" s="36" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="31" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="35"/>
-      <c r="C32" s="36" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="31" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="35"/>
-      <c r="C33" s="36" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="31" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="35"/>
-      <c r="C34" s="36" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="31" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="35"/>
-      <c r="C35" s="36" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="31" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="35"/>
-      <c r="C36" s="36" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="40"/>
-      <c r="C37" s="41" t="s">
+      <c r="B37" s="34"/>
+      <c r="C37" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="28" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="35"/>
-      <c r="C41" s="36" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="35"/>
-      <c r="C42" s="36" t="s">
+      <c r="B42" s="29"/>
+      <c r="C42" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="36" t="s">
+      <c r="B43" s="29"/>
+      <c r="C43" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="31" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="35"/>
-      <c r="C44" s="36" t="s">
+      <c r="B44" s="29"/>
+      <c r="C44" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="35"/>
-      <c r="C45" s="36" t="s">
+      <c r="B45" s="29"/>
+      <c r="C45" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="31" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="35"/>
-      <c r="C46" s="36" t="s">
+      <c r="B46" s="29"/>
+      <c r="C46" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="31" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="35"/>
-      <c r="C47" s="36" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="40"/>
-      <c r="C48" s="41" t="s">
+      <c r="B48" s="34"/>
+      <c r="C48" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="36" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="35"/>
-      <c r="C52" s="36" t="s">
+      <c r="B52" s="29"/>
+      <c r="C52" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="35"/>
-      <c r="C53" s="36" t="s">
+      <c r="B53" s="29"/>
+      <c r="C53" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="35"/>
-      <c r="C54" s="36" t="s">
+      <c r="B54" s="29"/>
+      <c r="C54" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="35"/>
-      <c r="C55" s="36" t="s">
+      <c r="B55" s="29"/>
+      <c r="C55" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="D55" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="35"/>
-      <c r="C56" s="36" t="s">
+      <c r="B56" s="29"/>
+      <c r="C56" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="35"/>
-      <c r="C57" s="36" t="s">
+      <c r="B57" s="29"/>
+      <c r="C57" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="35"/>
-      <c r="C58" s="36" t="s">
+      <c r="B58" s="29"/>
+      <c r="C58" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="35"/>
-      <c r="C59" s="36" t="s">
+      <c r="B59" s="29"/>
+      <c r="C59" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="37" t="s">
+      <c r="D59" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="40"/>
-      <c r="C60" s="41" t="s">
+      <c r="B60" s="34"/>
+      <c r="C60" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="42" t="s">
+      <c r="D60" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="29" t="s">
+      <c r="F62" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="G62" s="30" t="s">
+      <c r="G62" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H62" s="31" t="s">
+      <c r="H62" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F63" s="32" t="s">
+      <c r="F63" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="G63" s="38" t="s">
+      <c r="G63" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="H63" s="34">
+      <c r="H63" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="35"/>
-      <c r="C64" s="36" t="s">
+      <c r="B64" s="29"/>
+      <c r="C64" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="37" t="s">
+      <c r="D64" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="F64" s="35"/>
-      <c r="G64" s="36" t="s">
+      <c r="F64" s="29"/>
+      <c r="G64" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H64" s="37" t="s">
+      <c r="H64" s="31" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="35"/>
-      <c r="C65" s="36" t="s">
+      <c r="B65" s="29"/>
+      <c r="C65" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="37" t="s">
+      <c r="D65" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="35"/>
-      <c r="G65" s="36" t="s">
+      <c r="F65" s="29"/>
+      <c r="G65" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="H65" s="37" t="s">
+      <c r="H65" s="31" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="35"/>
-      <c r="C66" s="36" t="s">
+      <c r="B66" s="29"/>
+      <c r="C66" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="37" t="s">
+      <c r="D66" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="36" t="s">
+      <c r="F66" s="29"/>
+      <c r="G66" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="H66" s="37" t="s">
+      <c r="H66" s="31" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="35"/>
-      <c r="C67" s="36" t="s">
+      <c r="B67" s="29"/>
+      <c r="C67" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="37" t="s">
+      <c r="D67" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F67" s="35"/>
-      <c r="G67" s="36" t="s">
+      <c r="F67" s="29"/>
+      <c r="G67" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H67" s="37" t="s">
+      <c r="H67" s="31" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="35"/>
-      <c r="C68" s="36" t="s">
+      <c r="B68" s="29"/>
+      <c r="C68" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="37" t="s">
+      <c r="D68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F68" s="40"/>
-      <c r="G68" s="41" t="s">
+      <c r="F68" s="34"/>
+      <c r="G68" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="H68" s="42" t="s">
+      <c r="H68" s="36" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="40"/>
-      <c r="C69" s="41" t="s">
+      <c r="B69" s="34"/>
+      <c r="C69" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D69" s="36" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="29" t="s">
+      <c r="F71" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="G71" s="30" t="s">
+      <c r="G71" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H71" s="31" t="s">
+      <c r="H71" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="34" t="s">
+      <c r="D72" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="F72" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="H72" s="34">
+      <c r="H72" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="35"/>
-      <c r="C73" s="36" t="s">
+      <c r="B73" s="29"/>
+      <c r="C73" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="35"/>
-      <c r="G73" s="36" t="s">
+      <c r="F73" s="29"/>
+      <c r="G73" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H73" s="37" t="s">
+      <c r="H73" s="31" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="35"/>
-      <c r="C74" s="36" t="s">
+      <c r="B74" s="29"/>
+      <c r="C74" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="37" t="s">
+      <c r="D74" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="F74" s="35"/>
-      <c r="G74" s="36" t="s">
+      <c r="F74" s="29"/>
+      <c r="G74" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="H74" s="37" t="s">
+      <c r="H74" s="31" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="40"/>
-      <c r="C75" s="41" t="s">
+      <c r="B75" s="34"/>
+      <c r="C75" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="D75" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F75" s="35"/>
-      <c r="G75" s="36" t="s">
+      <c r="F75" s="29"/>
+      <c r="G75" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="H75" s="37" t="s">
+      <c r="H75" s="31" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F76" s="35"/>
-      <c r="G76" s="36" t="s">
+      <c r="F76" s="29"/>
+      <c r="G76" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H76" s="37" t="s">
+      <c r="H76" s="31" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="40"/>
-      <c r="G77" s="41" t="s">
+      <c r="F77" s="34"/>
+      <c r="G77" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="H77" s="42" t="s">
+      <c r="H77" s="36" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="34" t="s">
+      <c r="D78" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="35"/>
-      <c r="C79" s="36" t="s">
+      <c r="B79" s="29"/>
+      <c r="C79" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D79" s="37" t="s">
+      <c r="D79" s="31" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="35"/>
-      <c r="C80" s="36" t="s">
+      <c r="B80" s="29"/>
+      <c r="C80" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="37" t="s">
+      <c r="D80" s="31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="43"/>
-      <c r="C81" s="44" t="s">
+      <c r="B81" s="37"/>
+      <c r="C81" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="D81" s="39" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="40"/>
-      <c r="C82" s="41" t="s">
+      <c r="B82" s="34"/>
+      <c r="C82" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="D82" s="42" t="s">
+      <c r="D82" s="36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2722,1084 +2745,2085 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE69813-0201-43C0-866C-5D3C128F7149}">
-  <dimension ref="B1:O43"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="25" customWidth="1"/>
-    <col min="4" max="4" width="2.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="25" customWidth="1"/>
-    <col min="6" max="6" width="2.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="25" customWidth="1"/>
-    <col min="8" max="8" width="2.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="25" customWidth="1"/>
-    <col min="10" max="10" width="2.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25" style="25" customWidth="1"/>
-    <col min="12" max="12" width="2.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25" style="25" customWidth="1"/>
-    <col min="14" max="14" width="2.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="25" customWidth="1"/>
-    <col min="16" max="26" width="9.21875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2" style="42" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2" style="42" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" style="42" customWidth="1"/>
+    <col min="18" max="18" width="25" style="16" customWidth="1"/>
+    <col min="19" max="19" width="2.109375" style="42" customWidth="1"/>
+    <col min="20" max="20" width="25" style="16" customWidth="1"/>
+    <col min="21" max="21" width="2.109375" style="42" customWidth="1"/>
+    <col min="22" max="22" width="25" style="16" customWidth="1"/>
+    <col min="23" max="23" width="2.109375" style="42" customWidth="1"/>
+    <col min="24" max="24" width="25" style="16" customWidth="1"/>
+    <col min="25" max="25" width="2.109375" style="42" customWidth="1"/>
+    <col min="26" max="26" width="25" style="16" customWidth="1"/>
+    <col min="27" max="27" width="2.109375" style="42" customWidth="1"/>
+    <col min="28" max="28" width="25" style="16" customWidth="1"/>
+    <col min="29" max="29" width="2.109375" style="42" customWidth="1"/>
+    <col min="30" max="30" width="25" style="16" customWidth="1"/>
+    <col min="31" max="41" width="9.21875" style="42" customWidth="1"/>
+    <col min="42" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="16"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="22">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="S1" s="41"/>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B2" s="43"/>
+      <c r="C2" s="17">
         <f>DATE(2025, 7, 7)</f>
         <v>45845</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="22">
+      <c r="D2" s="43"/>
+      <c r="E2" s="17">
         <f>C2+1</f>
         <v>45846</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="22">
+      <c r="F2" s="43"/>
+      <c r="G2" s="17">
         <f>E2+1</f>
         <v>45847</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="22">
+      <c r="H2" s="43"/>
+      <c r="I2" s="17">
         <f>G2+1</f>
         <v>45848</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="22">
+      <c r="J2" s="43"/>
+      <c r="K2" s="17">
         <f>I2+1</f>
         <v>45849</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="22">
+      <c r="L2" s="43"/>
+      <c r="M2" s="17">
         <f>K2+1</f>
         <v>45850</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22">
+      <c r="N2" s="43"/>
+      <c r="O2" s="17">
         <f>M2+1</f>
         <v>45851</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="23" t="s">
+      <c r="Q2" s="43"/>
+      <c r="R2" s="40">
+        <f>DATE(2025, 7, 14)</f>
+        <v>45852</v>
+      </c>
+      <c r="S2" s="43"/>
+      <c r="T2" s="40">
+        <f>R2+1</f>
+        <v>45853</v>
+      </c>
+      <c r="U2" s="43"/>
+      <c r="V2" s="40">
+        <f>T2+1</f>
+        <v>45854</v>
+      </c>
+      <c r="W2" s="43"/>
+      <c r="X2" s="40">
+        <f>V2+1</f>
+        <v>45855</v>
+      </c>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="40">
+        <f>X2+1</f>
+        <v>45856</v>
+      </c>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="40">
+        <f>Z2+1</f>
+        <v>45857</v>
+      </c>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="40">
+        <f>AB2+1</f>
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B3" s="44"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="26"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="24"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="24"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="23" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="20"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="20"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B4" s="46"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="19"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="19"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B5" s="46"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="19"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="19"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B6" s="44"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="26"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="24"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="24"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="24"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="24"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="23" t="s">
+      <c r="J6" s="45"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="20"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="20"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B7" s="46"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="19"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="19"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B8" s="46"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="19"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="19"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B9" s="46"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="19"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="19"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B10" s="46"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="19"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="19"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B11" s="44"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="26"/>
-    </row>
-    <row r="12" spans="2:15" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="24" t="s">
+      <c r="J11" s="45"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="20"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="20"/>
+    </row>
+    <row r="12" spans="2:30" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="46"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="19" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="17" t="s">
+      <c r="Q12" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="R12" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="S12" s="46"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="19"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B13" s="46"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="17" t="s">
+      <c r="Q13" s="46"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="19"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B14" s="46"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="O14" s="19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="24" t="s">
+      <c r="Q14" s="46"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="19"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B15" s="46"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="19" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="24"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="23" t="s">
+      <c r="Q15" s="46"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="19"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B16" s="46"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="19"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="19"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B17" s="44"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="26"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="24"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="24"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="24"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="24"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="24"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="23" t="s">
+      <c r="J17" s="45"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="20"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="20"/>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B18" s="46"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="19"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="19"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B19" s="46"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="19"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="19"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B20" s="46"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="19"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="19"/>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B21" s="46"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="19"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="19"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B22" s="46"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="19"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="19"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B23" s="44"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="26"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="17">
+      <c r="J23" s="45"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="20"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="20"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B24" s="46">
         <v>6</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="17">
+      <c r="C24" s="19"/>
+      <c r="D24" s="46">
         <v>6</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="17">
+      <c r="E24" s="19"/>
+      <c r="F24" s="46">
         <v>6</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="17">
+      <c r="G24" s="19"/>
+      <c r="H24" s="46">
         <v>6</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="17">
+      <c r="I24" s="19"/>
+      <c r="J24" s="46">
         <v>6</v>
       </c>
-      <c r="K24" s="24"/>
-      <c r="L24" s="17">
+      <c r="K24" s="19"/>
+      <c r="L24" s="46">
         <v>6</v>
       </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="17">
+      <c r="M24" s="19"/>
+      <c r="N24" s="46">
         <v>6</v>
       </c>
-      <c r="O24" s="24"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="17">
+      <c r="O24" s="19"/>
+      <c r="Q24" s="46">
+        <v>6</v>
+      </c>
+      <c r="R24" s="19"/>
+      <c r="S24" s="46">
+        <v>6</v>
+      </c>
+      <c r="T24" s="19"/>
+      <c r="U24" s="46">
+        <v>6</v>
+      </c>
+      <c r="V24" s="19"/>
+      <c r="W24" s="46">
+        <v>6</v>
+      </c>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="46">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="46">
+        <v>6</v>
+      </c>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="46">
+        <v>6</v>
+      </c>
+      <c r="AD24" s="19"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B25" s="46">
         <v>7</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="17">
+      <c r="C25" s="19"/>
+      <c r="D25" s="46">
         <v>7</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="17">
+      <c r="E25" s="19"/>
+      <c r="F25" s="46">
         <v>7</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="17">
+      <c r="G25" s="19"/>
+      <c r="H25" s="46">
         <v>7</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="17">
+      <c r="I25" s="19"/>
+      <c r="J25" s="46">
         <v>7</v>
       </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="17">
+      <c r="K25" s="19"/>
+      <c r="L25" s="46">
         <v>7</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="17">
+      <c r="M25" s="19"/>
+      <c r="N25" s="46">
         <v>7</v>
       </c>
-      <c r="O25" s="24"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="17">
+      <c r="O25" s="19"/>
+      <c r="Q25" s="46">
+        <v>7</v>
+      </c>
+      <c r="R25" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="S25" s="46">
+        <v>7</v>
+      </c>
+      <c r="T25" s="19"/>
+      <c r="U25" s="46">
+        <v>7</v>
+      </c>
+      <c r="V25" s="19"/>
+      <c r="W25" s="46">
+        <v>7</v>
+      </c>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="46">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="46">
+        <v>7</v>
+      </c>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="46">
+        <v>7</v>
+      </c>
+      <c r="AD25" s="19"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B26" s="46">
         <v>8</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="17">
+      <c r="C26" s="19"/>
+      <c r="D26" s="46">
         <v>8</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="17">
+      <c r="E26" s="19"/>
+      <c r="F26" s="46">
         <v>8</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="17">
+      <c r="G26" s="19"/>
+      <c r="H26" s="46">
         <v>8</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="17">
+      <c r="I26" s="19"/>
+      <c r="J26" s="46">
         <v>8</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="17">
+      <c r="K26" s="19"/>
+      <c r="L26" s="46">
         <v>8</v>
       </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="17">
+      <c r="M26" s="19"/>
+      <c r="N26" s="46">
         <v>8</v>
       </c>
-      <c r="O26" s="24"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="17">
+      <c r="O26" s="19"/>
+      <c r="Q26" s="46">
+        <v>8</v>
+      </c>
+      <c r="R26" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="S26" s="46">
+        <v>8</v>
+      </c>
+      <c r="T26" s="19"/>
+      <c r="U26" s="46">
+        <v>8</v>
+      </c>
+      <c r="V26" s="19"/>
+      <c r="W26" s="46">
+        <v>8</v>
+      </c>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="46">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="46">
+        <v>8</v>
+      </c>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="46">
+        <v>8</v>
+      </c>
+      <c r="AD26" s="19"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B27" s="46">
         <v>9</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="17">
+      <c r="C27" s="19"/>
+      <c r="D27" s="46">
         <v>9</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="17">
+      <c r="E27" s="19"/>
+      <c r="F27" s="46">
         <v>9</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="17">
+      <c r="G27" s="19"/>
+      <c r="H27" s="46">
         <v>9</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="17">
+      <c r="I27" s="19"/>
+      <c r="J27" s="46">
         <v>9</v>
       </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="17">
+      <c r="K27" s="19"/>
+      <c r="L27" s="46">
         <v>9</v>
       </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="17">
+      <c r="M27" s="19"/>
+      <c r="N27" s="46">
         <v>9</v>
       </c>
-      <c r="O27" s="24"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="17">
+      <c r="O27" s="19"/>
+      <c r="Q27" s="46">
+        <v>9</v>
+      </c>
+      <c r="R27" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="S27" s="46">
+        <v>9</v>
+      </c>
+      <c r="T27" s="19"/>
+      <c r="U27" s="46">
+        <v>9</v>
+      </c>
+      <c r="V27" s="19"/>
+      <c r="W27" s="46">
+        <v>9</v>
+      </c>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="46">
+        <v>9</v>
+      </c>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="46">
+        <v>9</v>
+      </c>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="46">
+        <v>9</v>
+      </c>
+      <c r="AD27" s="19"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B28" s="46">
         <v>10</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="17">
+      <c r="C28" s="19"/>
+      <c r="D28" s="46">
         <v>10</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="17">
+      <c r="E28" s="19"/>
+      <c r="F28" s="46">
         <v>10</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="17">
+      <c r="G28" s="19"/>
+      <c r="H28" s="46">
         <v>10</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="17">
+      <c r="I28" s="19"/>
+      <c r="J28" s="46">
         <v>10</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="17">
+      <c r="K28" s="19"/>
+      <c r="L28" s="46">
         <v>10</v>
       </c>
-      <c r="M28" s="24" t="s">
+      <c r="M28" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="46">
         <v>10</v>
       </c>
-      <c r="O28" s="24"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="17">
+      <c r="O28" s="19"/>
+      <c r="Q28" s="46">
+        <v>10</v>
+      </c>
+      <c r="R28" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="S28" s="46">
+        <v>10</v>
+      </c>
+      <c r="T28" s="19"/>
+      <c r="U28" s="46">
+        <v>10</v>
+      </c>
+      <c r="V28" s="19"/>
+      <c r="W28" s="46">
+        <v>10</v>
+      </c>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="46">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="46">
+        <v>10</v>
+      </c>
+      <c r="AB28" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC28" s="46">
+        <v>10</v>
+      </c>
+      <c r="AD28" s="19"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B29" s="46">
         <v>11</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="17">
+      <c r="C29" s="19"/>
+      <c r="D29" s="46">
         <v>11</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="17">
+      <c r="E29" s="19"/>
+      <c r="F29" s="46">
         <v>11</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="17">
+      <c r="G29" s="19"/>
+      <c r="H29" s="46">
         <v>11</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="17">
+      <c r="I29" s="19"/>
+      <c r="J29" s="46">
         <v>11</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="17">
+      <c r="K29" s="19"/>
+      <c r="L29" s="46">
         <v>11</v>
       </c>
-      <c r="M29" s="24" t="s">
+      <c r="M29" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="46">
         <v>11</v>
       </c>
-      <c r="O29" s="24" t="s">
+      <c r="O29" s="19" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="17">
+      <c r="Q29" s="46">
+        <v>11</v>
+      </c>
+      <c r="R29" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="S29" s="46">
+        <v>11</v>
+      </c>
+      <c r="T29" s="19"/>
+      <c r="U29" s="46">
+        <v>11</v>
+      </c>
+      <c r="V29" s="19"/>
+      <c r="W29" s="46">
+        <v>11</v>
+      </c>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="46">
+        <v>11</v>
+      </c>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="46">
+        <v>11</v>
+      </c>
+      <c r="AB29" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC29" s="46">
+        <v>11</v>
+      </c>
+      <c r="AD29" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B30" s="46">
         <v>12</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="17">
+      <c r="C30" s="19"/>
+      <c r="D30" s="46">
         <v>12</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="17">
+      <c r="E30" s="19"/>
+      <c r="F30" s="46">
         <v>12</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="17">
+      <c r="G30" s="19"/>
+      <c r="H30" s="46">
         <v>12</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="17">
+      <c r="I30" s="19"/>
+      <c r="J30" s="46">
         <v>12</v>
       </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="17">
+      <c r="K30" s="19"/>
+      <c r="L30" s="46">
         <v>12</v>
       </c>
-      <c r="M30" s="24" t="s">
+      <c r="M30" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="46">
         <v>12</v>
       </c>
-      <c r="O30" s="24" t="s">
+      <c r="O30" s="19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="17">
+      <c r="Q30" s="46">
+        <v>12</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="S30" s="46">
+        <v>12</v>
+      </c>
+      <c r="T30" s="19"/>
+      <c r="U30" s="46">
+        <v>12</v>
+      </c>
+      <c r="V30" s="19"/>
+      <c r="W30" s="46">
+        <v>12</v>
+      </c>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="46">
+        <v>12</v>
+      </c>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="46">
+        <v>12</v>
+      </c>
+      <c r="AB30" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC30" s="46">
+        <v>12</v>
+      </c>
+      <c r="AD30" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B31" s="46">
         <v>1</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="17">
+      <c r="C31" s="19"/>
+      <c r="D31" s="46">
         <v>1</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="17">
+      <c r="E31" s="19"/>
+      <c r="F31" s="46">
         <v>1</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="17">
+      <c r="G31" s="19"/>
+      <c r="H31" s="46">
         <v>1</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="17">
+      <c r="I31" s="19"/>
+      <c r="J31" s="46">
         <v>1</v>
       </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="17">
+      <c r="K31" s="19"/>
+      <c r="L31" s="46">
         <v>1</v>
       </c>
-      <c r="M31" s="24" t="s">
+      <c r="M31" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="46">
         <v>1</v>
       </c>
-      <c r="O31" s="24" t="s">
+      <c r="O31" s="19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="17">
+      <c r="Q31" s="46">
+        <v>1</v>
+      </c>
+      <c r="R31" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="S31" s="46">
+        <v>1</v>
+      </c>
+      <c r="T31" s="19"/>
+      <c r="U31" s="46">
+        <v>1</v>
+      </c>
+      <c r="V31" s="19"/>
+      <c r="W31" s="46">
+        <v>1</v>
+      </c>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="46">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="46">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC31" s="46">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B32" s="46">
         <v>2</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="17">
+      <c r="C32" s="19"/>
+      <c r="D32" s="46">
         <v>2</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="17">
+      <c r="E32" s="19"/>
+      <c r="F32" s="46">
         <v>2</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="17">
+      <c r="G32" s="19"/>
+      <c r="H32" s="46">
         <v>2</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="17">
+      <c r="I32" s="19"/>
+      <c r="J32" s="46">
         <v>2</v>
       </c>
-      <c r="K32" s="24"/>
-      <c r="L32" s="17">
+      <c r="K32" s="19"/>
+      <c r="L32" s="46">
         <v>2</v>
       </c>
-      <c r="M32" s="24" t="s">
+      <c r="M32" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="46">
         <v>2</v>
       </c>
-      <c r="O32" s="24" t="s">
+      <c r="O32" s="19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="17">
+      <c r="Q32" s="46">
+        <v>2</v>
+      </c>
+      <c r="R32" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="S32" s="46">
+        <v>2</v>
+      </c>
+      <c r="T32" s="19"/>
+      <c r="U32" s="46">
+        <v>2</v>
+      </c>
+      <c r="V32" s="19"/>
+      <c r="W32" s="46">
+        <v>2</v>
+      </c>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="46">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="46">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC32" s="46">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B33" s="46">
         <v>3</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="17">
+      <c r="C33" s="19"/>
+      <c r="D33" s="46">
         <v>3</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="17">
+      <c r="E33" s="19"/>
+      <c r="F33" s="46">
         <v>3</v>
       </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="17">
+      <c r="G33" s="19"/>
+      <c r="H33" s="46">
         <v>3</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="17">
+      <c r="I33" s="19"/>
+      <c r="J33" s="46">
         <v>3</v>
       </c>
-      <c r="K33" s="24"/>
-      <c r="L33" s="17">
+      <c r="K33" s="19"/>
+      <c r="L33" s="46">
         <v>3</v>
       </c>
-      <c r="M33" s="24" t="s">
+      <c r="M33" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="46">
         <v>3</v>
       </c>
-      <c r="O33" s="24" t="s">
+      <c r="O33" s="19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="17">
+      <c r="Q33" s="46">
+        <v>3</v>
+      </c>
+      <c r="R33" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="S33" s="46">
+        <v>3</v>
+      </c>
+      <c r="T33" s="19"/>
+      <c r="U33" s="46">
+        <v>3</v>
+      </c>
+      <c r="V33" s="19"/>
+      <c r="W33" s="46">
+        <v>3</v>
+      </c>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="46">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="46">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC33" s="46">
+        <v>3</v>
+      </c>
+      <c r="AD33" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B34" s="46">
         <v>4</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="17">
+      <c r="C34" s="19"/>
+      <c r="D34" s="46">
         <v>4</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="17">
+      <c r="E34" s="19"/>
+      <c r="F34" s="46">
         <v>4</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="17">
+      <c r="G34" s="19"/>
+      <c r="H34" s="46">
         <v>4</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="17">
+      <c r="I34" s="19"/>
+      <c r="J34" s="46">
         <v>4</v>
       </c>
-      <c r="K34" s="24"/>
-      <c r="L34" s="17">
+      <c r="K34" s="19"/>
+      <c r="L34" s="46">
         <v>4</v>
       </c>
-      <c r="M34" s="24" t="s">
+      <c r="M34" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="46">
         <v>4</v>
       </c>
-      <c r="O34" s="24" t="s">
+      <c r="O34" s="19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="17">
+      <c r="Q34" s="46">
+        <v>4</v>
+      </c>
+      <c r="R34" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="S34" s="46">
+        <v>4</v>
+      </c>
+      <c r="T34" s="19"/>
+      <c r="U34" s="46">
+        <v>4</v>
+      </c>
+      <c r="V34" s="19"/>
+      <c r="W34" s="46">
+        <v>4</v>
+      </c>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="46">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="46">
+        <v>4</v>
+      </c>
+      <c r="AB34" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC34" s="46">
+        <v>4</v>
+      </c>
+      <c r="AD34" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B35" s="46">
         <v>5</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="17">
+      <c r="C35" s="19"/>
+      <c r="D35" s="46">
         <v>5</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="17">
+      <c r="E35" s="19"/>
+      <c r="F35" s="46">
         <v>5</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="17">
+      <c r="G35" s="19"/>
+      <c r="H35" s="46">
         <v>5</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="17">
+      <c r="I35" s="19"/>
+      <c r="J35" s="46">
         <v>5</v>
       </c>
-      <c r="K35" s="24"/>
-      <c r="L35" s="17">
+      <c r="K35" s="19"/>
+      <c r="L35" s="46">
         <v>5</v>
       </c>
-      <c r="M35" s="24" t="s">
+      <c r="M35" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="46">
         <v>5</v>
       </c>
-      <c r="O35" s="24"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="17">
+      <c r="O35" s="19"/>
+      <c r="Q35" s="46">
+        <v>5</v>
+      </c>
+      <c r="R35" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="S35" s="46">
+        <v>5</v>
+      </c>
+      <c r="T35" s="19"/>
+      <c r="U35" s="46">
+        <v>5</v>
+      </c>
+      <c r="V35" s="19"/>
+      <c r="W35" s="46">
+        <v>5</v>
+      </c>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="46">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="46">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC35" s="46">
+        <v>5</v>
+      </c>
+      <c r="AD35" s="19"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B36" s="46">
         <v>6</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="17">
+      <c r="C36" s="19"/>
+      <c r="D36" s="46">
         <v>6</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="17">
+      <c r="E36" s="19"/>
+      <c r="F36" s="46">
         <v>6</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="17">
+      <c r="G36" s="19"/>
+      <c r="H36" s="46">
         <v>6</v>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="17">
+      <c r="I36" s="19"/>
+      <c r="J36" s="46">
         <v>6</v>
       </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="17">
+      <c r="K36" s="19"/>
+      <c r="L36" s="46">
         <v>6</v>
       </c>
-      <c r="M36" s="24" t="s">
+      <c r="M36" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="46">
         <v>6</v>
       </c>
-      <c r="O36" s="24" t="s">
+      <c r="O36" s="19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="17">
+      <c r="Q36" s="46">
+        <v>6</v>
+      </c>
+      <c r="R36" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="S36" s="46">
+        <v>6</v>
+      </c>
+      <c r="T36" s="19"/>
+      <c r="U36" s="46">
+        <v>6</v>
+      </c>
+      <c r="V36" s="19"/>
+      <c r="W36" s="46">
+        <v>6</v>
+      </c>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="46">
+        <v>6</v>
+      </c>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="46">
+        <v>6</v>
+      </c>
+      <c r="AB36" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC36" s="46">
+        <v>6</v>
+      </c>
+      <c r="AD36" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B37" s="46">
         <v>7</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="17">
+      <c r="C37" s="19"/>
+      <c r="D37" s="46">
         <v>7</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="17">
+      <c r="E37" s="19"/>
+      <c r="F37" s="46">
         <v>7</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="17">
+      <c r="G37" s="19"/>
+      <c r="H37" s="46">
         <v>7</v>
       </c>
-      <c r="I37" s="24"/>
-      <c r="J37" s="17">
+      <c r="I37" s="19"/>
+      <c r="J37" s="46">
         <v>7</v>
       </c>
-      <c r="K37" s="24"/>
-      <c r="L37" s="17">
+      <c r="K37" s="19"/>
+      <c r="L37" s="46">
         <v>7</v>
       </c>
-      <c r="M37" s="24" t="s">
+      <c r="M37" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="46">
         <v>7</v>
       </c>
-      <c r="O37" s="24" t="s">
+      <c r="O37" s="19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="17">
+      <c r="Q37" s="46">
+        <v>7</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="S37" s="46">
+        <v>7</v>
+      </c>
+      <c r="T37" s="19"/>
+      <c r="U37" s="46">
+        <v>7</v>
+      </c>
+      <c r="V37" s="19"/>
+      <c r="W37" s="46">
+        <v>7</v>
+      </c>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="46">
+        <v>7</v>
+      </c>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="46">
+        <v>7</v>
+      </c>
+      <c r="AB37" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC37" s="46">
+        <v>7</v>
+      </c>
+      <c r="AD37" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B38" s="46">
         <v>8</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="17">
+      <c r="C38" s="19"/>
+      <c r="D38" s="46">
         <v>8</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="17">
+      <c r="E38" s="19"/>
+      <c r="F38" s="46">
         <v>8</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="17">
+      <c r="G38" s="19"/>
+      <c r="H38" s="46">
         <v>8</v>
       </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="17">
+      <c r="I38" s="19"/>
+      <c r="J38" s="46">
         <v>8</v>
       </c>
-      <c r="K38" s="24"/>
-      <c r="L38" s="17">
+      <c r="K38" s="19"/>
+      <c r="L38" s="46">
         <v>8</v>
       </c>
-      <c r="M38" s="24" t="s">
+      <c r="M38" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="46">
         <v>8</v>
       </c>
-      <c r="O38" s="24" t="s">
+      <c r="O38" s="19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="17">
+      <c r="Q38" s="46">
+        <v>8</v>
+      </c>
+      <c r="R38" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="S38" s="46">
+        <v>8</v>
+      </c>
+      <c r="T38" s="19"/>
+      <c r="U38" s="46">
+        <v>8</v>
+      </c>
+      <c r="V38" s="19"/>
+      <c r="W38" s="46">
+        <v>8</v>
+      </c>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="46">
+        <v>8</v>
+      </c>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="46">
+        <v>8</v>
+      </c>
+      <c r="AB38" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC38" s="46">
+        <v>8</v>
+      </c>
+      <c r="AD38" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B39" s="46">
         <v>9</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="17">
+      <c r="C39" s="19"/>
+      <c r="D39" s="46">
         <v>9</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="17">
+      <c r="E39" s="19"/>
+      <c r="F39" s="46">
         <v>9</v>
       </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="17">
+      <c r="G39" s="19"/>
+      <c r="H39" s="46">
         <v>9</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="17">
+      <c r="I39" s="19"/>
+      <c r="J39" s="46">
         <v>9</v>
       </c>
-      <c r="K39" s="24"/>
-      <c r="L39" s="17">
+      <c r="K39" s="19"/>
+      <c r="L39" s="46">
         <v>9</v>
       </c>
-      <c r="M39" s="24"/>
-      <c r="N39" s="17">
+      <c r="M39" s="19"/>
+      <c r="N39" s="46">
         <v>9</v>
       </c>
-      <c r="O39" s="24"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="17">
+      <c r="O39" s="19"/>
+      <c r="Q39" s="46">
+        <v>9</v>
+      </c>
+      <c r="R39" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="S39" s="46">
+        <v>9</v>
+      </c>
+      <c r="T39" s="19"/>
+      <c r="U39" s="46">
+        <v>9</v>
+      </c>
+      <c r="V39" s="19"/>
+      <c r="W39" s="46">
+        <v>9</v>
+      </c>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="46">
+        <v>9</v>
+      </c>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="46">
+        <v>9</v>
+      </c>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="46">
+        <v>9</v>
+      </c>
+      <c r="AD39" s="19"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B40" s="46">
         <v>10</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="17">
+      <c r="C40" s="19"/>
+      <c r="D40" s="46">
         <v>10</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="17">
+      <c r="E40" s="19"/>
+      <c r="F40" s="46">
         <v>10</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="17">
+      <c r="G40" s="19"/>
+      <c r="H40" s="46">
         <v>10</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="17">
+      <c r="I40" s="19"/>
+      <c r="J40" s="46">
         <v>10</v>
       </c>
-      <c r="K40" s="24"/>
-      <c r="L40" s="17">
+      <c r="K40" s="19"/>
+      <c r="L40" s="46">
         <v>10</v>
       </c>
-      <c r="M40" s="24" t="s">
+      <c r="M40" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N40" s="46">
         <v>10</v>
       </c>
-      <c r="O40" s="24"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="17">
+      <c r="O40" s="19"/>
+      <c r="Q40" s="46">
+        <v>10</v>
+      </c>
+      <c r="R40" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="S40" s="46">
+        <v>10</v>
+      </c>
+      <c r="T40" s="19"/>
+      <c r="U40" s="46">
+        <v>10</v>
+      </c>
+      <c r="V40" s="19"/>
+      <c r="W40" s="46">
+        <v>10</v>
+      </c>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="46">
+        <v>10</v>
+      </c>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="46">
+        <v>10</v>
+      </c>
+      <c r="AB40" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC40" s="46">
+        <v>10</v>
+      </c>
+      <c r="AD40" s="19"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B41" s="46">
         <v>11</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="17">
+      <c r="C41" s="19"/>
+      <c r="D41" s="46">
         <v>11</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="17">
+      <c r="E41" s="19"/>
+      <c r="F41" s="46">
         <v>11</v>
       </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="17">
+      <c r="G41" s="19"/>
+      <c r="H41" s="46">
         <v>11</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="17">
+      <c r="I41" s="19"/>
+      <c r="J41" s="46">
         <v>11</v>
       </c>
-      <c r="K41" s="24"/>
-      <c r="L41" s="17">
+      <c r="K41" s="19"/>
+      <c r="L41" s="46">
         <v>11</v>
       </c>
-      <c r="M41" s="24"/>
-      <c r="N41" s="17">
+      <c r="M41" s="19"/>
+      <c r="N41" s="46">
         <v>11</v>
       </c>
-      <c r="O41" s="24"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="17">
+      <c r="O41" s="19"/>
+      <c r="Q41" s="46">
+        <v>11</v>
+      </c>
+      <c r="R41" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="S41" s="46">
+        <v>11</v>
+      </c>
+      <c r="T41" s="19"/>
+      <c r="U41" s="46">
+        <v>11</v>
+      </c>
+      <c r="V41" s="19"/>
+      <c r="W41" s="46">
+        <v>11</v>
+      </c>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="46">
+        <v>11</v>
+      </c>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="46">
+        <v>11</v>
+      </c>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="46">
+        <v>11</v>
+      </c>
+      <c r="AD41" s="19"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B42" s="46">
         <v>12</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="17">
+      <c r="C42" s="19"/>
+      <c r="D42" s="46">
         <v>12</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="17">
+      <c r="E42" s="19"/>
+      <c r="F42" s="46">
         <v>12</v>
       </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="17">
+      <c r="G42" s="19"/>
+      <c r="H42" s="46">
         <v>12</v>
       </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="17">
+      <c r="I42" s="19"/>
+      <c r="J42" s="46">
         <v>12</v>
       </c>
-      <c r="K42" s="24"/>
-      <c r="L42" s="17">
+      <c r="K42" s="19"/>
+      <c r="L42" s="46">
         <v>12</v>
       </c>
-      <c r="M42" s="24" t="s">
+      <c r="M42" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="46">
         <v>12</v>
       </c>
-      <c r="O42" s="24"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="17">
+      <c r="O42" s="19"/>
+      <c r="Q42" s="46">
+        <v>12</v>
+      </c>
+      <c r="R42" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="S42" s="46">
+        <v>12</v>
+      </c>
+      <c r="T42" s="19"/>
+      <c r="U42" s="46">
+        <v>12</v>
+      </c>
+      <c r="V42" s="19"/>
+      <c r="W42" s="46">
+        <v>12</v>
+      </c>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="46">
+        <v>12</v>
+      </c>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="46">
+        <v>12</v>
+      </c>
+      <c r="AB42" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC42" s="46">
+        <v>12</v>
+      </c>
+      <c r="AD42" s="19"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B43" s="46">
         <v>1</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="17">
+      <c r="C43" s="19"/>
+      <c r="D43" s="46">
         <v>1</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="17">
+      <c r="E43" s="19"/>
+      <c r="F43" s="46">
         <v>1</v>
       </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="17">
+      <c r="G43" s="19"/>
+      <c r="H43" s="46">
         <v>1</v>
       </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="17">
+      <c r="I43" s="19"/>
+      <c r="J43" s="46">
         <v>1</v>
       </c>
-      <c r="K43" s="24"/>
-      <c r="L43" s="17">
+      <c r="K43" s="19"/>
+      <c r="L43" s="46">
         <v>1</v>
       </c>
-      <c r="M43" s="24"/>
-      <c r="N43" s="17">
+      <c r="M43" s="19"/>
+      <c r="N43" s="46">
         <v>1</v>
       </c>
-      <c r="O43" s="24"/>
+      <c r="O43" s="19"/>
+      <c r="Q43" s="46">
+        <v>1</v>
+      </c>
+      <c r="R43" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="S43" s="46">
+        <v>1</v>
+      </c>
+      <c r="T43" s="19"/>
+      <c r="U43" s="46">
+        <v>1</v>
+      </c>
+      <c r="V43" s="19"/>
+      <c r="W43" s="46">
+        <v>1</v>
+      </c>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="46">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="46">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="46">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="491" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DE85A4C-5B9E-4763-8BBB-AFB6B9D47D61}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E362C0E-518A-4CEC-AB4C-2C7E5EE32B58}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="145">
   <si>
     <t>InstanceData</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>Instance 관리 방식 안정화</t>
+  </si>
+  <si>
+    <t>Instance 관리 재설계</t>
   </si>
 </sst>
 </file>
@@ -2745,10 +2748,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE69813-0201-43C0-866C-5D3C128F7149}">
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
@@ -4825,6 +4828,22 @@
       </c>
       <c r="AD43" s="19"/>
     </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Q44" s="46">
+        <v>2</v>
+      </c>
+      <c r="R44" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Q45" s="46">
+        <v>3</v>
+      </c>
+      <c r="R45" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E362C0E-518A-4CEC-AB4C-2C7E5EE32B58}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDDD3B90-2E06-4029-8EB8-2F77010C9F6A}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
+    <workbookView xWindow="1440" yWindow="3312" windowWidth="26604" windowHeight="21600" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Struct" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="156">
   <si>
     <t>InstanceData</t>
   </si>
@@ -473,6 +473,39 @@
   </si>
   <si>
     <t>Instance 관리 재설계</t>
+  </si>
+  <si>
+    <t>Instance 재설계</t>
+  </si>
+  <si>
+    <t>USI-T TX SBC 검증</t>
+  </si>
+  <si>
+    <t>USI-T TX SBC 검증 - SSCG 제어</t>
+  </si>
+  <si>
+    <t>USI-T TX Main Function 검증</t>
+  </si>
+  <si>
+    <t>FSM Hazard 검증 환경 구축</t>
+  </si>
+  <si>
+    <t>dummy DE 관리 로직 추가</t>
+  </si>
+  <si>
+    <t>VCD 추출 및 출력 함수 추가</t>
+  </si>
+  <si>
+    <t>휴식</t>
+  </si>
+  <si>
+    <t>Instance 랜덤값 삽입 테스트</t>
+  </si>
+  <si>
+    <t>입력 반영하여 Instance 위치 업데이트</t>
+  </si>
+  <si>
+    <t>ECS 개념에 맞게 시스템 개선</t>
   </si>
 </sst>
 </file>
@@ -2751,7 +2784,7 @@
   <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
@@ -3179,8 +3212,12 @@
       </c>
       <c r="S12" s="46"/>
       <c r="T12" s="19"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="19"/>
+      <c r="U12" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>153</v>
+      </c>
       <c r="W12" s="46"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="46"/>
@@ -3190,7 +3227,7 @@
       <c r="AC12" s="46"/>
       <c r="AD12" s="19"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:30" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B13" s="46"/>
       <c r="C13" s="19"/>
       <c r="D13" s="46"/>
@@ -3217,8 +3254,12 @@
       <c r="R13" s="19"/>
       <c r="S13" s="46"/>
       <c r="T13" s="19"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="19"/>
+      <c r="U13" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="W13" s="46"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="46"/>
@@ -3252,7 +3293,9 @@
       <c r="S14" s="46"/>
       <c r="T14" s="19"/>
       <c r="U14" s="46"/>
-      <c r="V14" s="19"/>
+      <c r="V14" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="W14" s="46"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="46"/>
@@ -3758,11 +3801,15 @@
       <c r="S27" s="46">
         <v>9</v>
       </c>
-      <c r="T27" s="19"/>
+      <c r="T27" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="U27" s="46">
         <v>9</v>
       </c>
-      <c r="V27" s="19"/>
+      <c r="V27" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="W27" s="46">
         <v>9</v>
       </c>
@@ -3820,11 +3867,15 @@
       <c r="S28" s="46">
         <v>10</v>
       </c>
-      <c r="T28" s="19"/>
+      <c r="T28" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="U28" s="46">
         <v>10</v>
       </c>
-      <c r="V28" s="19"/>
+      <c r="V28" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="W28" s="46">
         <v>10</v>
       </c>
@@ -3886,11 +3937,15 @@
       <c r="S29" s="46">
         <v>11</v>
       </c>
-      <c r="T29" s="19"/>
+      <c r="T29" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="U29" s="46">
         <v>11</v>
       </c>
-      <c r="V29" s="19"/>
+      <c r="V29" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="W29" s="46">
         <v>11</v>
       </c>
@@ -3954,11 +4009,15 @@
       <c r="S30" s="46">
         <v>12</v>
       </c>
-      <c r="T30" s="19"/>
+      <c r="T30" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="U30" s="46">
         <v>12</v>
       </c>
-      <c r="V30" s="19"/>
+      <c r="V30" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="W30" s="46">
         <v>12</v>
       </c>
@@ -4022,11 +4081,15 @@
       <c r="S31" s="46">
         <v>1</v>
       </c>
-      <c r="T31" s="19"/>
+      <c r="T31" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="U31" s="46">
         <v>1</v>
       </c>
-      <c r="V31" s="19"/>
+      <c r="V31" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="W31" s="46">
         <v>1</v>
       </c>
@@ -4090,11 +4153,15 @@
       <c r="S32" s="46">
         <v>2</v>
       </c>
-      <c r="T32" s="19"/>
+      <c r="T32" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="U32" s="46">
         <v>2</v>
       </c>
-      <c r="V32" s="19"/>
+      <c r="V32" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="W32" s="46">
         <v>2</v>
       </c>
@@ -4158,11 +4225,15 @@
       <c r="S33" s="46">
         <v>3</v>
       </c>
-      <c r="T33" s="19"/>
+      <c r="T33" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="U33" s="46">
         <v>3</v>
       </c>
-      <c r="V33" s="19"/>
+      <c r="V33" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="W33" s="46">
         <v>3</v>
       </c>
@@ -4226,11 +4297,15 @@
       <c r="S34" s="46">
         <v>4</v>
       </c>
-      <c r="T34" s="19"/>
+      <c r="T34" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="U34" s="46">
         <v>4</v>
       </c>
-      <c r="V34" s="19"/>
+      <c r="V34" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="W34" s="46">
         <v>4</v>
       </c>
@@ -4292,11 +4367,15 @@
       <c r="S35" s="46">
         <v>5</v>
       </c>
-      <c r="T35" s="19"/>
+      <c r="T35" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="U35" s="46">
         <v>5</v>
       </c>
-      <c r="V35" s="19"/>
+      <c r="V35" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="W35" s="46">
         <v>5</v>
       </c>
@@ -4358,11 +4437,15 @@
       <c r="S36" s="46">
         <v>6</v>
       </c>
-      <c r="T36" s="19"/>
+      <c r="T36" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="U36" s="46">
         <v>6</v>
       </c>
-      <c r="V36" s="19"/>
+      <c r="V36" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="W36" s="46">
         <v>6</v>
       </c>
@@ -4426,11 +4509,15 @@
       <c r="S37" s="46">
         <v>7</v>
       </c>
-      <c r="T37" s="19"/>
+      <c r="T37" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="U37" s="46">
         <v>7</v>
       </c>
-      <c r="V37" s="19"/>
+      <c r="V37" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="W37" s="46">
         <v>7</v>
       </c>
@@ -4494,11 +4581,15 @@
       <c r="S38" s="46">
         <v>8</v>
       </c>
-      <c r="T38" s="19"/>
+      <c r="T38" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="U38" s="46">
         <v>8</v>
       </c>
-      <c r="V38" s="19"/>
+      <c r="V38" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="W38" s="46">
         <v>8</v>
       </c>
@@ -4558,11 +4649,15 @@
       <c r="S39" s="46">
         <v>9</v>
       </c>
-      <c r="T39" s="19"/>
+      <c r="T39" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="U39" s="46">
         <v>9</v>
       </c>
-      <c r="V39" s="19"/>
+      <c r="V39" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="W39" s="46">
         <v>9</v>
       </c>
@@ -4620,11 +4715,15 @@
       <c r="S40" s="46">
         <v>10</v>
       </c>
-      <c r="T40" s="19"/>
+      <c r="T40" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="U40" s="46">
         <v>10</v>
       </c>
-      <c r="V40" s="19"/>
+      <c r="V40" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="W40" s="46">
         <v>10</v>
       </c>
@@ -4682,11 +4781,15 @@
       <c r="S41" s="46">
         <v>11</v>
       </c>
-      <c r="T41" s="19"/>
+      <c r="T41" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="U41" s="46">
         <v>11</v>
       </c>
-      <c r="V41" s="19"/>
+      <c r="V41" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="W41" s="46">
         <v>11</v>
       </c>
@@ -4744,11 +4847,15 @@
       <c r="S42" s="46">
         <v>12</v>
       </c>
-      <c r="T42" s="19"/>
+      <c r="T42" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="U42" s="46">
         <v>12</v>
       </c>
-      <c r="V42" s="19"/>
+      <c r="V42" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="W42" s="46">
         <v>12</v>
       </c>
@@ -4806,11 +4913,15 @@
       <c r="S43" s="46">
         <v>1</v>
       </c>
-      <c r="T43" s="19"/>
+      <c r="T43" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="U43" s="46">
         <v>1</v>
       </c>
-      <c r="V43" s="19"/>
+      <c r="V43" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="W43" s="46">
         <v>1</v>
       </c>
@@ -4835,6 +4946,12 @@
       <c r="R44" s="19" t="s">
         <v>144</v>
       </c>
+      <c r="U44" s="46">
+        <v>2</v>
+      </c>
+      <c r="V44" s="19" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Q45" s="46">
@@ -4842,6 +4959,9 @@
       </c>
       <c r="R45" s="19" t="s">
         <v>144</v>
+      </c>
+      <c r="V45" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\park\Documents\workspace\DirectX\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="531" documentId="8_{3C79BB7C-E645-474B-8238-B3C6FA9AAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDDD3B90-2E06-4029-8EB8-2F77010C9F6A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="3312" windowWidth="26604" windowHeight="21600" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Struct" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="164">
   <si>
     <t>InstanceData</t>
   </si>
@@ -506,6 +506,38 @@
   </si>
   <si>
     <t>ECS 개념에 맞게 시스템 개선</t>
+  </si>
+  <si>
+    <t>CSPI+ TX Main Function 검증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSPI+ TX New Coding 검증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USI-T TX SBC Smart EQ2 검증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀잠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance 선택 로직 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance 선택 및 Input System 연동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -513,28 +545,35 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="ddd\ \ d"/>
-    <numFmt numFmtId="165" formatCode="m/d\ \[ddd\]"/>
+    <numFmt numFmtId="176" formatCode="ddd\ \ d"/>
+    <numFmt numFmtId="177" formatCode="m/d\ \[ddd\]"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -883,7 +922,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -952,7 +991,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -975,7 +1014,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -991,7 +1030,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1313,21 +1352,21 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="22"/>
-    <col min="2" max="2" width="23.33203125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="22"/>
+    <col min="2" max="2" width="23.375" style="21" customWidth="1"/>
     <col min="3" max="3" width="38" style="21" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="21" customWidth="1"/>
     <col min="6" max="6" width="16" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="18" width="9.21875" style="21" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="22"/>
+    <col min="8" max="18" width="9.25" style="21" customWidth="1"/>
+    <col min="19" max="16384" width="8.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
@@ -1367,7 +1406,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="29"/>
       <c r="C6" s="30" t="s">
         <v>24</v>
@@ -1423,7 +1462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="29"/>
       <c r="C12" s="30" t="s">
         <v>75</v>
@@ -1443,7 +1482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="29"/>
       <c r="C14" s="30" t="s">
         <v>2</v>
@@ -1490,7 +1529,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
         <v>48</v>
@@ -1555,7 +1594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="29"/>
       <c r="C26" s="30" t="s">
         <v>23</v>
@@ -1656,7 +1695,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="34"/>
       <c r="C37" s="35" t="s">
         <v>66</v>
@@ -1665,8 +1704,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="23" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1790,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="34"/>
       <c r="C48" s="35" t="s">
         <v>26</v>
@@ -1760,8 +1799,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="23" t="s">
         <v>17</v>
       </c>
@@ -1855,7 +1894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="34"/>
       <c r="C60" s="35" t="s">
         <v>4</v>
@@ -1864,8 +1903,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="23" t="s">
         <v>17</v>
       </c>
@@ -1969,7 +2008,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="29"/>
       <c r="C68" s="30" t="s">
         <v>24</v>
@@ -1985,7 +2024,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="34"/>
       <c r="C69" s="35" t="s">
         <v>93</v>
@@ -1994,8 +2033,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="23" t="s">
         <v>17</v>
       </c>
@@ -2067,7 +2106,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="34"/>
       <c r="C75" s="35" t="s">
         <v>98</v>
@@ -2083,7 +2122,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F76" s="29"/>
       <c r="G76" s="30" t="s">
         <v>128</v>
@@ -2092,7 +2131,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="23" t="s">
         <v>17</v>
       </c>
@@ -2148,7 +2187,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="34"/>
       <c r="C82" s="35" t="s">
         <v>119</v>
@@ -2158,6 +2197,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2171,15 +2211,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
@@ -2219,7 +2259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="14"/>
       <c r="C6" s="3" t="s">
         <v>24</v>
@@ -2275,7 +2315,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14"/>
       <c r="C12" s="3" t="s">
         <v>75</v>
@@ -2295,7 +2335,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14"/>
       <c r="C14" s="3" t="s">
         <v>2</v>
@@ -2342,7 +2382,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14"/>
       <c r="C19" s="3" t="s">
         <v>48</v>
@@ -2407,7 +2447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
       <c r="C26" s="3" t="s">
         <v>23</v>
@@ -2508,7 +2548,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="15"/>
       <c r="C37" s="4" t="s">
         <v>66</v>
@@ -2517,8 +2557,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>17</v>
       </c>
@@ -2612,7 +2652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="15"/>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -2682,7 +2722,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
       <c r="C57" s="3" t="s">
         <v>93</v>
@@ -2765,7 +2805,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="15"/>
       <c r="C66" s="4" t="s">
         <v>25</v>
@@ -2775,6 +2815,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2783,44 +2824,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE69813-0201-43C0-866C-5D3C128F7149}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="42" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="2.125" style="42" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="2.125" style="42" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="2.125" style="42" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2.125" style="42" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="2.125" style="42" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="2.125" style="42" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="2.125" style="42" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="16" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="2" style="42" customWidth="1"/>
-    <col min="17" max="17" width="2.109375" style="42" customWidth="1"/>
+    <col min="17" max="17" width="2.125" style="42" customWidth="1"/>
     <col min="18" max="18" width="25" style="16" customWidth="1"/>
-    <col min="19" max="19" width="2.109375" style="42" customWidth="1"/>
+    <col min="19" max="19" width="2.125" style="42" customWidth="1"/>
     <col min="20" max="20" width="25" style="16" customWidth="1"/>
-    <col min="21" max="21" width="2.109375" style="42" customWidth="1"/>
+    <col min="21" max="21" width="2.125" style="42" customWidth="1"/>
     <col min="22" max="22" width="25" style="16" customWidth="1"/>
-    <col min="23" max="23" width="2.109375" style="42" customWidth="1"/>
+    <col min="23" max="23" width="2.125" style="42" customWidth="1"/>
     <col min="24" max="24" width="25" style="16" customWidth="1"/>
-    <col min="25" max="25" width="2.109375" style="42" customWidth="1"/>
+    <col min="25" max="25" width="2.125" style="42" customWidth="1"/>
     <col min="26" max="26" width="25" style="16" customWidth="1"/>
-    <col min="27" max="27" width="2.109375" style="42" customWidth="1"/>
+    <col min="27" max="27" width="2.125" style="42" customWidth="1"/>
     <col min="28" max="28" width="25" style="16" customWidth="1"/>
-    <col min="29" max="29" width="2.109375" style="42" customWidth="1"/>
+    <col min="29" max="29" width="2.125" style="42" customWidth="1"/>
     <col min="30" max="30" width="25" style="16" customWidth="1"/>
-    <col min="31" max="41" width="9.21875" style="42" customWidth="1"/>
-    <col min="42" max="16384" width="8.88671875" style="42"/>
+    <col min="31" max="41" width="9.25" style="42" customWidth="1"/>
+    <col min="42" max="16384" width="8.875" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.3">
@@ -3183,7 +3224,7 @@
       <c r="AC11" s="45"/>
       <c r="AD11" s="20"/>
     </row>
-    <row r="12" spans="2:30" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:30" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B12" s="46"/>
       <c r="C12" s="19"/>
       <c r="D12" s="46"/>
@@ -3222,12 +3263,16 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="46"/>
       <c r="Z12" s="19"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="19"/>
+      <c r="AA12" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB12" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="AC12" s="46"/>
       <c r="AD12" s="19"/>
     </row>
-    <row r="13" spans="2:30" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B13" s="46"/>
       <c r="C13" s="19"/>
       <c r="D13" s="46"/>
@@ -3264,8 +3309,12 @@
       <c r="X13" s="19"/>
       <c r="Y13" s="46"/>
       <c r="Z13" s="19"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="19"/>
+      <c r="AA13" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB13" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="AC13" s="46"/>
       <c r="AD13" s="19"/>
     </row>
@@ -3813,15 +3862,21 @@
       <c r="W27" s="46">
         <v>9</v>
       </c>
-      <c r="X27" s="19"/>
+      <c r="X27" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="Y27" s="46">
         <v>9</v>
       </c>
-      <c r="Z27" s="19"/>
+      <c r="Z27" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="AA27" s="46">
         <v>9</v>
       </c>
-      <c r="AB27" s="19"/>
+      <c r="AB27" s="19" t="s">
+        <v>159</v>
+      </c>
       <c r="AC27" s="46">
         <v>9</v>
       </c>
@@ -3879,16 +3934,20 @@
       <c r="W28" s="46">
         <v>10</v>
       </c>
-      <c r="X28" s="19"/>
+      <c r="X28" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="Y28" s="46">
         <v>10</v>
       </c>
-      <c r="Z28" s="19"/>
+      <c r="Z28" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="AA28" s="46">
         <v>10</v>
       </c>
       <c r="AB28" s="19" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AC28" s="46">
         <v>10</v>
@@ -3949,16 +4008,20 @@
       <c r="W29" s="46">
         <v>11</v>
       </c>
-      <c r="X29" s="19"/>
+      <c r="X29" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="Y29" s="46">
         <v>11</v>
       </c>
-      <c r="Z29" s="19"/>
+      <c r="Z29" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="AA29" s="46">
         <v>11</v>
       </c>
       <c r="AB29" s="19" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="AC29" s="46">
         <v>11</v>
@@ -4021,16 +4084,20 @@
       <c r="W30" s="46">
         <v>12</v>
       </c>
-      <c r="X30" s="19"/>
+      <c r="X30" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="Y30" s="46">
         <v>12</v>
       </c>
-      <c r="Z30" s="19"/>
+      <c r="Z30" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="AA30" s="46">
         <v>12</v>
       </c>
       <c r="AB30" s="19" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="AC30" s="46">
         <v>12</v>
@@ -4093,16 +4160,20 @@
       <c r="W31" s="46">
         <v>1</v>
       </c>
-      <c r="X31" s="19"/>
+      <c r="X31" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="Y31" s="46">
         <v>1</v>
       </c>
-      <c r="Z31" s="19"/>
+      <c r="Z31" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="AA31" s="46">
         <v>1</v>
       </c>
       <c r="AB31" s="19" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="AC31" s="46">
         <v>1</v>
@@ -4165,16 +4236,20 @@
       <c r="W32" s="46">
         <v>2</v>
       </c>
-      <c r="X32" s="19"/>
+      <c r="X32" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="Y32" s="46">
         <v>2</v>
       </c>
-      <c r="Z32" s="19"/>
+      <c r="Z32" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="AA32" s="46">
         <v>2</v>
       </c>
       <c r="AB32" s="19" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="AC32" s="46">
         <v>2</v>
@@ -4237,16 +4312,20 @@
       <c r="W33" s="46">
         <v>3</v>
       </c>
-      <c r="X33" s="19"/>
+      <c r="X33" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="Y33" s="46">
         <v>3</v>
       </c>
-      <c r="Z33" s="19"/>
+      <c r="Z33" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="AA33" s="46">
         <v>3</v>
       </c>
       <c r="AB33" s="19" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="AC33" s="46">
         <v>3</v>
@@ -4313,12 +4392,14 @@
       <c r="Y34" s="46">
         <v>4</v>
       </c>
-      <c r="Z34" s="19"/>
+      <c r="Z34" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="AA34" s="46">
         <v>4</v>
       </c>
       <c r="AB34" s="19" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="AC34" s="46">
         <v>4</v>
@@ -4383,7 +4464,9 @@
       <c r="Y35" s="46">
         <v>5</v>
       </c>
-      <c r="Z35" s="19"/>
+      <c r="Z35" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="AA35" s="46">
         <v>5</v>
       </c>
@@ -4453,7 +4536,9 @@
       <c r="Y36" s="46">
         <v>6</v>
       </c>
-      <c r="Z36" s="19"/>
+      <c r="Z36" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="AA36" s="46">
         <v>6</v>
       </c>
@@ -4525,7 +4610,9 @@
       <c r="Y37" s="46">
         <v>7</v>
       </c>
-      <c r="Z37" s="19"/>
+      <c r="Z37" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="AA37" s="46">
         <v>7</v>
       </c>
@@ -4597,7 +4684,9 @@
       <c r="Y38" s="46">
         <v>8</v>
       </c>
-      <c r="Z38" s="19"/>
+      <c r="Z38" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="AA38" s="46">
         <v>8</v>
       </c>
@@ -4665,7 +4754,9 @@
       <c r="Y39" s="46">
         <v>9</v>
       </c>
-      <c r="Z39" s="19"/>
+      <c r="Z39" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="AA39" s="46">
         <v>9</v>
       </c>
@@ -4731,7 +4822,9 @@
       <c r="Y40" s="46">
         <v>10</v>
       </c>
-      <c r="Z40" s="19"/>
+      <c r="Z40" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="AA40" s="46">
         <v>10</v>
       </c>
@@ -4797,7 +4890,9 @@
       <c r="Y41" s="46">
         <v>11</v>
       </c>
-      <c r="Z41" s="19"/>
+      <c r="Z41" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="AA41" s="46">
         <v>11</v>
       </c>
@@ -4863,7 +4958,9 @@
       <c r="Y42" s="46">
         <v>12</v>
       </c>
-      <c r="Z42" s="19"/>
+      <c r="Z42" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="AA42" s="46">
         <v>12</v>
       </c>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\park\Documents\workspace\DirectX\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{321B46C1-4485-4709-8114-3BE44DD5A707}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="46056" windowHeight="25320" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Struct" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="171">
   <si>
     <t>InstanceData</t>
   </si>
@@ -538,6 +538,27 @@
   <si>
     <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 추가 (텍스쳐 추가)</t>
+  </si>
+  <si>
+    <t>물리 시스템 추가</t>
+  </si>
+  <si>
+    <t>이미지 추가 (텍스쳐 추가</t>
+  </si>
+  <si>
+    <t>이미지 로더 구현</t>
+  </si>
+  <si>
+    <t>이미지 관리 시스템 구현</t>
+  </si>
+  <si>
+    <t>이미지 응용 예제 구현</t>
+  </si>
+  <si>
+    <t>lock 간 중간 단계 오류 해결</t>
   </si>
 </sst>
 </file>
@@ -545,33 +566,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="ddd\ \ d"/>
-    <numFmt numFmtId="177" formatCode="m/d\ \[ddd\]"/>
+    <numFmt numFmtId="164" formatCode="ddd\ \ d"/>
+    <numFmt numFmtId="165" formatCode="m/d\ \[ddd\]"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -922,7 +943,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,7 +1012,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1014,7 +1035,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1030,7 +1051,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1352,21 +1373,21 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="22"/>
-    <col min="2" max="2" width="23.375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="22"/>
+    <col min="2" max="2" width="23.33203125" style="21" customWidth="1"/>
     <col min="3" max="3" width="38" style="21" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="21" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="21" customWidth="1"/>
     <col min="6" max="6" width="16" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="18" width="9.25" style="21" customWidth="1"/>
-    <col min="19" max="16384" width="8.875" style="22"/>
+    <col min="8" max="18" width="9.21875" style="21" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
@@ -1406,7 +1427,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="29"/>
       <c r="C6" s="30" t="s">
         <v>24</v>
@@ -1462,7 +1483,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="29"/>
       <c r="C12" s="30" t="s">
         <v>75</v>
@@ -1482,7 +1503,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="29"/>
       <c r="C14" s="30" t="s">
         <v>2</v>
@@ -1529,7 +1550,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
         <v>48</v>
@@ -1594,7 +1615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="29"/>
       <c r="C26" s="30" t="s">
         <v>23</v>
@@ -1695,7 +1716,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="34"/>
       <c r="C37" s="35" t="s">
         <v>66</v>
@@ -1704,8 +1725,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="23" t="s">
         <v>17</v>
       </c>
@@ -1790,7 +1811,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="34"/>
       <c r="C48" s="35" t="s">
         <v>26</v>
@@ -1799,8 +1820,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="23" t="s">
         <v>17</v>
       </c>
@@ -1894,7 +1915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="34"/>
       <c r="C60" s="35" t="s">
         <v>4</v>
@@ -1903,8 +1924,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="23" t="s">
         <v>17</v>
       </c>
@@ -2008,7 +2029,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="29"/>
       <c r="C68" s="30" t="s">
         <v>24</v>
@@ -2024,7 +2045,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="34"/>
       <c r="C69" s="35" t="s">
         <v>93</v>
@@ -2033,8 +2054,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="23" t="s">
         <v>17</v>
       </c>
@@ -2106,7 +2127,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="34"/>
       <c r="C75" s="35" t="s">
         <v>98</v>
@@ -2122,7 +2143,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F76" s="29"/>
       <c r="G76" s="30" t="s">
         <v>128</v>
@@ -2131,7 +2152,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="23" t="s">
         <v>17</v>
       </c>
@@ -2187,7 +2208,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="34"/>
       <c r="C82" s="35" t="s">
         <v>119</v>
@@ -2211,15 +2232,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
@@ -2259,7 +2280,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="14"/>
       <c r="C6" s="3" t="s">
         <v>24</v>
@@ -2315,7 +2336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14"/>
       <c r="C12" s="3" t="s">
         <v>75</v>
@@ -2335,7 +2356,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14"/>
       <c r="C14" s="3" t="s">
         <v>2</v>
@@ -2382,7 +2403,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14"/>
       <c r="C19" s="3" t="s">
         <v>48</v>
@@ -2447,7 +2468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
       <c r="C26" s="3" t="s">
         <v>23</v>
@@ -2548,7 +2569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="15"/>
       <c r="C37" s="4" t="s">
         <v>66</v>
@@ -2557,8 +2578,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>17</v>
       </c>
@@ -2652,7 +2673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="15"/>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -2722,7 +2743,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
       <c r="C57" s="3" t="s">
         <v>93</v>
@@ -2805,7 +2826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="15"/>
       <c r="C66" s="4" t="s">
         <v>25</v>
@@ -2822,55 +2843,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE69813-0201-43C0-866C-5D3C128F7149}">
-  <dimension ref="A1:AD45"/>
+  <dimension ref="A1:AS45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AI33" sqref="AI33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="42" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="2.125" style="42" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="2.109375" style="42" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="42" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="2.109375" style="42" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="2.125" style="42" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" style="42" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="2.125" style="42" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2.109375" style="42" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="42" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="2.109375" style="42" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="2.125" style="42" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="2.109375" style="42" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="2.125" style="42" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="2.109375" style="42" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="2" style="42" customWidth="1"/>
-    <col min="17" max="17" width="2.125" style="42" customWidth="1"/>
-    <col min="18" max="18" width="25" style="16" customWidth="1"/>
-    <col min="19" max="19" width="2.125" style="42" customWidth="1"/>
-    <col min="20" max="20" width="25" style="16" customWidth="1"/>
-    <col min="21" max="21" width="2.125" style="42" customWidth="1"/>
-    <col min="22" max="22" width="25" style="16" customWidth="1"/>
-    <col min="23" max="23" width="2.125" style="42" customWidth="1"/>
-    <col min="24" max="24" width="25" style="16" customWidth="1"/>
-    <col min="25" max="25" width="2.125" style="42" customWidth="1"/>
-    <col min="26" max="26" width="25" style="16" customWidth="1"/>
-    <col min="27" max="27" width="2.125" style="42" customWidth="1"/>
-    <col min="28" max="28" width="25" style="16" customWidth="1"/>
-    <col min="29" max="29" width="2.125" style="42" customWidth="1"/>
-    <col min="30" max="30" width="25" style="16" customWidth="1"/>
-    <col min="31" max="41" width="9.25" style="42" customWidth="1"/>
-    <col min="42" max="16384" width="8.875" style="42"/>
+    <col min="16" max="16" width="2" style="42" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="2" style="42" customWidth="1"/>
+    <col min="32" max="32" width="2.109375" style="42" customWidth="1"/>
+    <col min="33" max="33" width="25" style="16" customWidth="1"/>
+    <col min="34" max="34" width="2.109375" style="42" customWidth="1"/>
+    <col min="35" max="35" width="25" style="16" customWidth="1"/>
+    <col min="36" max="36" width="2.109375" style="42" customWidth="1"/>
+    <col min="37" max="37" width="25" style="16" customWidth="1"/>
+    <col min="38" max="38" width="2.109375" style="42" customWidth="1"/>
+    <col min="39" max="39" width="25" style="16" customWidth="1"/>
+    <col min="40" max="40" width="2.109375" style="42" customWidth="1"/>
+    <col min="41" max="41" width="25" style="16" customWidth="1"/>
+    <col min="42" max="42" width="2.109375" style="42" customWidth="1"/>
+    <col min="43" max="43" width="25" style="16" customWidth="1"/>
+    <col min="44" max="44" width="2.109375" style="42" customWidth="1"/>
+    <col min="45" max="45" width="25" style="16" customWidth="1"/>
+    <col min="46" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B1" s="41"/>
       <c r="D1" s="41"/>
       <c r="Q1" s="41"/>
       <c r="S1" s="41"/>
-    </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF1" s="41"/>
+      <c r="AH1" s="41"/>
+    </row>
+    <row r="2" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B2" s="43"/>
       <c r="C2" s="17">
         <f>DATE(2025, 7, 7)</f>
@@ -2941,8 +2978,43 @@
         <f>AB2+1</f>
         <v>45858</v>
       </c>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="40">
+        <f>DATE(2025, 7, 21)</f>
+        <v>45859</v>
+      </c>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="40">
+        <f>AG2+1</f>
+        <v>45860</v>
+      </c>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="40">
+        <f>AI2+1</f>
+        <v>45861</v>
+      </c>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="40">
+        <f>AK2+1</f>
+        <v>45862</v>
+      </c>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="40">
+        <f>AM2+1</f>
+        <v>45863</v>
+      </c>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="40">
+        <f>AO2+1</f>
+        <v>45864</v>
+      </c>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="40">
+        <f>AQ2+1</f>
+        <v>45865</v>
+      </c>
+    </row>
+    <row r="3" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B3" s="44"/>
       <c r="C3" s="18"/>
       <c r="D3" s="45"/>
@@ -2975,8 +3047,24 @@
       <c r="AB3" s="18"/>
       <c r="AC3" s="45"/>
       <c r="AD3" s="20"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="20"/>
+    </row>
+    <row r="4" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B4" s="46"/>
       <c r="C4" s="19"/>
       <c r="D4" s="46"/>
@@ -3005,8 +3093,22 @@
       <c r="AB4" s="19"/>
       <c r="AC4" s="46"/>
       <c r="AD4" s="19"/>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="19"/>
+    </row>
+    <row r="5" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B5" s="46"/>
       <c r="C5" s="19"/>
       <c r="D5" s="46"/>
@@ -3035,8 +3137,22 @@
       <c r="AB5" s="19"/>
       <c r="AC5" s="46"/>
       <c r="AD5" s="19"/>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="19"/>
+    </row>
+    <row r="6" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B6" s="44"/>
       <c r="C6" s="18"/>
       <c r="D6" s="45"/>
@@ -3069,8 +3185,24 @@
       <c r="AB6" s="18"/>
       <c r="AC6" s="45"/>
       <c r="AD6" s="20"/>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="20"/>
+    </row>
+    <row r="7" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B7" s="46"/>
       <c r="C7" s="19"/>
       <c r="D7" s="46"/>
@@ -3099,8 +3231,22 @@
       <c r="AB7" s="19"/>
       <c r="AC7" s="46"/>
       <c r="AD7" s="19"/>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="19"/>
+    </row>
+    <row r="8" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B8" s="46"/>
       <c r="C8" s="19"/>
       <c r="D8" s="46"/>
@@ -3129,8 +3275,24 @@
       <c r="AB8" s="19"/>
       <c r="AC8" s="46"/>
       <c r="AD8" s="19"/>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="46"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="19"/>
+    </row>
+    <row r="9" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B9" s="46"/>
       <c r="C9" s="19"/>
       <c r="D9" s="46"/>
@@ -3159,8 +3321,22 @@
       <c r="AB9" s="19"/>
       <c r="AC9" s="46"/>
       <c r="AD9" s="19"/>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="19"/>
+    </row>
+    <row r="10" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B10" s="46"/>
       <c r="C10" s="19"/>
       <c r="D10" s="46"/>
@@ -3189,8 +3365,22 @@
       <c r="AB10" s="19"/>
       <c r="AC10" s="46"/>
       <c r="AD10" s="19"/>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="46"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="46"/>
+      <c r="AS10" s="19"/>
+    </row>
+    <row r="11" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B11" s="44"/>
       <c r="C11" s="18"/>
       <c r="D11" s="45"/>
@@ -3223,8 +3413,24 @@
       <c r="AB11" s="18"/>
       <c r="AC11" s="45"/>
       <c r="AD11" s="20"/>
-    </row>
-    <row r="12" spans="2:30" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="45"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="45"/>
+      <c r="AS11" s="20"/>
+    </row>
+    <row r="12" spans="2:45" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B12" s="46"/>
       <c r="C12" s="19"/>
       <c r="D12" s="46"/>
@@ -3269,10 +3475,30 @@
       <c r="AB12" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="19"/>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AC12" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD12" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="19"/>
+    </row>
+    <row r="13" spans="2:45" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B13" s="46"/>
       <c r="C13" s="19"/>
       <c r="D13" s="46"/>
@@ -3316,9 +3542,27 @@
         <v>162</v>
       </c>
       <c r="AC13" s="46"/>
-      <c r="AD13" s="19"/>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AD13" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="19"/>
+    </row>
+    <row r="14" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B14" s="46"/>
       <c r="C14" s="19"/>
       <c r="D14" s="46"/>
@@ -3351,10 +3595,30 @@
       <c r="Z14" s="19"/>
       <c r="AA14" s="46"/>
       <c r="AB14" s="19"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="19"/>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AC14" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD14" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="46"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="46"/>
+      <c r="AS14" s="19"/>
+    </row>
+    <row r="15" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B15" s="46"/>
       <c r="C15" s="19"/>
       <c r="D15" s="46"/>
@@ -3383,10 +3647,28 @@
       <c r="Z15" s="19"/>
       <c r="AA15" s="46"/>
       <c r="AB15" s="19"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="19"/>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AC15" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD15" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="19"/>
+    </row>
+    <row r="16" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B16" s="46"/>
       <c r="C16" s="19"/>
       <c r="D16" s="46"/>
@@ -3414,9 +3696,25 @@
       <c r="AA16" s="46"/>
       <c r="AB16" s="19"/>
       <c r="AC16" s="46"/>
-      <c r="AD16" s="19"/>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AD16" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="46"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="19"/>
+    </row>
+    <row r="17" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B17" s="44"/>
       <c r="C17" s="18"/>
       <c r="D17" s="45"/>
@@ -3449,8 +3747,24 @@
       <c r="AB17" s="18"/>
       <c r="AC17" s="45"/>
       <c r="AD17" s="20"/>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="45"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="45"/>
+      <c r="AM17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN17" s="45"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="45"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="45"/>
+      <c r="AS17" s="20"/>
+    </row>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B18" s="46"/>
       <c r="C18" s="19"/>
       <c r="D18" s="46"/>
@@ -3479,8 +3793,22 @@
       <c r="AB18" s="19"/>
       <c r="AC18" s="46"/>
       <c r="AD18" s="19"/>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="46"/>
+      <c r="AS18" s="19"/>
+    </row>
+    <row r="19" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B19" s="46"/>
       <c r="C19" s="19"/>
       <c r="D19" s="46"/>
@@ -3509,8 +3837,22 @@
       <c r="AB19" s="19"/>
       <c r="AC19" s="46"/>
       <c r="AD19" s="19"/>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="46"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="19"/>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B20" s="46"/>
       <c r="C20" s="19"/>
       <c r="D20" s="46"/>
@@ -3539,8 +3881,22 @@
       <c r="AB20" s="19"/>
       <c r="AC20" s="46"/>
       <c r="AD20" s="19"/>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="46"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="46"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="46"/>
+      <c r="AS20" s="19"/>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B21" s="46"/>
       <c r="C21" s="19"/>
       <c r="D21" s="46"/>
@@ -3569,8 +3925,22 @@
       <c r="AB21" s="19"/>
       <c r="AC21" s="46"/>
       <c r="AD21" s="19"/>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="46"/>
+      <c r="AS21" s="19"/>
+    </row>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B22" s="46"/>
       <c r="C22" s="19"/>
       <c r="D22" s="46"/>
@@ -3599,8 +3969,22 @@
       <c r="AB22" s="19"/>
       <c r="AC22" s="46"/>
       <c r="AD22" s="19"/>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="46"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="46"/>
+      <c r="AS22" s="19"/>
+    </row>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B23" s="44"/>
       <c r="C23" s="18"/>
       <c r="D23" s="45"/>
@@ -3633,8 +4017,24 @@
       <c r="AB23" s="18"/>
       <c r="AC23" s="45"/>
       <c r="AD23" s="20"/>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="45"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="45"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="20"/>
+    </row>
+    <row r="24" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B24" s="46">
         <v>6</v>
       </c>
@@ -3691,8 +4091,36 @@
         <v>6</v>
       </c>
       <c r="AD24" s="19"/>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF24" s="46">
+        <v>6</v>
+      </c>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="46">
+        <v>6</v>
+      </c>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="46">
+        <v>6</v>
+      </c>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="46">
+        <v>6</v>
+      </c>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="46">
+        <v>6</v>
+      </c>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="46">
+        <v>6</v>
+      </c>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="46">
+        <v>6</v>
+      </c>
+      <c r="AS24" s="19"/>
+    </row>
+    <row r="25" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B25" s="46">
         <v>7</v>
       </c>
@@ -3751,8 +4179,36 @@
         <v>7</v>
       </c>
       <c r="AD25" s="19"/>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF25" s="46">
+        <v>7</v>
+      </c>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="46">
+        <v>7</v>
+      </c>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="46">
+        <v>7</v>
+      </c>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="46">
+        <v>7</v>
+      </c>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="46">
+        <v>7</v>
+      </c>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="46">
+        <v>7</v>
+      </c>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="46">
+        <v>7</v>
+      </c>
+      <c r="AS25" s="19"/>
+    </row>
+    <row r="26" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B26" s="46">
         <v>8</v>
       </c>
@@ -3811,8 +4267,36 @@
         <v>8</v>
       </c>
       <c r="AD26" s="19"/>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF26" s="46">
+        <v>8</v>
+      </c>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="46">
+        <v>8</v>
+      </c>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="46">
+        <v>8</v>
+      </c>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="46">
+        <v>8</v>
+      </c>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="46">
+        <v>8</v>
+      </c>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="46">
+        <v>8</v>
+      </c>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="46">
+        <v>8</v>
+      </c>
+      <c r="AS26" s="19"/>
+    </row>
+    <row r="27" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B27" s="46">
         <v>9</v>
       </c>
@@ -3880,9 +4364,39 @@
       <c r="AC27" s="46">
         <v>9</v>
       </c>
-      <c r="AD27" s="19"/>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AD27" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF27" s="46">
+        <v>9</v>
+      </c>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="46">
+        <v>9</v>
+      </c>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="46">
+        <v>9</v>
+      </c>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="46">
+        <v>9</v>
+      </c>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="46">
+        <v>9</v>
+      </c>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="46">
+        <v>9</v>
+      </c>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="46">
+        <v>9</v>
+      </c>
+      <c r="AS27" s="19"/>
+    </row>
+    <row r="28" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B28" s="46">
         <v>10</v>
       </c>
@@ -3952,9 +4466,39 @@
       <c r="AC28" s="46">
         <v>10</v>
       </c>
-      <c r="AD28" s="19"/>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AD28" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF28" s="46">
+        <v>10</v>
+      </c>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="46">
+        <v>10</v>
+      </c>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="46">
+        <v>10</v>
+      </c>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="46">
+        <v>10</v>
+      </c>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="46">
+        <v>10</v>
+      </c>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="46">
+        <v>10</v>
+      </c>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="46">
+        <v>10</v>
+      </c>
+      <c r="AS28" s="19"/>
+    </row>
+    <row r="29" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B29" s="46">
         <v>11</v>
       </c>
@@ -4027,10 +4571,38 @@
         <v>11</v>
       </c>
       <c r="AD29" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="AF29" s="46">
+        <v>11</v>
+      </c>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="46">
+        <v>11</v>
+      </c>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="46">
+        <v>11</v>
+      </c>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="46">
+        <v>11</v>
+      </c>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="46">
+        <v>11</v>
+      </c>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="46">
+        <v>11</v>
+      </c>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="46">
+        <v>11</v>
+      </c>
+      <c r="AS29" s="19"/>
+    </row>
+    <row r="30" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B30" s="46">
         <v>12</v>
       </c>
@@ -4103,10 +4675,38 @@
         <v>12</v>
       </c>
       <c r="AD30" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="AF30" s="46">
+        <v>12</v>
+      </c>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="46">
+        <v>12</v>
+      </c>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="46">
+        <v>12</v>
+      </c>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="46">
+        <v>12</v>
+      </c>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="46">
+        <v>12</v>
+      </c>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="46">
+        <v>12</v>
+      </c>
+      <c r="AQ30" s="19"/>
+      <c r="AR30" s="46">
+        <v>12</v>
+      </c>
+      <c r="AS30" s="19"/>
+    </row>
+    <row r="31" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B31" s="46">
         <v>1</v>
       </c>
@@ -4179,10 +4779,38 @@
         <v>1</v>
       </c>
       <c r="AD31" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="AF31" s="46">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="46">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="46">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="46">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="46">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="46">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="46">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="19"/>
+    </row>
+    <row r="32" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B32" s="46">
         <v>2</v>
       </c>
@@ -4255,10 +4883,38 @@
         <v>2</v>
       </c>
       <c r="AD32" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="AF32" s="46">
+        <v>2</v>
+      </c>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="46">
+        <v>2</v>
+      </c>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="46">
+        <v>2</v>
+      </c>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="46">
+        <v>2</v>
+      </c>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="46">
+        <v>2</v>
+      </c>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="46">
+        <v>2</v>
+      </c>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="46">
+        <v>2</v>
+      </c>
+      <c r="AS32" s="19"/>
+    </row>
+    <row r="33" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B33" s="46">
         <v>3</v>
       </c>
@@ -4331,10 +4987,38 @@
         <v>3</v>
       </c>
       <c r="AD33" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="AF33" s="46">
+        <v>3</v>
+      </c>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="46">
+        <v>3</v>
+      </c>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="46">
+        <v>3</v>
+      </c>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="46">
+        <v>3</v>
+      </c>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="46">
+        <v>3</v>
+      </c>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="46">
+        <v>3</v>
+      </c>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="46">
+        <v>3</v>
+      </c>
+      <c r="AS33" s="19"/>
+    </row>
+    <row r="34" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B34" s="46">
         <v>4</v>
       </c>
@@ -4405,10 +5089,38 @@
         <v>4</v>
       </c>
       <c r="AD34" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="AF34" s="46">
+        <v>4</v>
+      </c>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="46">
+        <v>4</v>
+      </c>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="46">
+        <v>4</v>
+      </c>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="46">
+        <v>4</v>
+      </c>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="46">
+        <v>4</v>
+      </c>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="46">
+        <v>4</v>
+      </c>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="46">
+        <v>4</v>
+      </c>
+      <c r="AS34" s="19"/>
+    </row>
+    <row r="35" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B35" s="46">
         <v>5</v>
       </c>
@@ -4476,9 +5188,39 @@
       <c r="AC35" s="46">
         <v>5</v>
       </c>
-      <c r="AD35" s="19"/>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AD35" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF35" s="46">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="46">
+        <v>5</v>
+      </c>
+      <c r="AI35" s="19"/>
+      <c r="AJ35" s="46">
+        <v>5</v>
+      </c>
+      <c r="AK35" s="19"/>
+      <c r="AL35" s="46">
+        <v>5</v>
+      </c>
+      <c r="AM35" s="19"/>
+      <c r="AN35" s="46">
+        <v>5</v>
+      </c>
+      <c r="AO35" s="19"/>
+      <c r="AP35" s="46">
+        <v>5</v>
+      </c>
+      <c r="AQ35" s="19"/>
+      <c r="AR35" s="46">
+        <v>5</v>
+      </c>
+      <c r="AS35" s="19"/>
+    </row>
+    <row r="36" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B36" s="46">
         <v>6</v>
       </c>
@@ -4549,10 +5291,38 @@
         <v>6</v>
       </c>
       <c r="AD36" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="AF36" s="46">
+        <v>6</v>
+      </c>
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="46">
+        <v>6</v>
+      </c>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="46">
+        <v>6</v>
+      </c>
+      <c r="AK36" s="19"/>
+      <c r="AL36" s="46">
+        <v>6</v>
+      </c>
+      <c r="AM36" s="19"/>
+      <c r="AN36" s="46">
+        <v>6</v>
+      </c>
+      <c r="AO36" s="19"/>
+      <c r="AP36" s="46">
+        <v>6</v>
+      </c>
+      <c r="AQ36" s="19"/>
+      <c r="AR36" s="46">
+        <v>6</v>
+      </c>
+      <c r="AS36" s="19"/>
+    </row>
+    <row r="37" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B37" s="46">
         <v>7</v>
       </c>
@@ -4623,10 +5393,38 @@
         <v>7</v>
       </c>
       <c r="AD37" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="AF37" s="46">
+        <v>7</v>
+      </c>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="46">
+        <v>7</v>
+      </c>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="46">
+        <v>7</v>
+      </c>
+      <c r="AK37" s="19"/>
+      <c r="AL37" s="46">
+        <v>7</v>
+      </c>
+      <c r="AM37" s="19"/>
+      <c r="AN37" s="46">
+        <v>7</v>
+      </c>
+      <c r="AO37" s="19"/>
+      <c r="AP37" s="46">
+        <v>7</v>
+      </c>
+      <c r="AQ37" s="19"/>
+      <c r="AR37" s="46">
+        <v>7</v>
+      </c>
+      <c r="AS37" s="19"/>
+    </row>
+    <row r="38" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B38" s="46">
         <v>8</v>
       </c>
@@ -4697,10 +5495,38 @@
         <v>8</v>
       </c>
       <c r="AD38" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="AF38" s="46">
+        <v>8</v>
+      </c>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="46">
+        <v>8</v>
+      </c>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="46">
+        <v>8</v>
+      </c>
+      <c r="AK38" s="19"/>
+      <c r="AL38" s="46">
+        <v>8</v>
+      </c>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="46">
+        <v>8</v>
+      </c>
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="46">
+        <v>8</v>
+      </c>
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="46">
+        <v>8</v>
+      </c>
+      <c r="AS38" s="19"/>
+    </row>
+    <row r="39" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B39" s="46">
         <v>9</v>
       </c>
@@ -4765,8 +5591,36 @@
         <v>9</v>
       </c>
       <c r="AD39" s="19"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF39" s="46">
+        <v>9</v>
+      </c>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="46">
+        <v>9</v>
+      </c>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="46">
+        <v>9</v>
+      </c>
+      <c r="AK39" s="19"/>
+      <c r="AL39" s="46">
+        <v>9</v>
+      </c>
+      <c r="AM39" s="19"/>
+      <c r="AN39" s="46">
+        <v>9</v>
+      </c>
+      <c r="AO39" s="19"/>
+      <c r="AP39" s="46">
+        <v>9</v>
+      </c>
+      <c r="AQ39" s="19"/>
+      <c r="AR39" s="46">
+        <v>9</v>
+      </c>
+      <c r="AS39" s="19"/>
+    </row>
+    <row r="40" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B40" s="46">
         <v>10</v>
       </c>
@@ -4834,9 +5688,39 @@
       <c r="AC40" s="46">
         <v>10</v>
       </c>
-      <c r="AD40" s="19"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AD40" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF40" s="46">
+        <v>10</v>
+      </c>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="46">
+        <v>10</v>
+      </c>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="46">
+        <v>10</v>
+      </c>
+      <c r="AK40" s="19"/>
+      <c r="AL40" s="46">
+        <v>10</v>
+      </c>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="46">
+        <v>10</v>
+      </c>
+      <c r="AO40" s="19"/>
+      <c r="AP40" s="46">
+        <v>10</v>
+      </c>
+      <c r="AQ40" s="19"/>
+      <c r="AR40" s="46">
+        <v>10</v>
+      </c>
+      <c r="AS40" s="19"/>
+    </row>
+    <row r="41" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B41" s="46">
         <v>11</v>
       </c>
@@ -4900,9 +5784,39 @@
       <c r="AC41" s="46">
         <v>11</v>
       </c>
-      <c r="AD41" s="19"/>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AD41" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF41" s="46">
+        <v>11</v>
+      </c>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="46">
+        <v>11</v>
+      </c>
+      <c r="AI41" s="19"/>
+      <c r="AJ41" s="46">
+        <v>11</v>
+      </c>
+      <c r="AK41" s="19"/>
+      <c r="AL41" s="46">
+        <v>11</v>
+      </c>
+      <c r="AM41" s="19"/>
+      <c r="AN41" s="46">
+        <v>11</v>
+      </c>
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="46">
+        <v>11</v>
+      </c>
+      <c r="AQ41" s="19"/>
+      <c r="AR41" s="46">
+        <v>11</v>
+      </c>
+      <c r="AS41" s="19"/>
+    </row>
+    <row r="42" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B42" s="46">
         <v>12</v>
       </c>
@@ -4970,9 +5884,39 @@
       <c r="AC42" s="46">
         <v>12</v>
       </c>
-      <c r="AD42" s="19"/>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AD42" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF42" s="46">
+        <v>12</v>
+      </c>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="46">
+        <v>12</v>
+      </c>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="46">
+        <v>12</v>
+      </c>
+      <c r="AK42" s="19"/>
+      <c r="AL42" s="46">
+        <v>12</v>
+      </c>
+      <c r="AM42" s="19"/>
+      <c r="AN42" s="46">
+        <v>12</v>
+      </c>
+      <c r="AO42" s="19"/>
+      <c r="AP42" s="46">
+        <v>12</v>
+      </c>
+      <c r="AQ42" s="19"/>
+      <c r="AR42" s="46">
+        <v>12</v>
+      </c>
+      <c r="AS42" s="19"/>
+    </row>
+    <row r="43" spans="2:45" x14ac:dyDescent="0.3">
       <c r="B43" s="46">
         <v>1</v>
       </c>
@@ -5034,9 +5978,39 @@
       <c r="AC43" s="46">
         <v>1</v>
       </c>
-      <c r="AD43" s="19"/>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AD43" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF43" s="46">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="46">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="46">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="19"/>
+      <c r="AL43" s="46">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="19"/>
+      <c r="AN43" s="46">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="19"/>
+      <c r="AP43" s="46">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="19"/>
+      <c r="AR43" s="46">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="19"/>
+    </row>
+    <row r="44" spans="2:45" x14ac:dyDescent="0.3">
       <c r="Q44" s="46">
         <v>2</v>
       </c>
@@ -5049,8 +6023,22 @@
       <c r="V44" s="19" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AC44" s="46">
+        <v>2</v>
+      </c>
+      <c r="AD44" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF44" s="46">
+        <v>2</v>
+      </c>
+      <c r="AG44" s="19"/>
+      <c r="AJ44" s="46">
+        <v>2</v>
+      </c>
+      <c r="AK44" s="19"/>
+    </row>
+    <row r="45" spans="2:45" x14ac:dyDescent="0.3">
       <c r="Q45" s="46">
         <v>3</v>
       </c>
@@ -5060,6 +6048,11 @@
       <c r="V45" s="19" t="s">
         <v>145</v>
       </c>
+      <c r="AF45" s="46">
+        <v>3</v>
+      </c>
+      <c r="AG45" s="19"/>
+      <c r="AK45" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{321B46C1-4485-4709-8114-3BE44DD5A707}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{293F44A3-BDAF-4A50-ADE6-FF53D3F1C707}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="0" windowWidth="46056" windowHeight="25320" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="175">
   <si>
     <t>InstanceData</t>
   </si>
@@ -559,6 +559,18 @@
   </si>
   <si>
     <t>lock 간 중간 단계 오류 해결</t>
+  </si>
+  <si>
+    <t>TX USIT SBC EQ 동작 검증</t>
+  </si>
+  <si>
+    <t>TX USIT SBC Error 동작 검증</t>
+  </si>
+  <si>
+    <t>TX USIT RD2 동작 검증</t>
+  </si>
+  <si>
+    <t>CreateShaderResourceView 오류 해결</t>
   </si>
 </sst>
 </file>
@@ -2846,7 +2858,7 @@
   <dimension ref="A1:AS45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AI33" sqref="AI33"/>
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
@@ -3275,7 +3287,9 @@
       <c r="AB8" s="19"/>
       <c r="AC8" s="46"/>
       <c r="AD8" s="19"/>
-      <c r="AF8" s="46"/>
+      <c r="AF8" s="46" t="s">
+        <v>110</v>
+      </c>
       <c r="AG8" s="19" t="s">
         <v>155</v>
       </c>
@@ -3545,7 +3559,9 @@
       <c r="AD13" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="AF13" s="46"/>
+      <c r="AF13" s="46" t="s">
+        <v>110</v>
+      </c>
       <c r="AG13" s="19" t="s">
         <v>170</v>
       </c>
@@ -3654,7 +3670,9 @@
         <v>168</v>
       </c>
       <c r="AF15" s="46"/>
-      <c r="AG15" s="19"/>
+      <c r="AG15" s="19" t="s">
+        <v>174</v>
+      </c>
       <c r="AH15" s="46"/>
       <c r="AI15" s="19"/>
       <c r="AJ15" s="46"/>
@@ -4370,7 +4388,9 @@
       <c r="AF27" s="46">
         <v>9</v>
       </c>
-      <c r="AG27" s="19"/>
+      <c r="AG27" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="AH27" s="46">
         <v>9</v>
       </c>
@@ -4472,7 +4492,9 @@
       <c r="AF28" s="46">
         <v>10</v>
       </c>
-      <c r="AG28" s="19"/>
+      <c r="AG28" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="AH28" s="46">
         <v>10</v>
       </c>
@@ -4576,7 +4598,9 @@
       <c r="AF29" s="46">
         <v>11</v>
       </c>
-      <c r="AG29" s="19"/>
+      <c r="AG29" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="AH29" s="46">
         <v>11</v>
       </c>
@@ -4680,7 +4704,9 @@
       <c r="AF30" s="46">
         <v>12</v>
       </c>
-      <c r="AG30" s="19"/>
+      <c r="AG30" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="AH30" s="46">
         <v>12</v>
       </c>
@@ -4784,7 +4810,9 @@
       <c r="AF31" s="46">
         <v>1</v>
       </c>
-      <c r="AG31" s="19"/>
+      <c r="AG31" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="AH31" s="46">
         <v>1</v>
       </c>
@@ -4888,7 +4916,9 @@
       <c r="AF32" s="46">
         <v>2</v>
       </c>
-      <c r="AG32" s="19"/>
+      <c r="AG32" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="AH32" s="46">
         <v>2</v>
       </c>
@@ -4992,7 +5022,9 @@
       <c r="AF33" s="46">
         <v>3</v>
       </c>
-      <c r="AG33" s="19"/>
+      <c r="AG33" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="AH33" s="46">
         <v>3</v>
       </c>
@@ -5094,7 +5126,9 @@
       <c r="AF34" s="46">
         <v>4</v>
       </c>
-      <c r="AG34" s="19"/>
+      <c r="AG34" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="AH34" s="46">
         <v>4</v>
       </c>
@@ -5194,7 +5228,9 @@
       <c r="AF35" s="46">
         <v>5</v>
       </c>
-      <c r="AG35" s="19"/>
+      <c r="AG35" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="AH35" s="46">
         <v>5</v>
       </c>
@@ -5296,7 +5332,9 @@
       <c r="AF36" s="46">
         <v>6</v>
       </c>
-      <c r="AG36" s="19"/>
+      <c r="AG36" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="AH36" s="46">
         <v>6</v>
       </c>
@@ -5398,7 +5436,9 @@
       <c r="AF37" s="46">
         <v>7</v>
       </c>
-      <c r="AG37" s="19"/>
+      <c r="AG37" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="AH37" s="46">
         <v>7</v>
       </c>
@@ -5500,7 +5540,9 @@
       <c r="AF38" s="46">
         <v>8</v>
       </c>
-      <c r="AG38" s="19"/>
+      <c r="AG38" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="AH38" s="46">
         <v>8</v>
       </c>
@@ -5594,7 +5636,9 @@
       <c r="AF39" s="46">
         <v>9</v>
       </c>
-      <c r="AG39" s="19"/>
+      <c r="AG39" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="AH39" s="46">
         <v>9</v>
       </c>
@@ -5694,7 +5738,9 @@
       <c r="AF40" s="46">
         <v>10</v>
       </c>
-      <c r="AG40" s="19"/>
+      <c r="AG40" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="AH40" s="46">
         <v>10</v>
       </c>
@@ -5790,7 +5836,9 @@
       <c r="AF41" s="46">
         <v>11</v>
       </c>
-      <c r="AG41" s="19"/>
+      <c r="AG41" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AH41" s="46">
         <v>11</v>
       </c>
@@ -5890,7 +5938,9 @@
       <c r="AF42" s="46">
         <v>12</v>
       </c>
-      <c r="AG42" s="19"/>
+      <c r="AG42" s="19" t="s">
+        <v>174</v>
+      </c>
       <c r="AH42" s="46">
         <v>12</v>
       </c>
@@ -5984,7 +6034,9 @@
       <c r="AF43" s="46">
         <v>1</v>
       </c>
-      <c r="AG43" s="19"/>
+      <c r="AG43" s="19" t="s">
+        <v>174</v>
+      </c>
       <c r="AH43" s="46">
         <v>1</v>
       </c>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{293F44A3-BDAF-4A50-ADE6-FF53D3F1C707}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C424D1B3-6963-40A2-9E98-C35F3F190961}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="0" windowWidth="46056" windowHeight="25320" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="181">
   <si>
     <t>InstanceData</t>
   </si>
@@ -571,6 +571,25 @@
   </si>
   <si>
     <t>CreateShaderResourceView 오류 해결</t>
+  </si>
+  <si>
+    <t>Texture 로드 직전 GPU 업로드 로직 추가</t>
+  </si>
+  <si>
+    <t>Top Simulation 환경 구축</t>
+  </si>
+  <si>
+    <t>USIT ACC Encoding Logic 검증</t>
+  </si>
+  <si>
+    <t>CreateShaderResourceView 오류 해결
+-&gt; SRV heap 간 SRV_CBV Type과 Visible Option 적용</t>
+  </si>
+  <si>
+    <t>Texture별 Load 시스템 구축</t>
+  </si>
+  <si>
+    <t>Render 전 Root Signature 별 데이터 세팅</t>
   </si>
 </sst>
 </file>
@@ -2858,7 +2877,7 @@
   <dimension ref="A1:AS45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+      <selection activeCell="AI45" sqref="AI45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
@@ -3500,7 +3519,9 @@
         <v>169</v>
       </c>
       <c r="AH12" s="46"/>
-      <c r="AI12" s="19"/>
+      <c r="AI12" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="AJ12" s="46"/>
       <c r="AK12" s="19"/>
       <c r="AL12" s="46"/>
@@ -4394,7 +4415,9 @@
       <c r="AH27" s="46">
         <v>9</v>
       </c>
-      <c r="AI27" s="19"/>
+      <c r="AI27" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="AJ27" s="46">
         <v>9</v>
       </c>
@@ -4498,7 +4521,9 @@
       <c r="AH28" s="46">
         <v>10</v>
       </c>
-      <c r="AI28" s="19"/>
+      <c r="AI28" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="AJ28" s="46">
         <v>10</v>
       </c>
@@ -4604,7 +4629,9 @@
       <c r="AH29" s="46">
         <v>11</v>
       </c>
-      <c r="AI29" s="19"/>
+      <c r="AI29" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="AJ29" s="46">
         <v>11</v>
       </c>
@@ -4710,7 +4737,9 @@
       <c r="AH30" s="46">
         <v>12</v>
       </c>
-      <c r="AI30" s="19"/>
+      <c r="AI30" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="AJ30" s="46">
         <v>12</v>
       </c>
@@ -4816,7 +4845,9 @@
       <c r="AH31" s="46">
         <v>1</v>
       </c>
-      <c r="AI31" s="19"/>
+      <c r="AI31" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AJ31" s="46">
         <v>1</v>
       </c>
@@ -4922,7 +4953,9 @@
       <c r="AH32" s="46">
         <v>2</v>
       </c>
-      <c r="AI32" s="19"/>
+      <c r="AI32" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AJ32" s="46">
         <v>2</v>
       </c>
@@ -5028,7 +5061,9 @@
       <c r="AH33" s="46">
         <v>3</v>
       </c>
-      <c r="AI33" s="19"/>
+      <c r="AI33" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AJ33" s="46">
         <v>3</v>
       </c>
@@ -5132,7 +5167,9 @@
       <c r="AH34" s="46">
         <v>4</v>
       </c>
-      <c r="AI34" s="19"/>
+      <c r="AI34" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AJ34" s="46">
         <v>4</v>
       </c>
@@ -5234,7 +5271,9 @@
       <c r="AH35" s="46">
         <v>5</v>
       </c>
-      <c r="AI35" s="19"/>
+      <c r="AI35" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AJ35" s="46">
         <v>5</v>
       </c>
@@ -5338,7 +5377,9 @@
       <c r="AH36" s="46">
         <v>6</v>
       </c>
-      <c r="AI36" s="19"/>
+      <c r="AI36" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AJ36" s="46">
         <v>6</v>
       </c>
@@ -5442,7 +5483,9 @@
       <c r="AH37" s="46">
         <v>7</v>
       </c>
-      <c r="AI37" s="19"/>
+      <c r="AI37" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="AJ37" s="46">
         <v>7</v>
       </c>
@@ -5546,7 +5589,9 @@
       <c r="AH38" s="46">
         <v>8</v>
       </c>
-      <c r="AI38" s="19"/>
+      <c r="AI38" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="AJ38" s="46">
         <v>8</v>
       </c>
@@ -5642,7 +5687,9 @@
       <c r="AH39" s="46">
         <v>9</v>
       </c>
-      <c r="AI39" s="19"/>
+      <c r="AI39" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="AJ39" s="46">
         <v>9</v>
       </c>
@@ -5744,7 +5791,9 @@
       <c r="AH40" s="46">
         <v>10</v>
       </c>
-      <c r="AI40" s="19"/>
+      <c r="AI40" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="AJ40" s="46">
         <v>10</v>
       </c>
@@ -5842,7 +5891,9 @@
       <c r="AH41" s="46">
         <v>11</v>
       </c>
-      <c r="AI41" s="19"/>
+      <c r="AI41" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="AJ41" s="46">
         <v>11</v>
       </c>
@@ -5944,7 +5995,9 @@
       <c r="AH42" s="46">
         <v>12</v>
       </c>
-      <c r="AI42" s="19"/>
+      <c r="AI42" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="AJ42" s="46">
         <v>12</v>
       </c>
@@ -5966,7 +6019,7 @@
       </c>
       <c r="AS42" s="19"/>
     </row>
-    <row r="43" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:45" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B43" s="46">
         <v>1</v>
       </c>
@@ -6040,7 +6093,9 @@
       <c r="AH43" s="46">
         <v>1</v>
       </c>
-      <c r="AI43" s="19"/>
+      <c r="AI43" s="19" t="s">
+        <v>178</v>
+      </c>
       <c r="AJ43" s="46">
         <v>1</v>
       </c>
@@ -6085,12 +6140,18 @@
         <v>2</v>
       </c>
       <c r="AG44" s="19"/>
+      <c r="AH44" s="46">
+        <v>2</v>
+      </c>
+      <c r="AI44" s="19" t="s">
+        <v>179</v>
+      </c>
       <c r="AJ44" s="46">
         <v>2</v>
       </c>
       <c r="AK44" s="19"/>
     </row>
-    <row r="45" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:45" ht="21.6" x14ac:dyDescent="0.3">
       <c r="Q45" s="46">
         <v>3</v>
       </c>
@@ -6104,6 +6165,12 @@
         <v>3</v>
       </c>
       <c r="AG45" s="19"/>
+      <c r="AH45" s="46">
+        <v>3</v>
+      </c>
+      <c r="AI45" s="19" t="s">
+        <v>180</v>
+      </c>
       <c r="AK45" s="19"/>
     </row>
   </sheetData>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C424D1B3-6963-40A2-9E98-C35F3F190961}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{538D73FB-73DD-45E5-AFED-91557584F231}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="46056" windowHeight="25320" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Struct" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="185">
   <si>
     <t>InstanceData</t>
   </si>
@@ -590,6 +590,18 @@
   </si>
   <si>
     <t>Render 전 Root Signature 별 데이터 세팅</t>
+  </si>
+  <si>
+    <t>AI  게임잼</t>
+  </si>
+  <si>
+    <t>충돌 로직 구현</t>
+  </si>
+  <si>
+    <t>맵 구현</t>
+  </si>
+  <si>
+    <t>GameObject Update 함수 구현</t>
   </si>
 </sst>
 </file>
@@ -948,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1063,6 +1075,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1400,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2829DBA9-5371-49D6-92D0-267134EE5124}">
   <dimension ref="B1:R82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2874,10 +2889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE69813-0201-43C0-866C-5D3C128F7149}">
-  <dimension ref="A1:AS45"/>
+  <dimension ref="A1:BW45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AI45" sqref="AI45"/>
+    <sheetView showGridLines="0" topLeftCell="AE1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AK41" sqref="AK41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
@@ -2911,7 +2926,7 @@
     <col min="27" max="27" width="2.109375" style="42" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="25" style="16" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="80.33203125" style="16" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="2" style="42" customWidth="1"/>
     <col min="32" max="32" width="2.109375" style="42" customWidth="1"/>
     <col min="33" max="33" width="25" style="16" customWidth="1"/>
@@ -2927,18 +2942,52 @@
     <col min="43" max="43" width="25" style="16" customWidth="1"/>
     <col min="44" max="44" width="2.109375" style="42" customWidth="1"/>
     <col min="45" max="45" width="25" style="16" customWidth="1"/>
-    <col min="46" max="16384" width="8.88671875" style="42"/>
+    <col min="46" max="46" width="2" style="42" customWidth="1"/>
+    <col min="47" max="47" width="2.109375" style="42" customWidth="1"/>
+    <col min="48" max="48" width="25" style="16" customWidth="1"/>
+    <col min="49" max="49" width="2.109375" style="42" customWidth="1"/>
+    <col min="50" max="50" width="25" style="16" customWidth="1"/>
+    <col min="51" max="51" width="2.109375" style="42" customWidth="1"/>
+    <col min="52" max="52" width="25" style="16" customWidth="1"/>
+    <col min="53" max="53" width="2.109375" style="42" customWidth="1"/>
+    <col min="54" max="54" width="25" style="16" customWidth="1"/>
+    <col min="55" max="55" width="2.109375" style="42" customWidth="1"/>
+    <col min="56" max="56" width="25" style="16" customWidth="1"/>
+    <col min="57" max="57" width="2.109375" style="42" customWidth="1"/>
+    <col min="58" max="58" width="25" style="16" customWidth="1"/>
+    <col min="59" max="59" width="2.109375" style="42" customWidth="1"/>
+    <col min="60" max="60" width="25" style="16" customWidth="1"/>
+    <col min="61" max="61" width="2" style="42" customWidth="1"/>
+    <col min="62" max="62" width="2.109375" style="42" customWidth="1"/>
+    <col min="63" max="63" width="25" style="16" customWidth="1"/>
+    <col min="64" max="64" width="2.109375" style="42" customWidth="1"/>
+    <col min="65" max="65" width="25" style="16" customWidth="1"/>
+    <col min="66" max="66" width="2.109375" style="42" customWidth="1"/>
+    <col min="67" max="67" width="25" style="16" customWidth="1"/>
+    <col min="68" max="68" width="2.109375" style="42" customWidth="1"/>
+    <col min="69" max="69" width="25" style="16" customWidth="1"/>
+    <col min="70" max="70" width="2.109375" style="42" customWidth="1"/>
+    <col min="71" max="71" width="25" style="16" customWidth="1"/>
+    <col min="72" max="72" width="2.109375" style="42" customWidth="1"/>
+    <col min="73" max="73" width="25" style="16" customWidth="1"/>
+    <col min="74" max="74" width="2.109375" style="42" customWidth="1"/>
+    <col min="75" max="75" width="25" style="16" customWidth="1"/>
+    <col min="76" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B1" s="41"/>
       <c r="D1" s="41"/>
       <c r="Q1" s="41"/>
       <c r="S1" s="41"/>
       <c r="AF1" s="41"/>
       <c r="AH1" s="41"/>
-    </row>
-    <row r="2" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="BJ1" s="41"/>
+      <c r="BL1" s="41"/>
+    </row>
+    <row r="2" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B2" s="43"/>
       <c r="C2" s="17">
         <f>DATE(2025, 7, 7)</f>
@@ -3044,8 +3093,78 @@
         <f>AQ2+1</f>
         <v>45865</v>
       </c>
-    </row>
-    <row r="3" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="40">
+        <f>AS2+1</f>
+        <v>45866</v>
+      </c>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="40">
+        <f>AV2+1</f>
+        <v>45867</v>
+      </c>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="40">
+        <f>AX2+1</f>
+        <v>45868</v>
+      </c>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="40">
+        <f>AZ2+1</f>
+        <v>45869</v>
+      </c>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="40">
+        <f>BB2+1</f>
+        <v>45870</v>
+      </c>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="40">
+        <f>BD2+1</f>
+        <v>45871</v>
+      </c>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="40">
+        <f>BF2+1</f>
+        <v>45872</v>
+      </c>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="40">
+        <f>BH2+1</f>
+        <v>45873</v>
+      </c>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="40">
+        <f>BK2+1</f>
+        <v>45874</v>
+      </c>
+      <c r="BN2" s="43"/>
+      <c r="BO2" s="40">
+        <f>BM2+1</f>
+        <v>45875</v>
+      </c>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="40">
+        <f>BO2+1</f>
+        <v>45876</v>
+      </c>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="40">
+        <f>BQ2+1</f>
+        <v>45877</v>
+      </c>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="40">
+        <f>BS2+1</f>
+        <v>45878</v>
+      </c>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="40">
+        <f>BU2+1</f>
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="3" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B3" s="44"/>
       <c r="C3" s="18"/>
       <c r="D3" s="45"/>
@@ -3094,8 +3213,40 @@
       <c r="AQ3" s="18"/>
       <c r="AR3" s="45"/>
       <c r="AS3" s="20"/>
-    </row>
-    <row r="4" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="20"/>
+      <c r="BJ3" s="44"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="18"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="18"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR3" s="45"/>
+      <c r="BS3" s="18"/>
+      <c r="BT3" s="45"/>
+      <c r="BU3" s="18"/>
+      <c r="BV3" s="45"/>
+      <c r="BW3" s="20"/>
+    </row>
+    <row r="4" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B4" s="46"/>
       <c r="C4" s="19"/>
       <c r="D4" s="46"/>
@@ -3138,8 +3289,36 @@
       <c r="AQ4" s="19"/>
       <c r="AR4" s="46"/>
       <c r="AS4" s="19"/>
-    </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="19"/>
+      <c r="BC4" s="46"/>
+      <c r="BD4" s="19"/>
+      <c r="BE4" s="46"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="46"/>
+      <c r="BH4" s="19"/>
+      <c r="BJ4" s="46"/>
+      <c r="BK4" s="19"/>
+      <c r="BL4" s="46"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="46"/>
+      <c r="BO4" s="19"/>
+      <c r="BP4" s="46"/>
+      <c r="BQ4" s="19"/>
+      <c r="BR4" s="46"/>
+      <c r="BS4" s="19"/>
+      <c r="BT4" s="46"/>
+      <c r="BU4" s="19"/>
+      <c r="BV4" s="46"/>
+      <c r="BW4" s="19"/>
+    </row>
+    <row r="5" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B5" s="46"/>
       <c r="C5" s="19"/>
       <c r="D5" s="46"/>
@@ -3182,8 +3361,36 @@
       <c r="AQ5" s="19"/>
       <c r="AR5" s="46"/>
       <c r="AS5" s="19"/>
-    </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="46"/>
+      <c r="BH5" s="19"/>
+      <c r="BJ5" s="46"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="46"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="46"/>
+      <c r="BO5" s="19"/>
+      <c r="BP5" s="46"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="46"/>
+      <c r="BS5" s="19"/>
+      <c r="BT5" s="46"/>
+      <c r="BU5" s="19"/>
+      <c r="BV5" s="46"/>
+      <c r="BW5" s="19"/>
+    </row>
+    <row r="6" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B6" s="44"/>
       <c r="C6" s="18"/>
       <c r="D6" s="45"/>
@@ -3232,8 +3439,40 @@
       <c r="AQ6" s="18"/>
       <c r="AR6" s="45"/>
       <c r="AS6" s="20"/>
-    </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="45"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="45"/>
+      <c r="BB6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC6" s="45"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="45"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="45"/>
+      <c r="BH6" s="20"/>
+      <c r="BJ6" s="44"/>
+      <c r="BK6" s="18"/>
+      <c r="BL6" s="45"/>
+      <c r="BM6" s="18"/>
+      <c r="BN6" s="45"/>
+      <c r="BO6" s="18"/>
+      <c r="BP6" s="45"/>
+      <c r="BQ6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BR6" s="45"/>
+      <c r="BS6" s="18"/>
+      <c r="BT6" s="45"/>
+      <c r="BU6" s="18"/>
+      <c r="BV6" s="45"/>
+      <c r="BW6" s="20"/>
+    </row>
+    <row r="7" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B7" s="46"/>
       <c r="C7" s="19"/>
       <c r="D7" s="46"/>
@@ -3276,8 +3515,36 @@
       <c r="AQ7" s="19"/>
       <c r="AR7" s="46"/>
       <c r="AS7" s="19"/>
-    </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="46"/>
+      <c r="AZ7" s="19"/>
+      <c r="BA7" s="46"/>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="46"/>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="46"/>
+      <c r="BF7" s="19"/>
+      <c r="BG7" s="46"/>
+      <c r="BH7" s="19"/>
+      <c r="BJ7" s="46"/>
+      <c r="BK7" s="19"/>
+      <c r="BL7" s="46"/>
+      <c r="BM7" s="19"/>
+      <c r="BN7" s="46"/>
+      <c r="BO7" s="19"/>
+      <c r="BP7" s="46"/>
+      <c r="BQ7" s="19"/>
+      <c r="BR7" s="46"/>
+      <c r="BS7" s="19"/>
+      <c r="BT7" s="46"/>
+      <c r="BU7" s="19"/>
+      <c r="BV7" s="46"/>
+      <c r="BW7" s="19"/>
+    </row>
+    <row r="8" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B8" s="46"/>
       <c r="C8" s="19"/>
       <c r="D8" s="46"/>
@@ -3324,8 +3591,38 @@
       <c r="AQ8" s="19"/>
       <c r="AR8" s="46"/>
       <c r="AS8" s="19"/>
-    </row>
-    <row r="9" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU8" s="46"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="46"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="46"/>
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="46"/>
+      <c r="BB8" s="19"/>
+      <c r="BC8" s="46"/>
+      <c r="BD8" s="19"/>
+      <c r="BE8" s="46"/>
+      <c r="BF8" s="19"/>
+      <c r="BG8" s="46"/>
+      <c r="BH8" s="19"/>
+      <c r="BJ8" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK8" s="19"/>
+      <c r="BL8" s="46"/>
+      <c r="BM8" s="19"/>
+      <c r="BN8" s="46"/>
+      <c r="BO8" s="19"/>
+      <c r="BP8" s="46"/>
+      <c r="BQ8" s="19"/>
+      <c r="BR8" s="46"/>
+      <c r="BS8" s="19"/>
+      <c r="BT8" s="46"/>
+      <c r="BU8" s="19"/>
+      <c r="BV8" s="46"/>
+      <c r="BW8" s="19"/>
+    </row>
+    <row r="9" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B9" s="46"/>
       <c r="C9" s="19"/>
       <c r="D9" s="46"/>
@@ -3368,8 +3665,36 @@
       <c r="AQ9" s="19"/>
       <c r="AR9" s="46"/>
       <c r="AS9" s="19"/>
-    </row>
-    <row r="10" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="46"/>
+      <c r="BB9" s="19"/>
+      <c r="BC9" s="46"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="46"/>
+      <c r="BF9" s="19"/>
+      <c r="BG9" s="46"/>
+      <c r="BH9" s="19"/>
+      <c r="BJ9" s="46"/>
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="46"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="46"/>
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="46"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="46"/>
+      <c r="BS9" s="19"/>
+      <c r="BT9" s="46"/>
+      <c r="BU9" s="19"/>
+      <c r="BV9" s="46"/>
+      <c r="BW9" s="19"/>
+    </row>
+    <row r="10" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B10" s="46"/>
       <c r="C10" s="19"/>
       <c r="D10" s="46"/>
@@ -3412,8 +3737,36 @@
       <c r="AQ10" s="19"/>
       <c r="AR10" s="46"/>
       <c r="AS10" s="19"/>
-    </row>
-    <row r="11" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU10" s="46"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="46"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="46"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="46"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="46"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="46"/>
+      <c r="BF10" s="19"/>
+      <c r="BG10" s="46"/>
+      <c r="BH10" s="19"/>
+      <c r="BJ10" s="46"/>
+      <c r="BK10" s="19"/>
+      <c r="BL10" s="46"/>
+      <c r="BM10" s="19"/>
+      <c r="BN10" s="46"/>
+      <c r="BO10" s="19"/>
+      <c r="BP10" s="46"/>
+      <c r="BQ10" s="19"/>
+      <c r="BR10" s="46"/>
+      <c r="BS10" s="19"/>
+      <c r="BT10" s="46"/>
+      <c r="BU10" s="19"/>
+      <c r="BV10" s="46"/>
+      <c r="BW10" s="19"/>
+    </row>
+    <row r="11" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B11" s="44"/>
       <c r="C11" s="18"/>
       <c r="D11" s="45"/>
@@ -3462,8 +3815,40 @@
       <c r="AQ11" s="18"/>
       <c r="AR11" s="45"/>
       <c r="AS11" s="20"/>
-    </row>
-    <row r="12" spans="2:45" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="18"/>
+      <c r="AW11" s="45"/>
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="45"/>
+      <c r="AZ11" s="18"/>
+      <c r="BA11" s="45"/>
+      <c r="BB11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC11" s="45"/>
+      <c r="BD11" s="18"/>
+      <c r="BE11" s="45"/>
+      <c r="BF11" s="18"/>
+      <c r="BG11" s="45"/>
+      <c r="BH11" s="20"/>
+      <c r="BJ11" s="44"/>
+      <c r="BK11" s="18"/>
+      <c r="BL11" s="45"/>
+      <c r="BM11" s="18"/>
+      <c r="BN11" s="45"/>
+      <c r="BO11" s="18"/>
+      <c r="BP11" s="45"/>
+      <c r="BQ11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR11" s="45"/>
+      <c r="BS11" s="18"/>
+      <c r="BT11" s="45"/>
+      <c r="BU11" s="18"/>
+      <c r="BV11" s="45"/>
+      <c r="BW11" s="20"/>
+    </row>
+    <row r="12" spans="2:75" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B12" s="46"/>
       <c r="C12" s="19"/>
       <c r="D12" s="46"/>
@@ -3518,22 +3903,63 @@
       <c r="AG12" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AH12" s="46"/>
+      <c r="AH12" s="46" t="s">
+        <v>110</v>
+      </c>
       <c r="AI12" s="19" t="s">
         <v>175</v>
       </c>
       <c r="AJ12" s="46"/>
-      <c r="AK12" s="19"/>
+      <c r="AK12" s="47" t="s">
+        <v>184</v>
+      </c>
       <c r="AL12" s="46"/>
-      <c r="AM12" s="19"/>
+      <c r="AM12" s="19" t="s">
+        <v>182</v>
+      </c>
       <c r="AN12" s="46"/>
-      <c r="AO12" s="19"/>
+      <c r="AO12" s="19" t="s">
+        <v>183</v>
+      </c>
       <c r="AP12" s="46"/>
       <c r="AQ12" s="19"/>
       <c r="AR12" s="46"/>
       <c r="AS12" s="19"/>
-    </row>
-    <row r="13" spans="2:45" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="46"/>
+      <c r="BA12" s="46"/>
+      <c r="BB12" s="19"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="19"/>
+      <c r="BE12" s="46"/>
+      <c r="BF12" s="19"/>
+      <c r="BG12" s="46"/>
+      <c r="BH12" s="19"/>
+      <c r="BJ12" s="46"/>
+      <c r="BK12" s="19"/>
+      <c r="BL12" s="46"/>
+      <c r="BM12" s="19"/>
+      <c r="BN12" s="46"/>
+      <c r="BO12" s="19"/>
+      <c r="BP12" s="46"/>
+      <c r="BQ12" s="19"/>
+      <c r="BR12" s="46"/>
+      <c r="BS12" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="BT12" s="46"/>
+      <c r="BU12" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="BV12" s="46"/>
+      <c r="BW12" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="2:75" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B13" s="46"/>
       <c r="C13" s="19"/>
       <c r="D13" s="46"/>
@@ -3598,8 +4024,38 @@
       <c r="AQ13" s="19"/>
       <c r="AR13" s="46"/>
       <c r="AS13" s="19"/>
-    </row>
-    <row r="14" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU13" s="46"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="19"/>
+      <c r="BA13" s="46"/>
+      <c r="BB13" s="19"/>
+      <c r="BC13" s="46"/>
+      <c r="BD13" s="19"/>
+      <c r="BE13" s="46"/>
+      <c r="BF13" s="19"/>
+      <c r="BG13" s="46"/>
+      <c r="BH13" s="19"/>
+      <c r="BJ13" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK13" s="19"/>
+      <c r="BL13" s="46"/>
+      <c r="BM13" s="19"/>
+      <c r="BN13" s="46"/>
+      <c r="BO13" s="19"/>
+      <c r="BP13" s="46"/>
+      <c r="BQ13" s="19"/>
+      <c r="BR13" s="46"/>
+      <c r="BS13" s="19"/>
+      <c r="BT13" s="46"/>
+      <c r="BU13" s="19"/>
+      <c r="BV13" s="46"/>
+      <c r="BW13" s="19"/>
+    </row>
+    <row r="14" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B14" s="46"/>
       <c r="C14" s="19"/>
       <c r="D14" s="46"/>
@@ -3654,8 +4110,36 @@
       <c r="AQ14" s="19"/>
       <c r="AR14" s="46"/>
       <c r="AS14" s="19"/>
-    </row>
-    <row r="15" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU14" s="46"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="46"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="19"/>
+      <c r="BA14" s="46"/>
+      <c r="BB14" s="19"/>
+      <c r="BC14" s="46"/>
+      <c r="BD14" s="19"/>
+      <c r="BE14" s="46"/>
+      <c r="BF14" s="19"/>
+      <c r="BG14" s="46"/>
+      <c r="BH14" s="19"/>
+      <c r="BJ14" s="46"/>
+      <c r="BK14" s="19"/>
+      <c r="BL14" s="46"/>
+      <c r="BM14" s="19"/>
+      <c r="BN14" s="46"/>
+      <c r="BO14" s="19"/>
+      <c r="BP14" s="46"/>
+      <c r="BQ14" s="19"/>
+      <c r="BR14" s="46"/>
+      <c r="BS14" s="19"/>
+      <c r="BT14" s="46"/>
+      <c r="BU14" s="19"/>
+      <c r="BV14" s="46"/>
+      <c r="BW14" s="19"/>
+    </row>
+    <row r="15" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B15" s="46"/>
       <c r="C15" s="19"/>
       <c r="D15" s="46"/>
@@ -3706,8 +4190,36 @@
       <c r="AQ15" s="19"/>
       <c r="AR15" s="46"/>
       <c r="AS15" s="19"/>
-    </row>
-    <row r="16" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU15" s="46"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="46"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="19"/>
+      <c r="BA15" s="46"/>
+      <c r="BB15" s="19"/>
+      <c r="BC15" s="46"/>
+      <c r="BD15" s="19"/>
+      <c r="BE15" s="46"/>
+      <c r="BF15" s="19"/>
+      <c r="BG15" s="46"/>
+      <c r="BH15" s="19"/>
+      <c r="BJ15" s="46"/>
+      <c r="BK15" s="19"/>
+      <c r="BL15" s="46"/>
+      <c r="BM15" s="19"/>
+      <c r="BN15" s="46"/>
+      <c r="BO15" s="19"/>
+      <c r="BP15" s="46"/>
+      <c r="BQ15" s="19"/>
+      <c r="BR15" s="46"/>
+      <c r="BS15" s="19"/>
+      <c r="BT15" s="46"/>
+      <c r="BU15" s="19"/>
+      <c r="BV15" s="46"/>
+      <c r="BW15" s="19"/>
+    </row>
+    <row r="16" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B16" s="46"/>
       <c r="C16" s="19"/>
       <c r="D16" s="46"/>
@@ -3752,8 +4264,36 @@
       <c r="AQ16" s="19"/>
       <c r="AR16" s="46"/>
       <c r="AS16" s="19"/>
-    </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU16" s="46"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="46"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="46"/>
+      <c r="AZ16" s="19"/>
+      <c r="BA16" s="46"/>
+      <c r="BB16" s="19"/>
+      <c r="BC16" s="46"/>
+      <c r="BD16" s="19"/>
+      <c r="BE16" s="46"/>
+      <c r="BF16" s="19"/>
+      <c r="BG16" s="46"/>
+      <c r="BH16" s="19"/>
+      <c r="BJ16" s="46"/>
+      <c r="BK16" s="19"/>
+      <c r="BL16" s="46"/>
+      <c r="BM16" s="19"/>
+      <c r="BN16" s="46"/>
+      <c r="BO16" s="19"/>
+      <c r="BP16" s="46"/>
+      <c r="BQ16" s="19"/>
+      <c r="BR16" s="46"/>
+      <c r="BS16" s="19"/>
+      <c r="BT16" s="46"/>
+      <c r="BU16" s="19"/>
+      <c r="BV16" s="46"/>
+      <c r="BW16" s="19"/>
+    </row>
+    <row r="17" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B17" s="44"/>
       <c r="C17" s="18"/>
       <c r="D17" s="45"/>
@@ -3802,8 +4342,40 @@
       <c r="AQ17" s="18"/>
       <c r="AR17" s="45"/>
       <c r="AS17" s="20"/>
-    </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU17" s="44"/>
+      <c r="AV17" s="18"/>
+      <c r="AW17" s="45"/>
+      <c r="AX17" s="18"/>
+      <c r="AY17" s="45"/>
+      <c r="AZ17" s="18"/>
+      <c r="BA17" s="45"/>
+      <c r="BB17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC17" s="45"/>
+      <c r="BD17" s="18"/>
+      <c r="BE17" s="45"/>
+      <c r="BF17" s="18"/>
+      <c r="BG17" s="45"/>
+      <c r="BH17" s="20"/>
+      <c r="BJ17" s="44"/>
+      <c r="BK17" s="18"/>
+      <c r="BL17" s="45"/>
+      <c r="BM17" s="18"/>
+      <c r="BN17" s="45"/>
+      <c r="BO17" s="18"/>
+      <c r="BP17" s="45"/>
+      <c r="BQ17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR17" s="45"/>
+      <c r="BS17" s="18"/>
+      <c r="BT17" s="45"/>
+      <c r="BU17" s="18"/>
+      <c r="BV17" s="45"/>
+      <c r="BW17" s="20"/>
+    </row>
+    <row r="18" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B18" s="46"/>
       <c r="C18" s="19"/>
       <c r="D18" s="46"/>
@@ -3846,8 +4418,36 @@
       <c r="AQ18" s="19"/>
       <c r="AR18" s="46"/>
       <c r="AS18" s="19"/>
-    </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU18" s="46"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="46"/>
+      <c r="AZ18" s="19"/>
+      <c r="BA18" s="46"/>
+      <c r="BB18" s="19"/>
+      <c r="BC18" s="46"/>
+      <c r="BD18" s="19"/>
+      <c r="BE18" s="46"/>
+      <c r="BF18" s="19"/>
+      <c r="BG18" s="46"/>
+      <c r="BH18" s="19"/>
+      <c r="BJ18" s="46"/>
+      <c r="BK18" s="19"/>
+      <c r="BL18" s="46"/>
+      <c r="BM18" s="19"/>
+      <c r="BN18" s="46"/>
+      <c r="BO18" s="19"/>
+      <c r="BP18" s="46"/>
+      <c r="BQ18" s="19"/>
+      <c r="BR18" s="46"/>
+      <c r="BS18" s="19"/>
+      <c r="BT18" s="46"/>
+      <c r="BU18" s="19"/>
+      <c r="BV18" s="46"/>
+      <c r="BW18" s="19"/>
+    </row>
+    <row r="19" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B19" s="46"/>
       <c r="C19" s="19"/>
       <c r="D19" s="46"/>
@@ -3890,8 +4490,36 @@
       <c r="AQ19" s="19"/>
       <c r="AR19" s="46"/>
       <c r="AS19" s="19"/>
-    </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU19" s="46"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="46"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="46"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="46"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="46"/>
+      <c r="BD19" s="19"/>
+      <c r="BE19" s="46"/>
+      <c r="BF19" s="19"/>
+      <c r="BG19" s="46"/>
+      <c r="BH19" s="19"/>
+      <c r="BJ19" s="46"/>
+      <c r="BK19" s="19"/>
+      <c r="BL19" s="46"/>
+      <c r="BM19" s="19"/>
+      <c r="BN19" s="46"/>
+      <c r="BO19" s="19"/>
+      <c r="BP19" s="46"/>
+      <c r="BQ19" s="19"/>
+      <c r="BR19" s="46"/>
+      <c r="BS19" s="19"/>
+      <c r="BT19" s="46"/>
+      <c r="BU19" s="19"/>
+      <c r="BV19" s="46"/>
+      <c r="BW19" s="19"/>
+    </row>
+    <row r="20" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B20" s="46"/>
       <c r="C20" s="19"/>
       <c r="D20" s="46"/>
@@ -3934,8 +4562,36 @@
       <c r="AQ20" s="19"/>
       <c r="AR20" s="46"/>
       <c r="AS20" s="19"/>
-    </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU20" s="46"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="46"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="46"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="46"/>
+      <c r="BB20" s="19"/>
+      <c r="BC20" s="46"/>
+      <c r="BD20" s="19"/>
+      <c r="BE20" s="46"/>
+      <c r="BF20" s="19"/>
+      <c r="BG20" s="46"/>
+      <c r="BH20" s="19"/>
+      <c r="BJ20" s="46"/>
+      <c r="BK20" s="19"/>
+      <c r="BL20" s="46"/>
+      <c r="BM20" s="19"/>
+      <c r="BN20" s="46"/>
+      <c r="BO20" s="19"/>
+      <c r="BP20" s="46"/>
+      <c r="BQ20" s="19"/>
+      <c r="BR20" s="46"/>
+      <c r="BS20" s="19"/>
+      <c r="BT20" s="46"/>
+      <c r="BU20" s="19"/>
+      <c r="BV20" s="46"/>
+      <c r="BW20" s="19"/>
+    </row>
+    <row r="21" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B21" s="46"/>
       <c r="C21" s="19"/>
       <c r="D21" s="46"/>
@@ -3978,8 +4634,36 @@
       <c r="AQ21" s="19"/>
       <c r="AR21" s="46"/>
       <c r="AS21" s="19"/>
-    </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU21" s="46"/>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="46"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="46"/>
+      <c r="AZ21" s="19"/>
+      <c r="BA21" s="46"/>
+      <c r="BB21" s="19"/>
+      <c r="BC21" s="46"/>
+      <c r="BD21" s="19"/>
+      <c r="BE21" s="46"/>
+      <c r="BF21" s="19"/>
+      <c r="BG21" s="46"/>
+      <c r="BH21" s="19"/>
+      <c r="BJ21" s="46"/>
+      <c r="BK21" s="19"/>
+      <c r="BL21" s="46"/>
+      <c r="BM21" s="19"/>
+      <c r="BN21" s="46"/>
+      <c r="BO21" s="19"/>
+      <c r="BP21" s="46"/>
+      <c r="BQ21" s="19"/>
+      <c r="BR21" s="46"/>
+      <c r="BS21" s="19"/>
+      <c r="BT21" s="46"/>
+      <c r="BU21" s="19"/>
+      <c r="BV21" s="46"/>
+      <c r="BW21" s="19"/>
+    </row>
+    <row r="22" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B22" s="46"/>
       <c r="C22" s="19"/>
       <c r="D22" s="46"/>
@@ -4022,8 +4706,36 @@
       <c r="AQ22" s="19"/>
       <c r="AR22" s="46"/>
       <c r="AS22" s="19"/>
-    </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU22" s="46"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="46"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="46"/>
+      <c r="AZ22" s="19"/>
+      <c r="BA22" s="46"/>
+      <c r="BB22" s="19"/>
+      <c r="BC22" s="46"/>
+      <c r="BD22" s="19"/>
+      <c r="BE22" s="46"/>
+      <c r="BF22" s="19"/>
+      <c r="BG22" s="46"/>
+      <c r="BH22" s="19"/>
+      <c r="BJ22" s="46"/>
+      <c r="BK22" s="19"/>
+      <c r="BL22" s="46"/>
+      <c r="BM22" s="19"/>
+      <c r="BN22" s="46"/>
+      <c r="BO22" s="19"/>
+      <c r="BP22" s="46"/>
+      <c r="BQ22" s="19"/>
+      <c r="BR22" s="46"/>
+      <c r="BS22" s="19"/>
+      <c r="BT22" s="46"/>
+      <c r="BU22" s="19"/>
+      <c r="BV22" s="46"/>
+      <c r="BW22" s="19"/>
+    </row>
+    <row r="23" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B23" s="44"/>
       <c r="C23" s="18"/>
       <c r="D23" s="45"/>
@@ -4072,8 +4784,40 @@
       <c r="AQ23" s="18"/>
       <c r="AR23" s="45"/>
       <c r="AS23" s="20"/>
-    </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="18"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="18"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="18"/>
+      <c r="BA23" s="45"/>
+      <c r="BB23" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="18"/>
+      <c r="BE23" s="45"/>
+      <c r="BF23" s="18"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="20"/>
+      <c r="BJ23" s="44"/>
+      <c r="BK23" s="18"/>
+      <c r="BL23" s="45"/>
+      <c r="BM23" s="18"/>
+      <c r="BN23" s="45"/>
+      <c r="BO23" s="18"/>
+      <c r="BP23" s="45"/>
+      <c r="BQ23" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="BR23" s="45"/>
+      <c r="BS23" s="18"/>
+      <c r="BT23" s="45"/>
+      <c r="BU23" s="18"/>
+      <c r="BV23" s="45"/>
+      <c r="BW23" s="20"/>
+    </row>
+    <row r="24" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B24" s="46">
         <v>6</v>
       </c>
@@ -4158,8 +4902,64 @@
         <v>6</v>
       </c>
       <c r="AS24" s="19"/>
-    </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU24" s="46">
+        <v>6</v>
+      </c>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="46">
+        <v>6</v>
+      </c>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="46">
+        <v>6</v>
+      </c>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="46">
+        <v>6</v>
+      </c>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="46">
+        <v>6</v>
+      </c>
+      <c r="BD24" s="19"/>
+      <c r="BE24" s="46">
+        <v>6</v>
+      </c>
+      <c r="BF24" s="19"/>
+      <c r="BG24" s="46">
+        <v>6</v>
+      </c>
+      <c r="BH24" s="19"/>
+      <c r="BJ24" s="46">
+        <v>6</v>
+      </c>
+      <c r="BK24" s="19"/>
+      <c r="BL24" s="46">
+        <v>6</v>
+      </c>
+      <c r="BM24" s="19"/>
+      <c r="BN24" s="46">
+        <v>6</v>
+      </c>
+      <c r="BO24" s="19"/>
+      <c r="BP24" s="46">
+        <v>6</v>
+      </c>
+      <c r="BQ24" s="19"/>
+      <c r="BR24" s="46">
+        <v>6</v>
+      </c>
+      <c r="BS24" s="19"/>
+      <c r="BT24" s="46">
+        <v>6</v>
+      </c>
+      <c r="BU24" s="19"/>
+      <c r="BV24" s="46">
+        <v>6</v>
+      </c>
+      <c r="BW24" s="19"/>
+    </row>
+    <row r="25" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B25" s="46">
         <v>7</v>
       </c>
@@ -4246,8 +5046,64 @@
         <v>7</v>
       </c>
       <c r="AS25" s="19"/>
-    </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU25" s="46">
+        <v>7</v>
+      </c>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="46">
+        <v>7</v>
+      </c>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="46">
+        <v>7</v>
+      </c>
+      <c r="AZ25" s="19"/>
+      <c r="BA25" s="46">
+        <v>7</v>
+      </c>
+      <c r="BB25" s="19"/>
+      <c r="BC25" s="46">
+        <v>7</v>
+      </c>
+      <c r="BD25" s="19"/>
+      <c r="BE25" s="46">
+        <v>7</v>
+      </c>
+      <c r="BF25" s="19"/>
+      <c r="BG25" s="46">
+        <v>7</v>
+      </c>
+      <c r="BH25" s="19"/>
+      <c r="BJ25" s="46">
+        <v>7</v>
+      </c>
+      <c r="BK25" s="19"/>
+      <c r="BL25" s="46">
+        <v>7</v>
+      </c>
+      <c r="BM25" s="19"/>
+      <c r="BN25" s="46">
+        <v>7</v>
+      </c>
+      <c r="BO25" s="19"/>
+      <c r="BP25" s="46">
+        <v>7</v>
+      </c>
+      <c r="BQ25" s="19"/>
+      <c r="BR25" s="46">
+        <v>7</v>
+      </c>
+      <c r="BS25" s="19"/>
+      <c r="BT25" s="46">
+        <v>7</v>
+      </c>
+      <c r="BU25" s="19"/>
+      <c r="BV25" s="46">
+        <v>7</v>
+      </c>
+      <c r="BW25" s="19"/>
+    </row>
+    <row r="26" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B26" s="46">
         <v>8</v>
       </c>
@@ -4334,8 +5190,64 @@
         <v>8</v>
       </c>
       <c r="AS26" s="19"/>
-    </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU26" s="46">
+        <v>8</v>
+      </c>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="46">
+        <v>8</v>
+      </c>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="46">
+        <v>8</v>
+      </c>
+      <c r="AZ26" s="19"/>
+      <c r="BA26" s="46">
+        <v>8</v>
+      </c>
+      <c r="BB26" s="19"/>
+      <c r="BC26" s="46">
+        <v>8</v>
+      </c>
+      <c r="BD26" s="19"/>
+      <c r="BE26" s="46">
+        <v>8</v>
+      </c>
+      <c r="BF26" s="19"/>
+      <c r="BG26" s="46">
+        <v>8</v>
+      </c>
+      <c r="BH26" s="19"/>
+      <c r="BJ26" s="46">
+        <v>8</v>
+      </c>
+      <c r="BK26" s="19"/>
+      <c r="BL26" s="46">
+        <v>8</v>
+      </c>
+      <c r="BM26" s="19"/>
+      <c r="BN26" s="46">
+        <v>8</v>
+      </c>
+      <c r="BO26" s="19"/>
+      <c r="BP26" s="46">
+        <v>8</v>
+      </c>
+      <c r="BQ26" s="19"/>
+      <c r="BR26" s="46">
+        <v>8</v>
+      </c>
+      <c r="BS26" s="19"/>
+      <c r="BT26" s="46">
+        <v>8</v>
+      </c>
+      <c r="BU26" s="19"/>
+      <c r="BV26" s="46">
+        <v>8</v>
+      </c>
+      <c r="BW26" s="19"/>
+    </row>
+    <row r="27" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B27" s="46">
         <v>9</v>
       </c>
@@ -4421,7 +5333,9 @@
       <c r="AJ27" s="46">
         <v>9</v>
       </c>
-      <c r="AK27" s="19"/>
+      <c r="AK27" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="AL27" s="46">
         <v>9</v>
       </c>
@@ -4438,8 +5352,64 @@
         <v>9</v>
       </c>
       <c r="AS27" s="19"/>
-    </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU27" s="46">
+        <v>9</v>
+      </c>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="46">
+        <v>9</v>
+      </c>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="46">
+        <v>9</v>
+      </c>
+      <c r="AZ27" s="19"/>
+      <c r="BA27" s="46">
+        <v>9</v>
+      </c>
+      <c r="BB27" s="19"/>
+      <c r="BC27" s="46">
+        <v>9</v>
+      </c>
+      <c r="BD27" s="19"/>
+      <c r="BE27" s="46">
+        <v>9</v>
+      </c>
+      <c r="BF27" s="19"/>
+      <c r="BG27" s="46">
+        <v>9</v>
+      </c>
+      <c r="BH27" s="19"/>
+      <c r="BJ27" s="46">
+        <v>9</v>
+      </c>
+      <c r="BK27" s="19"/>
+      <c r="BL27" s="46">
+        <v>9</v>
+      </c>
+      <c r="BM27" s="19"/>
+      <c r="BN27" s="46">
+        <v>9</v>
+      </c>
+      <c r="BO27" s="19"/>
+      <c r="BP27" s="46">
+        <v>9</v>
+      </c>
+      <c r="BQ27" s="19"/>
+      <c r="BR27" s="46">
+        <v>9</v>
+      </c>
+      <c r="BS27" s="19"/>
+      <c r="BT27" s="46">
+        <v>9</v>
+      </c>
+      <c r="BU27" s="19"/>
+      <c r="BV27" s="46">
+        <v>9</v>
+      </c>
+      <c r="BW27" s="19"/>
+    </row>
+    <row r="28" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B28" s="46">
         <v>10</v>
       </c>
@@ -4527,7 +5497,9 @@
       <c r="AJ28" s="46">
         <v>10</v>
       </c>
-      <c r="AK28" s="19"/>
+      <c r="AK28" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="AL28" s="46">
         <v>10</v>
       </c>
@@ -4544,8 +5516,64 @@
         <v>10</v>
       </c>
       <c r="AS28" s="19"/>
-    </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU28" s="46">
+        <v>10</v>
+      </c>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="46">
+        <v>10</v>
+      </c>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="46">
+        <v>10</v>
+      </c>
+      <c r="AZ28" s="19"/>
+      <c r="BA28" s="46">
+        <v>10</v>
+      </c>
+      <c r="BB28" s="19"/>
+      <c r="BC28" s="46">
+        <v>10</v>
+      </c>
+      <c r="BD28" s="19"/>
+      <c r="BE28" s="46">
+        <v>10</v>
+      </c>
+      <c r="BF28" s="19"/>
+      <c r="BG28" s="46">
+        <v>10</v>
+      </c>
+      <c r="BH28" s="19"/>
+      <c r="BJ28" s="46">
+        <v>10</v>
+      </c>
+      <c r="BK28" s="19"/>
+      <c r="BL28" s="46">
+        <v>10</v>
+      </c>
+      <c r="BM28" s="19"/>
+      <c r="BN28" s="46">
+        <v>10</v>
+      </c>
+      <c r="BO28" s="19"/>
+      <c r="BP28" s="46">
+        <v>10</v>
+      </c>
+      <c r="BQ28" s="19"/>
+      <c r="BR28" s="46">
+        <v>10</v>
+      </c>
+      <c r="BS28" s="19"/>
+      <c r="BT28" s="46">
+        <v>10</v>
+      </c>
+      <c r="BU28" s="19"/>
+      <c r="BV28" s="46">
+        <v>10</v>
+      </c>
+      <c r="BW28" s="19"/>
+    </row>
+    <row r="29" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B29" s="46">
         <v>11</v>
       </c>
@@ -4635,7 +5663,9 @@
       <c r="AJ29" s="46">
         <v>11</v>
       </c>
-      <c r="AK29" s="19"/>
+      <c r="AK29" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="AL29" s="46">
         <v>11</v>
       </c>
@@ -4652,8 +5682,64 @@
         <v>11</v>
       </c>
       <c r="AS29" s="19"/>
-    </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU29" s="46">
+        <v>11</v>
+      </c>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="46">
+        <v>11</v>
+      </c>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="46">
+        <v>11</v>
+      </c>
+      <c r="AZ29" s="19"/>
+      <c r="BA29" s="46">
+        <v>11</v>
+      </c>
+      <c r="BB29" s="19"/>
+      <c r="BC29" s="46">
+        <v>11</v>
+      </c>
+      <c r="BD29" s="19"/>
+      <c r="BE29" s="46">
+        <v>11</v>
+      </c>
+      <c r="BF29" s="19"/>
+      <c r="BG29" s="46">
+        <v>11</v>
+      </c>
+      <c r="BH29" s="19"/>
+      <c r="BJ29" s="46">
+        <v>11</v>
+      </c>
+      <c r="BK29" s="19"/>
+      <c r="BL29" s="46">
+        <v>11</v>
+      </c>
+      <c r="BM29" s="19"/>
+      <c r="BN29" s="46">
+        <v>11</v>
+      </c>
+      <c r="BO29" s="19"/>
+      <c r="BP29" s="46">
+        <v>11</v>
+      </c>
+      <c r="BQ29" s="19"/>
+      <c r="BR29" s="46">
+        <v>11</v>
+      </c>
+      <c r="BS29" s="19"/>
+      <c r="BT29" s="46">
+        <v>11</v>
+      </c>
+      <c r="BU29" s="19"/>
+      <c r="BV29" s="46">
+        <v>11</v>
+      </c>
+      <c r="BW29" s="19"/>
+    </row>
+    <row r="30" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B30" s="46">
         <v>12</v>
       </c>
@@ -4743,7 +5829,9 @@
       <c r="AJ30" s="46">
         <v>12</v>
       </c>
-      <c r="AK30" s="19"/>
+      <c r="AK30" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AL30" s="46">
         <v>12</v>
       </c>
@@ -4760,8 +5848,64 @@
         <v>12</v>
       </c>
       <c r="AS30" s="19"/>
-    </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU30" s="46">
+        <v>12</v>
+      </c>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="46">
+        <v>12</v>
+      </c>
+      <c r="AX30" s="19"/>
+      <c r="AY30" s="46">
+        <v>12</v>
+      </c>
+      <c r="AZ30" s="19"/>
+      <c r="BA30" s="46">
+        <v>12</v>
+      </c>
+      <c r="BB30" s="19"/>
+      <c r="BC30" s="46">
+        <v>12</v>
+      </c>
+      <c r="BD30" s="19"/>
+      <c r="BE30" s="46">
+        <v>12</v>
+      </c>
+      <c r="BF30" s="19"/>
+      <c r="BG30" s="46">
+        <v>12</v>
+      </c>
+      <c r="BH30" s="19"/>
+      <c r="BJ30" s="46">
+        <v>12</v>
+      </c>
+      <c r="BK30" s="19"/>
+      <c r="BL30" s="46">
+        <v>12</v>
+      </c>
+      <c r="BM30" s="19"/>
+      <c r="BN30" s="46">
+        <v>12</v>
+      </c>
+      <c r="BO30" s="19"/>
+      <c r="BP30" s="46">
+        <v>12</v>
+      </c>
+      <c r="BQ30" s="19"/>
+      <c r="BR30" s="46">
+        <v>12</v>
+      </c>
+      <c r="BS30" s="19"/>
+      <c r="BT30" s="46">
+        <v>12</v>
+      </c>
+      <c r="BU30" s="19"/>
+      <c r="BV30" s="46">
+        <v>12</v>
+      </c>
+      <c r="BW30" s="19"/>
+    </row>
+    <row r="31" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B31" s="46">
         <v>1</v>
       </c>
@@ -4851,7 +5995,9 @@
       <c r="AJ31" s="46">
         <v>1</v>
       </c>
-      <c r="AK31" s="19"/>
+      <c r="AK31" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AL31" s="46">
         <v>1</v>
       </c>
@@ -4868,8 +6014,64 @@
         <v>1</v>
       </c>
       <c r="AS31" s="19"/>
-    </row>
-    <row r="32" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU31" s="46">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="46">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="46">
+        <v>1</v>
+      </c>
+      <c r="AZ31" s="19"/>
+      <c r="BA31" s="46">
+        <v>1</v>
+      </c>
+      <c r="BB31" s="19"/>
+      <c r="BC31" s="46">
+        <v>1</v>
+      </c>
+      <c r="BD31" s="19"/>
+      <c r="BE31" s="46">
+        <v>1</v>
+      </c>
+      <c r="BF31" s="19"/>
+      <c r="BG31" s="46">
+        <v>1</v>
+      </c>
+      <c r="BH31" s="19"/>
+      <c r="BJ31" s="46">
+        <v>1</v>
+      </c>
+      <c r="BK31" s="19"/>
+      <c r="BL31" s="46">
+        <v>1</v>
+      </c>
+      <c r="BM31" s="19"/>
+      <c r="BN31" s="46">
+        <v>1</v>
+      </c>
+      <c r="BO31" s="19"/>
+      <c r="BP31" s="46">
+        <v>1</v>
+      </c>
+      <c r="BQ31" s="19"/>
+      <c r="BR31" s="46">
+        <v>1</v>
+      </c>
+      <c r="BS31" s="19"/>
+      <c r="BT31" s="46">
+        <v>1</v>
+      </c>
+      <c r="BU31" s="19"/>
+      <c r="BV31" s="46">
+        <v>1</v>
+      </c>
+      <c r="BW31" s="19"/>
+    </row>
+    <row r="32" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B32" s="46">
         <v>2</v>
       </c>
@@ -4959,7 +6161,9 @@
       <c r="AJ32" s="46">
         <v>2</v>
       </c>
-      <c r="AK32" s="19"/>
+      <c r="AK32" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AL32" s="46">
         <v>2</v>
       </c>
@@ -4976,8 +6180,64 @@
         <v>2</v>
       </c>
       <c r="AS32" s="19"/>
-    </row>
-    <row r="33" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU32" s="46">
+        <v>2</v>
+      </c>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="46">
+        <v>2</v>
+      </c>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="46">
+        <v>2</v>
+      </c>
+      <c r="AZ32" s="19"/>
+      <c r="BA32" s="46">
+        <v>2</v>
+      </c>
+      <c r="BB32" s="19"/>
+      <c r="BC32" s="46">
+        <v>2</v>
+      </c>
+      <c r="BD32" s="19"/>
+      <c r="BE32" s="46">
+        <v>2</v>
+      </c>
+      <c r="BF32" s="19"/>
+      <c r="BG32" s="46">
+        <v>2</v>
+      </c>
+      <c r="BH32" s="19"/>
+      <c r="BJ32" s="46">
+        <v>2</v>
+      </c>
+      <c r="BK32" s="19"/>
+      <c r="BL32" s="46">
+        <v>2</v>
+      </c>
+      <c r="BM32" s="19"/>
+      <c r="BN32" s="46">
+        <v>2</v>
+      </c>
+      <c r="BO32" s="19"/>
+      <c r="BP32" s="46">
+        <v>2</v>
+      </c>
+      <c r="BQ32" s="19"/>
+      <c r="BR32" s="46">
+        <v>2</v>
+      </c>
+      <c r="BS32" s="19"/>
+      <c r="BT32" s="46">
+        <v>2</v>
+      </c>
+      <c r="BU32" s="19"/>
+      <c r="BV32" s="46">
+        <v>2</v>
+      </c>
+      <c r="BW32" s="19"/>
+    </row>
+    <row r="33" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B33" s="46">
         <v>3</v>
       </c>
@@ -5067,7 +6327,9 @@
       <c r="AJ33" s="46">
         <v>3</v>
       </c>
-      <c r="AK33" s="19"/>
+      <c r="AK33" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AL33" s="46">
         <v>3</v>
       </c>
@@ -5084,8 +6346,64 @@
         <v>3</v>
       </c>
       <c r="AS33" s="19"/>
-    </row>
-    <row r="34" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU33" s="46">
+        <v>3</v>
+      </c>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="46">
+        <v>3</v>
+      </c>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="46">
+        <v>3</v>
+      </c>
+      <c r="AZ33" s="19"/>
+      <c r="BA33" s="46">
+        <v>3</v>
+      </c>
+      <c r="BB33" s="19"/>
+      <c r="BC33" s="46">
+        <v>3</v>
+      </c>
+      <c r="BD33" s="19"/>
+      <c r="BE33" s="46">
+        <v>3</v>
+      </c>
+      <c r="BF33" s="19"/>
+      <c r="BG33" s="46">
+        <v>3</v>
+      </c>
+      <c r="BH33" s="19"/>
+      <c r="BJ33" s="46">
+        <v>3</v>
+      </c>
+      <c r="BK33" s="19"/>
+      <c r="BL33" s="46">
+        <v>3</v>
+      </c>
+      <c r="BM33" s="19"/>
+      <c r="BN33" s="46">
+        <v>3</v>
+      </c>
+      <c r="BO33" s="19"/>
+      <c r="BP33" s="46">
+        <v>3</v>
+      </c>
+      <c r="BQ33" s="19"/>
+      <c r="BR33" s="46">
+        <v>3</v>
+      </c>
+      <c r="BS33" s="19"/>
+      <c r="BT33" s="46">
+        <v>3</v>
+      </c>
+      <c r="BU33" s="19"/>
+      <c r="BV33" s="46">
+        <v>3</v>
+      </c>
+      <c r="BW33" s="19"/>
+    </row>
+    <row r="34" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B34" s="46">
         <v>4</v>
       </c>
@@ -5173,7 +6491,9 @@
       <c r="AJ34" s="46">
         <v>4</v>
       </c>
-      <c r="AK34" s="19"/>
+      <c r="AK34" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AL34" s="46">
         <v>4</v>
       </c>
@@ -5190,8 +6510,64 @@
         <v>4</v>
       </c>
       <c r="AS34" s="19"/>
-    </row>
-    <row r="35" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU34" s="46">
+        <v>4</v>
+      </c>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="46">
+        <v>4</v>
+      </c>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="46">
+        <v>4</v>
+      </c>
+      <c r="AZ34" s="19"/>
+      <c r="BA34" s="46">
+        <v>4</v>
+      </c>
+      <c r="BB34" s="19"/>
+      <c r="BC34" s="46">
+        <v>4</v>
+      </c>
+      <c r="BD34" s="19"/>
+      <c r="BE34" s="46">
+        <v>4</v>
+      </c>
+      <c r="BF34" s="19"/>
+      <c r="BG34" s="46">
+        <v>4</v>
+      </c>
+      <c r="BH34" s="19"/>
+      <c r="BJ34" s="46">
+        <v>4</v>
+      </c>
+      <c r="BK34" s="19"/>
+      <c r="BL34" s="46">
+        <v>4</v>
+      </c>
+      <c r="BM34" s="19"/>
+      <c r="BN34" s="46">
+        <v>4</v>
+      </c>
+      <c r="BO34" s="19"/>
+      <c r="BP34" s="46">
+        <v>4</v>
+      </c>
+      <c r="BQ34" s="19"/>
+      <c r="BR34" s="46">
+        <v>4</v>
+      </c>
+      <c r="BS34" s="19"/>
+      <c r="BT34" s="46">
+        <v>4</v>
+      </c>
+      <c r="BU34" s="19"/>
+      <c r="BV34" s="46">
+        <v>4</v>
+      </c>
+      <c r="BW34" s="19"/>
+    </row>
+    <row r="35" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B35" s="46">
         <v>5</v>
       </c>
@@ -5277,7 +6653,9 @@
       <c r="AJ35" s="46">
         <v>5</v>
       </c>
-      <c r="AK35" s="19"/>
+      <c r="AK35" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AL35" s="46">
         <v>5</v>
       </c>
@@ -5294,8 +6672,64 @@
         <v>5</v>
       </c>
       <c r="AS35" s="19"/>
-    </row>
-    <row r="36" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU35" s="46">
+        <v>5</v>
+      </c>
+      <c r="AV35" s="19"/>
+      <c r="AW35" s="46">
+        <v>5</v>
+      </c>
+      <c r="AX35" s="19"/>
+      <c r="AY35" s="46">
+        <v>5</v>
+      </c>
+      <c r="AZ35" s="19"/>
+      <c r="BA35" s="46">
+        <v>5</v>
+      </c>
+      <c r="BB35" s="19"/>
+      <c r="BC35" s="46">
+        <v>5</v>
+      </c>
+      <c r="BD35" s="19"/>
+      <c r="BE35" s="46">
+        <v>5</v>
+      </c>
+      <c r="BF35" s="19"/>
+      <c r="BG35" s="46">
+        <v>5</v>
+      </c>
+      <c r="BH35" s="19"/>
+      <c r="BJ35" s="46">
+        <v>5</v>
+      </c>
+      <c r="BK35" s="19"/>
+      <c r="BL35" s="46">
+        <v>5</v>
+      </c>
+      <c r="BM35" s="19"/>
+      <c r="BN35" s="46">
+        <v>5</v>
+      </c>
+      <c r="BO35" s="19"/>
+      <c r="BP35" s="46">
+        <v>5</v>
+      </c>
+      <c r="BQ35" s="19"/>
+      <c r="BR35" s="46">
+        <v>5</v>
+      </c>
+      <c r="BS35" s="19"/>
+      <c r="BT35" s="46">
+        <v>5</v>
+      </c>
+      <c r="BU35" s="19"/>
+      <c r="BV35" s="46">
+        <v>5</v>
+      </c>
+      <c r="BW35" s="19"/>
+    </row>
+    <row r="36" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B36" s="46">
         <v>6</v>
       </c>
@@ -5383,7 +6817,9 @@
       <c r="AJ36" s="46">
         <v>6</v>
       </c>
-      <c r="AK36" s="19"/>
+      <c r="AK36" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AL36" s="46">
         <v>6</v>
       </c>
@@ -5400,8 +6836,64 @@
         <v>6</v>
       </c>
       <c r="AS36" s="19"/>
-    </row>
-    <row r="37" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU36" s="46">
+        <v>6</v>
+      </c>
+      <c r="AV36" s="19"/>
+      <c r="AW36" s="46">
+        <v>6</v>
+      </c>
+      <c r="AX36" s="19"/>
+      <c r="AY36" s="46">
+        <v>6</v>
+      </c>
+      <c r="AZ36" s="19"/>
+      <c r="BA36" s="46">
+        <v>6</v>
+      </c>
+      <c r="BB36" s="19"/>
+      <c r="BC36" s="46">
+        <v>6</v>
+      </c>
+      <c r="BD36" s="19"/>
+      <c r="BE36" s="46">
+        <v>6</v>
+      </c>
+      <c r="BF36" s="19"/>
+      <c r="BG36" s="46">
+        <v>6</v>
+      </c>
+      <c r="BH36" s="19"/>
+      <c r="BJ36" s="46">
+        <v>6</v>
+      </c>
+      <c r="BK36" s="19"/>
+      <c r="BL36" s="46">
+        <v>6</v>
+      </c>
+      <c r="BM36" s="19"/>
+      <c r="BN36" s="46">
+        <v>6</v>
+      </c>
+      <c r="BO36" s="19"/>
+      <c r="BP36" s="46">
+        <v>6</v>
+      </c>
+      <c r="BQ36" s="19"/>
+      <c r="BR36" s="46">
+        <v>6</v>
+      </c>
+      <c r="BS36" s="19"/>
+      <c r="BT36" s="46">
+        <v>6</v>
+      </c>
+      <c r="BU36" s="19"/>
+      <c r="BV36" s="46">
+        <v>6</v>
+      </c>
+      <c r="BW36" s="19"/>
+    </row>
+    <row r="37" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B37" s="46">
         <v>7</v>
       </c>
@@ -5489,7 +6981,9 @@
       <c r="AJ37" s="46">
         <v>7</v>
       </c>
-      <c r="AK37" s="19"/>
+      <c r="AK37" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AL37" s="46">
         <v>7</v>
       </c>
@@ -5506,8 +7000,64 @@
         <v>7</v>
       </c>
       <c r="AS37" s="19"/>
-    </row>
-    <row r="38" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU37" s="46">
+        <v>7</v>
+      </c>
+      <c r="AV37" s="19"/>
+      <c r="AW37" s="46">
+        <v>7</v>
+      </c>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="46">
+        <v>7</v>
+      </c>
+      <c r="AZ37" s="19"/>
+      <c r="BA37" s="46">
+        <v>7</v>
+      </c>
+      <c r="BB37" s="19"/>
+      <c r="BC37" s="46">
+        <v>7</v>
+      </c>
+      <c r="BD37" s="19"/>
+      <c r="BE37" s="46">
+        <v>7</v>
+      </c>
+      <c r="BF37" s="19"/>
+      <c r="BG37" s="46">
+        <v>7</v>
+      </c>
+      <c r="BH37" s="19"/>
+      <c r="BJ37" s="46">
+        <v>7</v>
+      </c>
+      <c r="BK37" s="19"/>
+      <c r="BL37" s="46">
+        <v>7</v>
+      </c>
+      <c r="BM37" s="19"/>
+      <c r="BN37" s="46">
+        <v>7</v>
+      </c>
+      <c r="BO37" s="19"/>
+      <c r="BP37" s="46">
+        <v>7</v>
+      </c>
+      <c r="BQ37" s="19"/>
+      <c r="BR37" s="46">
+        <v>7</v>
+      </c>
+      <c r="BS37" s="19"/>
+      <c r="BT37" s="46">
+        <v>7</v>
+      </c>
+      <c r="BU37" s="19"/>
+      <c r="BV37" s="46">
+        <v>7</v>
+      </c>
+      <c r="BW37" s="19"/>
+    </row>
+    <row r="38" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B38" s="46">
         <v>8</v>
       </c>
@@ -5595,7 +7145,9 @@
       <c r="AJ38" s="46">
         <v>8</v>
       </c>
-      <c r="AK38" s="19"/>
+      <c r="AK38" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AL38" s="46">
         <v>8</v>
       </c>
@@ -5612,8 +7164,64 @@
         <v>8</v>
       </c>
       <c r="AS38" s="19"/>
-    </row>
-    <row r="39" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU38" s="46">
+        <v>8</v>
+      </c>
+      <c r="AV38" s="19"/>
+      <c r="AW38" s="46">
+        <v>8</v>
+      </c>
+      <c r="AX38" s="19"/>
+      <c r="AY38" s="46">
+        <v>8</v>
+      </c>
+      <c r="AZ38" s="19"/>
+      <c r="BA38" s="46">
+        <v>8</v>
+      </c>
+      <c r="BB38" s="19"/>
+      <c r="BC38" s="46">
+        <v>8</v>
+      </c>
+      <c r="BD38" s="19"/>
+      <c r="BE38" s="46">
+        <v>8</v>
+      </c>
+      <c r="BF38" s="19"/>
+      <c r="BG38" s="46">
+        <v>8</v>
+      </c>
+      <c r="BH38" s="19"/>
+      <c r="BJ38" s="46">
+        <v>8</v>
+      </c>
+      <c r="BK38" s="19"/>
+      <c r="BL38" s="46">
+        <v>8</v>
+      </c>
+      <c r="BM38" s="19"/>
+      <c r="BN38" s="46">
+        <v>8</v>
+      </c>
+      <c r="BO38" s="19"/>
+      <c r="BP38" s="46">
+        <v>8</v>
+      </c>
+      <c r="BQ38" s="19"/>
+      <c r="BR38" s="46">
+        <v>8</v>
+      </c>
+      <c r="BS38" s="19"/>
+      <c r="BT38" s="46">
+        <v>8</v>
+      </c>
+      <c r="BU38" s="19"/>
+      <c r="BV38" s="46">
+        <v>8</v>
+      </c>
+      <c r="BW38" s="19"/>
+    </row>
+    <row r="39" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B39" s="46">
         <v>9</v>
       </c>
@@ -5693,7 +7301,9 @@
       <c r="AJ39" s="46">
         <v>9</v>
       </c>
-      <c r="AK39" s="19"/>
+      <c r="AK39" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AL39" s="46">
         <v>9</v>
       </c>
@@ -5710,8 +7320,64 @@
         <v>9</v>
       </c>
       <c r="AS39" s="19"/>
-    </row>
-    <row r="40" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU39" s="46">
+        <v>9</v>
+      </c>
+      <c r="AV39" s="19"/>
+      <c r="AW39" s="46">
+        <v>9</v>
+      </c>
+      <c r="AX39" s="19"/>
+      <c r="AY39" s="46">
+        <v>9</v>
+      </c>
+      <c r="AZ39" s="19"/>
+      <c r="BA39" s="46">
+        <v>9</v>
+      </c>
+      <c r="BB39" s="19"/>
+      <c r="BC39" s="46">
+        <v>9</v>
+      </c>
+      <c r="BD39" s="19"/>
+      <c r="BE39" s="46">
+        <v>9</v>
+      </c>
+      <c r="BF39" s="19"/>
+      <c r="BG39" s="46">
+        <v>9</v>
+      </c>
+      <c r="BH39" s="19"/>
+      <c r="BJ39" s="46">
+        <v>9</v>
+      </c>
+      <c r="BK39" s="19"/>
+      <c r="BL39" s="46">
+        <v>9</v>
+      </c>
+      <c r="BM39" s="19"/>
+      <c r="BN39" s="46">
+        <v>9</v>
+      </c>
+      <c r="BO39" s="19"/>
+      <c r="BP39" s="46">
+        <v>9</v>
+      </c>
+      <c r="BQ39" s="19"/>
+      <c r="BR39" s="46">
+        <v>9</v>
+      </c>
+      <c r="BS39" s="19"/>
+      <c r="BT39" s="46">
+        <v>9</v>
+      </c>
+      <c r="BU39" s="19"/>
+      <c r="BV39" s="46">
+        <v>9</v>
+      </c>
+      <c r="BW39" s="19"/>
+    </row>
+    <row r="40" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B40" s="46">
         <v>10</v>
       </c>
@@ -5797,7 +7463,9 @@
       <c r="AJ40" s="46">
         <v>10</v>
       </c>
-      <c r="AK40" s="19"/>
+      <c r="AK40" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="AL40" s="46">
         <v>10</v>
       </c>
@@ -5814,8 +7482,64 @@
         <v>10</v>
       </c>
       <c r="AS40" s="19"/>
-    </row>
-    <row r="41" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU40" s="46">
+        <v>10</v>
+      </c>
+      <c r="AV40" s="19"/>
+      <c r="AW40" s="46">
+        <v>10</v>
+      </c>
+      <c r="AX40" s="19"/>
+      <c r="AY40" s="46">
+        <v>10</v>
+      </c>
+      <c r="AZ40" s="19"/>
+      <c r="BA40" s="46">
+        <v>10</v>
+      </c>
+      <c r="BB40" s="19"/>
+      <c r="BC40" s="46">
+        <v>10</v>
+      </c>
+      <c r="BD40" s="19"/>
+      <c r="BE40" s="46">
+        <v>10</v>
+      </c>
+      <c r="BF40" s="19"/>
+      <c r="BG40" s="46">
+        <v>10</v>
+      </c>
+      <c r="BH40" s="19"/>
+      <c r="BJ40" s="46">
+        <v>10</v>
+      </c>
+      <c r="BK40" s="19"/>
+      <c r="BL40" s="46">
+        <v>10</v>
+      </c>
+      <c r="BM40" s="19"/>
+      <c r="BN40" s="46">
+        <v>10</v>
+      </c>
+      <c r="BO40" s="19"/>
+      <c r="BP40" s="46">
+        <v>10</v>
+      </c>
+      <c r="BQ40" s="19"/>
+      <c r="BR40" s="46">
+        <v>10</v>
+      </c>
+      <c r="BS40" s="19"/>
+      <c r="BT40" s="46">
+        <v>10</v>
+      </c>
+      <c r="BU40" s="19"/>
+      <c r="BV40" s="46">
+        <v>10</v>
+      </c>
+      <c r="BW40" s="19"/>
+    </row>
+    <row r="41" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B41" s="46">
         <v>11</v>
       </c>
@@ -5897,7 +7621,9 @@
       <c r="AJ41" s="46">
         <v>11</v>
       </c>
-      <c r="AK41" s="19"/>
+      <c r="AK41" s="47" t="s">
+        <v>184</v>
+      </c>
       <c r="AL41" s="46">
         <v>11</v>
       </c>
@@ -5914,8 +7640,64 @@
         <v>11</v>
       </c>
       <c r="AS41" s="19"/>
-    </row>
-    <row r="42" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU41" s="46">
+        <v>11</v>
+      </c>
+      <c r="AV41" s="19"/>
+      <c r="AW41" s="46">
+        <v>11</v>
+      </c>
+      <c r="AX41" s="19"/>
+      <c r="AY41" s="46">
+        <v>11</v>
+      </c>
+      <c r="AZ41" s="19"/>
+      <c r="BA41" s="46">
+        <v>11</v>
+      </c>
+      <c r="BB41" s="19"/>
+      <c r="BC41" s="46">
+        <v>11</v>
+      </c>
+      <c r="BD41" s="19"/>
+      <c r="BE41" s="46">
+        <v>11</v>
+      </c>
+      <c r="BF41" s="19"/>
+      <c r="BG41" s="46">
+        <v>11</v>
+      </c>
+      <c r="BH41" s="19"/>
+      <c r="BJ41" s="46">
+        <v>11</v>
+      </c>
+      <c r="BK41" s="19"/>
+      <c r="BL41" s="46">
+        <v>11</v>
+      </c>
+      <c r="BM41" s="19"/>
+      <c r="BN41" s="46">
+        <v>11</v>
+      </c>
+      <c r="BO41" s="19"/>
+      <c r="BP41" s="46">
+        <v>11</v>
+      </c>
+      <c r="BQ41" s="19"/>
+      <c r="BR41" s="46">
+        <v>11</v>
+      </c>
+      <c r="BS41" s="19"/>
+      <c r="BT41" s="46">
+        <v>11</v>
+      </c>
+      <c r="BU41" s="19"/>
+      <c r="BV41" s="46">
+        <v>11</v>
+      </c>
+      <c r="BW41" s="19"/>
+    </row>
+    <row r="42" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B42" s="46">
         <v>12</v>
       </c>
@@ -6018,8 +7800,64 @@
         <v>12</v>
       </c>
       <c r="AS42" s="19"/>
-    </row>
-    <row r="43" spans="2:45" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="AU42" s="46">
+        <v>12</v>
+      </c>
+      <c r="AV42" s="19"/>
+      <c r="AW42" s="46">
+        <v>12</v>
+      </c>
+      <c r="AX42" s="19"/>
+      <c r="AY42" s="46">
+        <v>12</v>
+      </c>
+      <c r="AZ42" s="19"/>
+      <c r="BA42" s="46">
+        <v>12</v>
+      </c>
+      <c r="BB42" s="19"/>
+      <c r="BC42" s="46">
+        <v>12</v>
+      </c>
+      <c r="BD42" s="19"/>
+      <c r="BE42" s="46">
+        <v>12</v>
+      </c>
+      <c r="BF42" s="19"/>
+      <c r="BG42" s="46">
+        <v>12</v>
+      </c>
+      <c r="BH42" s="19"/>
+      <c r="BJ42" s="46">
+        <v>12</v>
+      </c>
+      <c r="BK42" s="19"/>
+      <c r="BL42" s="46">
+        <v>12</v>
+      </c>
+      <c r="BM42" s="19"/>
+      <c r="BN42" s="46">
+        <v>12</v>
+      </c>
+      <c r="BO42" s="19"/>
+      <c r="BP42" s="46">
+        <v>12</v>
+      </c>
+      <c r="BQ42" s="19"/>
+      <c r="BR42" s="46">
+        <v>12</v>
+      </c>
+      <c r="BS42" s="19"/>
+      <c r="BT42" s="46">
+        <v>12</v>
+      </c>
+      <c r="BU42" s="19"/>
+      <c r="BV42" s="46">
+        <v>12</v>
+      </c>
+      <c r="BW42" s="19"/>
+    </row>
+    <row r="43" spans="2:75" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B43" s="46">
         <v>1</v>
       </c>
@@ -6116,8 +7954,64 @@
         <v>1</v>
       </c>
       <c r="AS43" s="19"/>
-    </row>
-    <row r="44" spans="2:45" x14ac:dyDescent="0.3">
+      <c r="AU43" s="46">
+        <v>1</v>
+      </c>
+      <c r="AV43" s="19"/>
+      <c r="AW43" s="46">
+        <v>1</v>
+      </c>
+      <c r="AX43" s="19"/>
+      <c r="AY43" s="46">
+        <v>1</v>
+      </c>
+      <c r="AZ43" s="19"/>
+      <c r="BA43" s="46">
+        <v>1</v>
+      </c>
+      <c r="BB43" s="19"/>
+      <c r="BC43" s="46">
+        <v>1</v>
+      </c>
+      <c r="BD43" s="19"/>
+      <c r="BE43" s="46">
+        <v>1</v>
+      </c>
+      <c r="BF43" s="19"/>
+      <c r="BG43" s="46">
+        <v>1</v>
+      </c>
+      <c r="BH43" s="19"/>
+      <c r="BJ43" s="46">
+        <v>1</v>
+      </c>
+      <c r="BK43" s="19"/>
+      <c r="BL43" s="46">
+        <v>1</v>
+      </c>
+      <c r="BM43" s="19"/>
+      <c r="BN43" s="46">
+        <v>1</v>
+      </c>
+      <c r="BO43" s="19"/>
+      <c r="BP43" s="46">
+        <v>1</v>
+      </c>
+      <c r="BQ43" s="19"/>
+      <c r="BR43" s="46">
+        <v>1</v>
+      </c>
+      <c r="BS43" s="19"/>
+      <c r="BT43" s="46">
+        <v>1</v>
+      </c>
+      <c r="BU43" s="19"/>
+      <c r="BV43" s="46">
+        <v>1</v>
+      </c>
+      <c r="BW43" s="19"/>
+    </row>
+    <row r="44" spans="2:75" x14ac:dyDescent="0.3">
       <c r="Q44" s="46">
         <v>2</v>
       </c>
@@ -6150,8 +8044,32 @@
         <v>2</v>
       </c>
       <c r="AK44" s="19"/>
-    </row>
-    <row r="45" spans="2:45" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="AU44" s="46">
+        <v>2</v>
+      </c>
+      <c r="AV44" s="19"/>
+      <c r="AW44" s="46">
+        <v>2</v>
+      </c>
+      <c r="AX44" s="19"/>
+      <c r="AY44" s="46">
+        <v>2</v>
+      </c>
+      <c r="AZ44" s="19"/>
+      <c r="BJ44" s="46">
+        <v>2</v>
+      </c>
+      <c r="BK44" s="19"/>
+      <c r="BL44" s="46">
+        <v>2</v>
+      </c>
+      <c r="BM44" s="19"/>
+      <c r="BN44" s="46">
+        <v>2</v>
+      </c>
+      <c r="BO44" s="19"/>
+    </row>
+    <row r="45" spans="2:75" ht="21.6" x14ac:dyDescent="0.3">
       <c r="Q45" s="46">
         <v>3</v>
       </c>
@@ -6172,6 +8090,24 @@
         <v>180</v>
       </c>
       <c r="AK45" s="19"/>
+      <c r="AU45" s="46">
+        <v>3</v>
+      </c>
+      <c r="AV45" s="19"/>
+      <c r="AW45" s="46">
+        <v>3</v>
+      </c>
+      <c r="AX45" s="19"/>
+      <c r="AZ45" s="19"/>
+      <c r="BJ45" s="46">
+        <v>3</v>
+      </c>
+      <c r="BK45" s="19"/>
+      <c r="BL45" s="46">
+        <v>3</v>
+      </c>
+      <c r="BM45" s="19"/>
+      <c r="BO45" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{538D73FB-73DD-45E5-AFED-91557584F231}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{128138E5-9E0F-4969-A62A-F03135FFE2EA}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Struct" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="190">
   <si>
     <t>InstanceData</t>
   </si>
@@ -602,6 +602,21 @@
   </si>
   <si>
     <t>GameObject Update 함수 구현</t>
+  </si>
+  <si>
+    <t>Bounding Update 함수 구현</t>
+  </si>
+  <si>
+    <t>Bounding Update 함수 구현 (ECS 개선)</t>
+  </si>
+  <si>
+    <t>물리 로직 ECS 구현</t>
+  </si>
+  <si>
+    <t>World Matrix ECS 구현</t>
+  </si>
+  <si>
+    <t>SyncInstanceIDData, SyncData 로직을 ECS로 이관</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2829DBA9-5371-49D6-92D0-267134EE5124}">
   <dimension ref="B1:R82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
@@ -2891,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE69813-0201-43C0-866C-5D3C128F7149}">
   <dimension ref="A1:BW45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AE1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK41" sqref="AK41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AO12" sqref="AO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
@@ -4016,10 +4031,16 @@
       <c r="AI13" s="19"/>
       <c r="AJ13" s="46"/>
       <c r="AK13" s="19"/>
-      <c r="AL13" s="46"/>
-      <c r="AM13" s="19"/>
+      <c r="AL13" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM13" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="AN13" s="46"/>
-      <c r="AO13" s="19"/>
+      <c r="AO13" s="19" t="s">
+        <v>189</v>
+      </c>
       <c r="AP13" s="46"/>
       <c r="AQ13" s="19"/>
       <c r="AR13" s="46"/>
@@ -4102,8 +4123,12 @@
       <c r="AI14" s="19"/>
       <c r="AJ14" s="46"/>
       <c r="AK14" s="19"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="19"/>
+      <c r="AL14" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM14" s="19" t="s">
+        <v>187</v>
+      </c>
       <c r="AN14" s="46"/>
       <c r="AO14" s="19"/>
       <c r="AP14" s="46"/>
@@ -4182,8 +4207,12 @@
       <c r="AI15" s="19"/>
       <c r="AJ15" s="46"/>
       <c r="AK15" s="19"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="19"/>
+      <c r="AL15" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM15" s="19" t="s">
+        <v>188</v>
+      </c>
       <c r="AN15" s="46"/>
       <c r="AO15" s="19"/>
       <c r="AP15" s="46"/>
@@ -5339,7 +5368,9 @@
       <c r="AL27" s="46">
         <v>9</v>
       </c>
-      <c r="AM27" s="19"/>
+      <c r="AM27" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AN27" s="46">
         <v>9</v>
       </c>
@@ -5503,7 +5534,9 @@
       <c r="AL28" s="46">
         <v>10</v>
       </c>
-      <c r="AM28" s="19"/>
+      <c r="AM28" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AN28" s="46">
         <v>10</v>
       </c>
@@ -5669,7 +5702,9 @@
       <c r="AL29" s="46">
         <v>11</v>
       </c>
-      <c r="AM29" s="19"/>
+      <c r="AM29" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AN29" s="46">
         <v>11</v>
       </c>
@@ -5835,7 +5870,9 @@
       <c r="AL30" s="46">
         <v>12</v>
       </c>
-      <c r="AM30" s="19"/>
+      <c r="AM30" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AN30" s="46">
         <v>12</v>
       </c>
@@ -6001,7 +6038,9 @@
       <c r="AL31" s="46">
         <v>1</v>
       </c>
-      <c r="AM31" s="19"/>
+      <c r="AM31" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AN31" s="46">
         <v>1</v>
       </c>
@@ -6167,7 +6206,9 @@
       <c r="AL32" s="46">
         <v>2</v>
       </c>
-      <c r="AM32" s="19"/>
+      <c r="AM32" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AN32" s="46">
         <v>2</v>
       </c>
@@ -6333,7 +6374,9 @@
       <c r="AL33" s="46">
         <v>3</v>
       </c>
-      <c r="AM33" s="19"/>
+      <c r="AM33" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AN33" s="46">
         <v>3</v>
       </c>
@@ -6497,7 +6540,9 @@
       <c r="AL34" s="46">
         <v>4</v>
       </c>
-      <c r="AM34" s="19"/>
+      <c r="AM34" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AN34" s="46">
         <v>4</v>
       </c>
@@ -6659,7 +6704,9 @@
       <c r="AL35" s="46">
         <v>5</v>
       </c>
-      <c r="AM35" s="19"/>
+      <c r="AM35" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AN35" s="46">
         <v>5</v>
       </c>
@@ -6823,7 +6870,9 @@
       <c r="AL36" s="46">
         <v>6</v>
       </c>
-      <c r="AM36" s="19"/>
+      <c r="AM36" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AN36" s="46">
         <v>6</v>
       </c>
@@ -6987,7 +7036,9 @@
       <c r="AL37" s="46">
         <v>7</v>
       </c>
-      <c r="AM37" s="19"/>
+      <c r="AM37" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AN37" s="46">
         <v>7</v>
       </c>
@@ -7151,7 +7202,9 @@
       <c r="AL38" s="46">
         <v>8</v>
       </c>
-      <c r="AM38" s="19"/>
+      <c r="AM38" s="19" t="s">
+        <v>185</v>
+      </c>
       <c r="AN38" s="46">
         <v>8</v>
       </c>
@@ -7307,7 +7360,9 @@
       <c r="AL39" s="46">
         <v>9</v>
       </c>
-      <c r="AM39" s="19"/>
+      <c r="AM39" s="19" t="s">
+        <v>185</v>
+      </c>
       <c r="AN39" s="46">
         <v>9</v>
       </c>
@@ -7469,7 +7524,9 @@
       <c r="AL40" s="46">
         <v>10</v>
       </c>
-      <c r="AM40" s="19"/>
+      <c r="AM40" s="19" t="s">
+        <v>185</v>
+      </c>
       <c r="AN40" s="46">
         <v>10</v>
       </c>
@@ -7627,7 +7684,9 @@
       <c r="AL41" s="46">
         <v>11</v>
       </c>
-      <c r="AM41" s="19"/>
+      <c r="AM41" s="19" t="s">
+        <v>185</v>
+      </c>
       <c r="AN41" s="46">
         <v>11</v>
       </c>
@@ -7787,7 +7846,9 @@
       <c r="AL42" s="46">
         <v>12</v>
       </c>
-      <c r="AM42" s="19"/>
+      <c r="AM42" s="19" t="s">
+        <v>188</v>
+      </c>
       <c r="AN42" s="46">
         <v>12</v>
       </c>
@@ -7941,7 +8002,9 @@
       <c r="AL43" s="46">
         <v>1</v>
       </c>
-      <c r="AM43" s="19"/>
+      <c r="AM43" s="19" t="s">
+        <v>187</v>
+      </c>
       <c r="AN43" s="46">
         <v>1</v>
       </c>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{128138E5-9E0F-4969-A62A-F03135FFE2EA}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{231069B1-C883-447D-A9EC-5BEEF20D59DA}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="192">
   <si>
     <t>InstanceData</t>
   </si>
@@ -617,6 +617,12 @@
   </si>
   <si>
     <t>SyncInstanceIDData, SyncData 로직을 ECS로 이관</t>
+  </si>
+  <si>
+    <t>스프라이트 아틀라스 제작</t>
+  </si>
+  <si>
+    <t>저장 로직 구현</t>
   </si>
 </sst>
 </file>
@@ -2904,44 +2910,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE69813-0201-43C0-866C-5D3C128F7149}">
-  <dimension ref="A1:BW45"/>
+  <dimension ref="B1:BW45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AO12" sqref="AO12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AH1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AV17" sqref="AV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="42" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="2" style="42" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="25" style="16" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="2.109375" style="42" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="80.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="42" customWidth="1"/>
+    <col min="2" max="2" width="2.109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="25" style="16" customWidth="1"/>
+    <col min="4" max="4" width="2.109375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" style="42" customWidth="1"/>
+    <col min="7" max="7" width="25" style="16" customWidth="1"/>
+    <col min="8" max="8" width="2.109375" style="42" customWidth="1"/>
+    <col min="9" max="9" width="25" style="16" customWidth="1"/>
+    <col min="10" max="10" width="2.109375" style="42" customWidth="1"/>
+    <col min="11" max="11" width="25" style="16" customWidth="1"/>
+    <col min="12" max="12" width="2.109375" style="42" customWidth="1"/>
+    <col min="13" max="13" width="25" style="16" customWidth="1"/>
+    <col min="14" max="14" width="2.109375" style="42" customWidth="1"/>
+    <col min="15" max="15" width="25" style="16" customWidth="1"/>
+    <col min="16" max="16" width="2" style="42" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" style="42" customWidth="1"/>
+    <col min="18" max="18" width="25" style="16" customWidth="1"/>
+    <col min="19" max="19" width="2.109375" style="42" customWidth="1"/>
+    <col min="20" max="20" width="25" style="16" customWidth="1"/>
+    <col min="21" max="21" width="2.109375" style="42" customWidth="1"/>
+    <col min="22" max="22" width="25" style="16" customWidth="1"/>
+    <col min="23" max="23" width="2.109375" style="42" customWidth="1"/>
+    <col min="24" max="24" width="25" style="16" customWidth="1"/>
+    <col min="25" max="25" width="2.109375" style="42" customWidth="1"/>
+    <col min="26" max="26" width="25" style="16" customWidth="1"/>
+    <col min="27" max="27" width="2.109375" style="42" customWidth="1"/>
+    <col min="28" max="28" width="25" style="16" customWidth="1"/>
+    <col min="29" max="29" width="2.109375" style="42" customWidth="1"/>
+    <col min="30" max="30" width="80.33203125" style="16" customWidth="1"/>
     <col min="31" max="31" width="2" style="42" customWidth="1"/>
     <col min="32" max="32" width="2.109375" style="42" customWidth="1"/>
     <col min="33" max="33" width="25" style="16" customWidth="1"/>
@@ -3941,7 +3947,9 @@
       <c r="AR12" s="46"/>
       <c r="AS12" s="19"/>
       <c r="AU12" s="46"/>
-      <c r="AV12" s="19"/>
+      <c r="AV12" s="19" t="s">
+        <v>190</v>
+      </c>
       <c r="AW12" s="46"/>
       <c r="AX12" s="19"/>
       <c r="AY12" s="46"/>
@@ -4046,7 +4054,9 @@
       <c r="AR13" s="46"/>
       <c r="AS13" s="19"/>
       <c r="AU13" s="46"/>
-      <c r="AV13" s="19"/>
+      <c r="AV13" s="19" t="s">
+        <v>183</v>
+      </c>
       <c r="AW13" s="46"/>
       <c r="AX13" s="19"/>
       <c r="AY13" s="46"/>
@@ -4076,7 +4086,7 @@
       <c r="BV13" s="46"/>
       <c r="BW13" s="19"/>
     </row>
-    <row r="14" spans="2:75" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:75" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B14" s="46"/>
       <c r="C14" s="19"/>
       <c r="D14" s="46"/>
@@ -4136,7 +4146,9 @@
       <c r="AR14" s="46"/>
       <c r="AS14" s="19"/>
       <c r="AU14" s="46"/>
-      <c r="AV14" s="19"/>
+      <c r="AV14" s="19" t="s">
+        <v>189</v>
+      </c>
       <c r="AW14" s="46"/>
       <c r="AX14" s="19"/>
       <c r="AY14" s="46"/>
@@ -4220,7 +4232,9 @@
       <c r="AR15" s="46"/>
       <c r="AS15" s="19"/>
       <c r="AU15" s="46"/>
-      <c r="AV15" s="19"/>
+      <c r="AV15" s="19" t="s">
+        <v>182</v>
+      </c>
       <c r="AW15" s="46"/>
       <c r="AX15" s="19"/>
       <c r="AY15" s="46"/>
@@ -4294,7 +4308,9 @@
       <c r="AR16" s="46"/>
       <c r="AS16" s="19"/>
       <c r="AU16" s="46"/>
-      <c r="AV16" s="19"/>
+      <c r="AV16" s="19" t="s">
+        <v>191</v>
+      </c>
       <c r="AW16" s="46"/>
       <c r="AX16" s="19"/>
       <c r="AY16" s="46"/>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{231069B1-C883-447D-A9EC-5BEEF20D59DA}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64FA5BC4-5D5E-4024-9490-B0E14E2E5F12}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="195">
   <si>
     <t>InstanceData</t>
   </si>
@@ -623,6 +623,15 @@
   </si>
   <si>
     <t>저장 로직 구현</t>
+  </si>
+  <si>
+    <t>CSPI 검증</t>
+  </si>
+  <si>
+    <t>데이트</t>
+  </si>
+  <si>
+    <t>아키타입 구현을 위해 Instance 분리</t>
   </si>
 </sst>
 </file>
@@ -2910,59 +2919,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE69813-0201-43C0-866C-5D3C128F7149}">
-  <dimension ref="B1:BW45"/>
+  <dimension ref="A1:BW46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AH1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AV17" sqref="AV17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AT1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AV11" sqref="AV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="42" customWidth="1"/>
-    <col min="2" max="2" width="2.109375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="25" style="16" customWidth="1"/>
-    <col min="4" max="4" width="2.109375" style="42" customWidth="1"/>
-    <col min="5" max="5" width="25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="2.109375" style="42" customWidth="1"/>
-    <col min="7" max="7" width="25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="2.109375" style="42" customWidth="1"/>
-    <col min="9" max="9" width="25" style="16" customWidth="1"/>
-    <col min="10" max="10" width="2.109375" style="42" customWidth="1"/>
-    <col min="11" max="11" width="25" style="16" customWidth="1"/>
-    <col min="12" max="12" width="2.109375" style="42" customWidth="1"/>
-    <col min="13" max="13" width="25" style="16" customWidth="1"/>
-    <col min="14" max="14" width="2.109375" style="42" customWidth="1"/>
-    <col min="15" max="15" width="25" style="16" customWidth="1"/>
-    <col min="16" max="16" width="2" style="42" customWidth="1"/>
-    <col min="17" max="17" width="2.109375" style="42" customWidth="1"/>
-    <col min="18" max="18" width="25" style="16" customWidth="1"/>
-    <col min="19" max="19" width="2.109375" style="42" customWidth="1"/>
-    <col min="20" max="20" width="25" style="16" customWidth="1"/>
-    <col min="21" max="21" width="2.109375" style="42" customWidth="1"/>
-    <col min="22" max="22" width="25" style="16" customWidth="1"/>
-    <col min="23" max="23" width="2.109375" style="42" customWidth="1"/>
-    <col min="24" max="24" width="25" style="16" customWidth="1"/>
-    <col min="25" max="25" width="2.109375" style="42" customWidth="1"/>
-    <col min="26" max="26" width="25" style="16" customWidth="1"/>
-    <col min="27" max="27" width="2.109375" style="42" customWidth="1"/>
-    <col min="28" max="28" width="25" style="16" customWidth="1"/>
-    <col min="29" max="29" width="2.109375" style="42" customWidth="1"/>
-    <col min="30" max="30" width="80.33203125" style="16" customWidth="1"/>
-    <col min="31" max="31" width="2" style="42" customWidth="1"/>
-    <col min="32" max="32" width="2.109375" style="42" customWidth="1"/>
-    <col min="33" max="33" width="25" style="16" customWidth="1"/>
-    <col min="34" max="34" width="2.109375" style="42" customWidth="1"/>
-    <col min="35" max="35" width="25" style="16" customWidth="1"/>
-    <col min="36" max="36" width="2.109375" style="42" customWidth="1"/>
-    <col min="37" max="37" width="25" style="16" customWidth="1"/>
-    <col min="38" max="38" width="2.109375" style="42" customWidth="1"/>
-    <col min="39" max="39" width="25" style="16" customWidth="1"/>
-    <col min="40" max="40" width="2.109375" style="42" customWidth="1"/>
-    <col min="41" max="41" width="25" style="16" customWidth="1"/>
-    <col min="42" max="42" width="2.109375" style="42" customWidth="1"/>
-    <col min="43" max="43" width="25" style="16" customWidth="1"/>
-    <col min="44" max="44" width="2.109375" style="42" customWidth="1"/>
-    <col min="45" max="45" width="25" style="16" customWidth="1"/>
+    <col min="1" max="1" width="2" style="42" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2" style="42" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="80.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="2" style="42" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="25" style="16" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="2.109375" style="42" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="25" style="16" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="2" style="42" customWidth="1"/>
     <col min="47" max="47" width="2.109375" style="42" customWidth="1"/>
     <col min="48" max="48" width="25" style="16" customWidth="1"/>
@@ -4262,7 +4271,7 @@
       <c r="BV15" s="46"/>
       <c r="BW15" s="19"/>
     </row>
-    <row r="16" spans="2:75" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:75" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B16" s="46"/>
       <c r="C16" s="19"/>
       <c r="D16" s="46"/>
@@ -4290,9 +4299,7 @@
       <c r="AA16" s="46"/>
       <c r="AB16" s="19"/>
       <c r="AC16" s="46"/>
-      <c r="AD16" s="19" t="s">
-        <v>169</v>
-      </c>
+      <c r="AD16" s="19"/>
       <c r="AF16" s="46"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="46"/>
@@ -4309,7 +4316,7 @@
       <c r="AS16" s="19"/>
       <c r="AU16" s="46"/>
       <c r="AV16" s="19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AW16" s="46"/>
       <c r="AX16" s="19"/>
@@ -4339,158 +4346,162 @@
       <c r="BW16" s="19"/>
     </row>
     <row r="17" spans="2:75" x14ac:dyDescent="0.3">
-      <c r="B17" s="44"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="18" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="19"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="46"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="46"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="46"/>
+      <c r="AS17" s="19"/>
+      <c r="AU17" s="46"/>
+      <c r="AV17" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW17" s="46"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="46"/>
+      <c r="AZ17" s="19"/>
+      <c r="BA17" s="46"/>
+      <c r="BB17" s="19"/>
+      <c r="BC17" s="46"/>
+      <c r="BD17" s="19"/>
+      <c r="BE17" s="46"/>
+      <c r="BF17" s="19"/>
+      <c r="BG17" s="46"/>
+      <c r="BH17" s="19"/>
+      <c r="BJ17" s="46"/>
+      <c r="BK17" s="19"/>
+      <c r="BL17" s="46"/>
+      <c r="BM17" s="19"/>
+      <c r="BN17" s="46"/>
+      <c r="BO17" s="19"/>
+      <c r="BP17" s="46"/>
+      <c r="BQ17" s="19"/>
+      <c r="BR17" s="46"/>
+      <c r="BS17" s="19"/>
+      <c r="BT17" s="46"/>
+      <c r="BU17" s="19"/>
+      <c r="BV17" s="46"/>
+      <c r="BW17" s="19"/>
+    </row>
+    <row r="18" spans="2:75" x14ac:dyDescent="0.3">
+      <c r="B18" s="44"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="20"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="18" t="s">
+      <c r="J18" s="45"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="20"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="20"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="45"/>
-      <c r="AM17" s="18" t="s">
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="20"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="45"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="20"/>
-      <c r="AU17" s="44"/>
-      <c r="AV17" s="18"/>
-      <c r="AW17" s="45"/>
-      <c r="AX17" s="18"/>
-      <c r="AY17" s="45"/>
-      <c r="AZ17" s="18"/>
-      <c r="BA17" s="45"/>
-      <c r="BB17" s="18" t="s">
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="20"/>
+      <c r="AU18" s="44"/>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="45"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="45"/>
+      <c r="BB18" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="BC17" s="45"/>
-      <c r="BD17" s="18"/>
-      <c r="BE17" s="45"/>
-      <c r="BF17" s="18"/>
-      <c r="BG17" s="45"/>
-      <c r="BH17" s="20"/>
-      <c r="BJ17" s="44"/>
-      <c r="BK17" s="18"/>
-      <c r="BL17" s="45"/>
-      <c r="BM17" s="18"/>
-      <c r="BN17" s="45"/>
-      <c r="BO17" s="18"/>
-      <c r="BP17" s="45"/>
-      <c r="BQ17" s="18" t="s">
+      <c r="BC18" s="45"/>
+      <c r="BD18" s="18"/>
+      <c r="BE18" s="45"/>
+      <c r="BF18" s="18"/>
+      <c r="BG18" s="45"/>
+      <c r="BH18" s="20"/>
+      <c r="BJ18" s="44"/>
+      <c r="BK18" s="18"/>
+      <c r="BL18" s="45"/>
+      <c r="BM18" s="18"/>
+      <c r="BN18" s="45"/>
+      <c r="BO18" s="18"/>
+      <c r="BP18" s="45"/>
+      <c r="BQ18" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="BR17" s="45"/>
-      <c r="BS17" s="18"/>
-      <c r="BT17" s="45"/>
-      <c r="BU17" s="18"/>
-      <c r="BV17" s="45"/>
-      <c r="BW17" s="20"/>
-    </row>
-    <row r="18" spans="2:75" x14ac:dyDescent="0.3">
-      <c r="B18" s="46"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="19"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="19"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="46"/>
-      <c r="AS18" s="19"/>
-      <c r="AU18" s="46"/>
-      <c r="AV18" s="19"/>
-      <c r="AW18" s="46"/>
-      <c r="AX18" s="19"/>
-      <c r="AY18" s="46"/>
-      <c r="AZ18" s="19"/>
-      <c r="BA18" s="46"/>
-      <c r="BB18" s="19"/>
-      <c r="BC18" s="46"/>
-      <c r="BD18" s="19"/>
-      <c r="BE18" s="46"/>
-      <c r="BF18" s="19"/>
-      <c r="BG18" s="46"/>
-      <c r="BH18" s="19"/>
-      <c r="BJ18" s="46"/>
-      <c r="BK18" s="19"/>
-      <c r="BL18" s="46"/>
-      <c r="BM18" s="19"/>
-      <c r="BN18" s="46"/>
-      <c r="BO18" s="19"/>
-      <c r="BP18" s="46"/>
-      <c r="BQ18" s="19"/>
-      <c r="BR18" s="46"/>
-      <c r="BS18" s="19"/>
-      <c r="BT18" s="46"/>
-      <c r="BU18" s="19"/>
-      <c r="BV18" s="46"/>
-      <c r="BW18" s="19"/>
+      <c r="BR18" s="45"/>
+      <c r="BS18" s="18"/>
+      <c r="BT18" s="45"/>
+      <c r="BU18" s="18"/>
+      <c r="BV18" s="45"/>
+      <c r="BW18" s="20"/>
     </row>
     <row r="19" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B19" s="46"/>
@@ -4781,3412 +4792,3596 @@
       <c r="BW22" s="19"/>
     </row>
     <row r="23" spans="2:75" x14ac:dyDescent="0.3">
-      <c r="B23" s="44"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="18" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="19"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="19"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="46"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="46"/>
+      <c r="AS23" s="19"/>
+      <c r="AU23" s="46"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="19"/>
+      <c r="BA23" s="46"/>
+      <c r="BB23" s="19"/>
+      <c r="BC23" s="46"/>
+      <c r="BD23" s="19"/>
+      <c r="BE23" s="46"/>
+      <c r="BF23" s="19"/>
+      <c r="BG23" s="46"/>
+      <c r="BH23" s="19"/>
+      <c r="BJ23" s="46"/>
+      <c r="BK23" s="19"/>
+      <c r="BL23" s="46"/>
+      <c r="BM23" s="19"/>
+      <c r="BN23" s="46"/>
+      <c r="BO23" s="19"/>
+      <c r="BP23" s="46"/>
+      <c r="BQ23" s="19"/>
+      <c r="BR23" s="46"/>
+      <c r="BS23" s="19"/>
+      <c r="BT23" s="46"/>
+      <c r="BU23" s="19"/>
+      <c r="BV23" s="46"/>
+      <c r="BW23" s="19"/>
+    </row>
+    <row r="24" spans="2:75" x14ac:dyDescent="0.3">
+      <c r="B24" s="44"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="45"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="20"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="18" t="s">
+      <c r="J24" s="45"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="20"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="20"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="45"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="18" t="s">
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="20"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="45"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="45"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="18"/>
-      <c r="AP23" s="45"/>
-      <c r="AQ23" s="18"/>
-      <c r="AR23" s="45"/>
-      <c r="AS23" s="20"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="18"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="18"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="18"/>
-      <c r="BA23" s="45"/>
-      <c r="BB23" s="18" t="s">
+      <c r="AN24" s="45"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="45"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="45"/>
+      <c r="AS24" s="20"/>
+      <c r="AU24" s="44"/>
+      <c r="AV24" s="18"/>
+      <c r="AW24" s="45"/>
+      <c r="AX24" s="18"/>
+      <c r="AY24" s="45"/>
+      <c r="AZ24" s="18"/>
+      <c r="BA24" s="45"/>
+      <c r="BB24" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="BC23" s="45"/>
-      <c r="BD23" s="18"/>
-      <c r="BE23" s="45"/>
-      <c r="BF23" s="18"/>
-      <c r="BG23" s="45"/>
-      <c r="BH23" s="20"/>
-      <c r="BJ23" s="44"/>
-      <c r="BK23" s="18"/>
-      <c r="BL23" s="45"/>
-      <c r="BM23" s="18"/>
-      <c r="BN23" s="45"/>
-      <c r="BO23" s="18"/>
-      <c r="BP23" s="45"/>
-      <c r="BQ23" s="18" t="s">
+      <c r="BC24" s="45"/>
+      <c r="BD24" s="18"/>
+      <c r="BE24" s="45"/>
+      <c r="BF24" s="18"/>
+      <c r="BG24" s="45"/>
+      <c r="BH24" s="20"/>
+      <c r="BJ24" s="44"/>
+      <c r="BK24" s="18"/>
+      <c r="BL24" s="45"/>
+      <c r="BM24" s="18"/>
+      <c r="BN24" s="45"/>
+      <c r="BO24" s="18"/>
+      <c r="BP24" s="45"/>
+      <c r="BQ24" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="BR23" s="45"/>
-      <c r="BS23" s="18"/>
-      <c r="BT23" s="45"/>
-      <c r="BU23" s="18"/>
-      <c r="BV23" s="45"/>
-      <c r="BW23" s="20"/>
-    </row>
-    <row r="24" spans="2:75" x14ac:dyDescent="0.3">
-      <c r="B24" s="46">
-        <v>6</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="46">
-        <v>6</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="46">
-        <v>6</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="46">
-        <v>6</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="46">
-        <v>6</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="46">
-        <v>6</v>
-      </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="46">
-        <v>6</v>
-      </c>
-      <c r="O24" s="19"/>
-      <c r="Q24" s="46">
-        <v>6</v>
-      </c>
-      <c r="R24" s="19"/>
-      <c r="S24" s="46">
-        <v>6</v>
-      </c>
-      <c r="T24" s="19"/>
-      <c r="U24" s="46">
-        <v>6</v>
-      </c>
-      <c r="V24" s="19"/>
-      <c r="W24" s="46">
-        <v>6</v>
-      </c>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="46">
-        <v>6</v>
-      </c>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="46">
-        <v>6</v>
-      </c>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="46">
-        <v>6</v>
-      </c>
-      <c r="AD24" s="19"/>
-      <c r="AF24" s="46">
-        <v>6</v>
-      </c>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="46">
-        <v>6</v>
-      </c>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="46">
-        <v>6</v>
-      </c>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="46">
-        <v>6</v>
-      </c>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="46">
-        <v>6</v>
-      </c>
-      <c r="AO24" s="19"/>
-      <c r="AP24" s="46">
-        <v>6</v>
-      </c>
-      <c r="AQ24" s="19"/>
-      <c r="AR24" s="46">
-        <v>6</v>
-      </c>
-      <c r="AS24" s="19"/>
-      <c r="AU24" s="46">
-        <v>6</v>
-      </c>
-      <c r="AV24" s="19"/>
-      <c r="AW24" s="46">
-        <v>6</v>
-      </c>
-      <c r="AX24" s="19"/>
-      <c r="AY24" s="46">
-        <v>6</v>
-      </c>
-      <c r="AZ24" s="19"/>
-      <c r="BA24" s="46">
-        <v>6</v>
-      </c>
-      <c r="BB24" s="19"/>
-      <c r="BC24" s="46">
-        <v>6</v>
-      </c>
-      <c r="BD24" s="19"/>
-      <c r="BE24" s="46">
-        <v>6</v>
-      </c>
-      <c r="BF24" s="19"/>
-      <c r="BG24" s="46">
-        <v>6</v>
-      </c>
-      <c r="BH24" s="19"/>
-      <c r="BJ24" s="46">
-        <v>6</v>
-      </c>
-      <c r="BK24" s="19"/>
-      <c r="BL24" s="46">
-        <v>6</v>
-      </c>
-      <c r="BM24" s="19"/>
-      <c r="BN24" s="46">
-        <v>6</v>
-      </c>
-      <c r="BO24" s="19"/>
-      <c r="BP24" s="46">
-        <v>6</v>
-      </c>
-      <c r="BQ24" s="19"/>
-      <c r="BR24" s="46">
-        <v>6</v>
-      </c>
-      <c r="BS24" s="19"/>
-      <c r="BT24" s="46">
-        <v>6</v>
-      </c>
-      <c r="BU24" s="19"/>
-      <c r="BV24" s="46">
-        <v>6</v>
-      </c>
-      <c r="BW24" s="19"/>
+      <c r="BR24" s="45"/>
+      <c r="BS24" s="18"/>
+      <c r="BT24" s="45"/>
+      <c r="BU24" s="18"/>
+      <c r="BV24" s="45"/>
+      <c r="BW24" s="20"/>
     </row>
     <row r="25" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K25" s="19"/>
       <c r="L25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O25" s="19"/>
       <c r="Q25" s="46">
-        <v>7</v>
-      </c>
-      <c r="R25" s="19" t="s">
-        <v>142</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="R25" s="19"/>
       <c r="S25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T25" s="19"/>
       <c r="U25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V25" s="19"/>
       <c r="W25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X25" s="19"/>
       <c r="Y25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z25" s="19"/>
       <c r="AA25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB25" s="19"/>
       <c r="AC25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD25" s="19"/>
       <c r="AF25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG25" s="19"/>
       <c r="AH25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI25" s="19"/>
       <c r="AJ25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK25" s="19"/>
       <c r="AL25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM25" s="19"/>
       <c r="AN25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO25" s="19"/>
       <c r="AP25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ25" s="19"/>
       <c r="AR25" s="46">
-        <v>7</v>
-      </c>
-      <c r="AS25" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="AS25" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AU25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV25" s="19"/>
       <c r="AW25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX25" s="19"/>
       <c r="AY25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ25" s="19"/>
       <c r="BA25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB25" s="19"/>
       <c r="BC25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD25" s="19"/>
       <c r="BE25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF25" s="19"/>
       <c r="BG25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH25" s="19"/>
       <c r="BJ25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK25" s="19"/>
       <c r="BL25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BM25" s="19"/>
       <c r="BN25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BO25" s="19"/>
       <c r="BP25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BQ25" s="19"/>
       <c r="BR25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BS25" s="19"/>
       <c r="BT25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BU25" s="19"/>
       <c r="BV25" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BW25" s="19"/>
     </row>
     <row r="26" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O26" s="19"/>
       <c r="Q26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R26" s="19" t="s">
         <v>142</v>
       </c>
       <c r="S26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T26" s="19"/>
       <c r="U26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V26" s="19"/>
       <c r="W26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X26" s="19"/>
       <c r="Y26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z26" s="19"/>
       <c r="AA26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB26" s="19"/>
       <c r="AC26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD26" s="19"/>
       <c r="AF26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG26" s="19"/>
       <c r="AH26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI26" s="19"/>
       <c r="AJ26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK26" s="19"/>
       <c r="AL26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM26" s="19"/>
       <c r="AN26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" s="19"/>
       <c r="AP26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ26" s="19"/>
       <c r="AR26" s="46">
-        <v>8</v>
-      </c>
-      <c r="AS26" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="AS26" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AU26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV26" s="19"/>
       <c r="AW26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX26" s="19"/>
       <c r="AY26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ26" s="19"/>
       <c r="BA26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB26" s="19"/>
       <c r="BC26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD26" s="19"/>
       <c r="BE26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF26" s="19"/>
       <c r="BG26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH26" s="19"/>
       <c r="BJ26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK26" s="19"/>
       <c r="BL26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM26" s="19"/>
       <c r="BN26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO26" s="19"/>
       <c r="BP26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ26" s="19"/>
       <c r="BR26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS26" s="19"/>
       <c r="BT26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU26" s="19"/>
       <c r="BV26" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW26" s="19"/>
     </row>
     <row r="27" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M27" s="19"/>
       <c r="N27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O27" s="19"/>
       <c r="Q27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R27" s="19" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="S27" s="46">
-        <v>9</v>
-      </c>
-      <c r="T27" s="19" t="s">
-        <v>146</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="T27" s="19"/>
       <c r="U27" s="46">
-        <v>9</v>
-      </c>
-      <c r="V27" s="19" t="s">
-        <v>148</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="V27" s="19"/>
       <c r="W27" s="46">
-        <v>9</v>
-      </c>
-      <c r="X27" s="19" t="s">
-        <v>156</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="X27" s="19"/>
       <c r="Y27" s="46">
-        <v>9</v>
-      </c>
-      <c r="Z27" s="19" t="s">
-        <v>156</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="Z27" s="19"/>
       <c r="AA27" s="46">
-        <v>9</v>
-      </c>
-      <c r="AB27" s="19" t="s">
-        <v>159</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AB27" s="19"/>
       <c r="AC27" s="46">
-        <v>9</v>
-      </c>
-      <c r="AD27" s="19" t="s">
-        <v>158</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AD27" s="19"/>
       <c r="AF27" s="46">
-        <v>9</v>
-      </c>
-      <c r="AG27" s="19" t="s">
-        <v>171</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AG27" s="19"/>
       <c r="AH27" s="46">
-        <v>9</v>
-      </c>
-      <c r="AI27" s="19" t="s">
-        <v>173</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AI27" s="19"/>
       <c r="AJ27" s="46">
-        <v>9</v>
-      </c>
-      <c r="AK27" s="19" t="s">
-        <v>173</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AK27" s="19"/>
       <c r="AL27" s="46">
-        <v>9</v>
-      </c>
-      <c r="AM27" s="19" t="s">
-        <v>176</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AM27" s="19"/>
       <c r="AN27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO27" s="19"/>
       <c r="AP27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ27" s="19"/>
       <c r="AR27" s="46">
-        <v>9</v>
-      </c>
-      <c r="AS27" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="AS27" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AU27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV27" s="19"/>
       <c r="AW27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX27" s="19"/>
       <c r="AY27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ27" s="19"/>
       <c r="BA27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB27" s="19"/>
       <c r="BC27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD27" s="19"/>
       <c r="BE27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF27" s="19"/>
       <c r="BG27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH27" s="19"/>
       <c r="BJ27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK27" s="19"/>
       <c r="BL27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BM27" s="19"/>
       <c r="BN27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BO27" s="19"/>
       <c r="BP27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BQ27" s="19"/>
       <c r="BR27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS27" s="19"/>
       <c r="BT27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BU27" s="19"/>
       <c r="BV27" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BW27" s="19"/>
     </row>
     <row r="28" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="19"/>
       <c r="H28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K28" s="19"/>
       <c r="L28" s="46">
-        <v>10</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>112</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="M28" s="19"/>
       <c r="N28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O28" s="19"/>
       <c r="Q28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R28" s="19" t="s">
         <v>137</v>
       </c>
       <c r="S28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T28" s="19" t="s">
         <v>146</v>
       </c>
       <c r="U28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V28" s="19" t="s">
         <v>148</v>
       </c>
       <c r="W28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X28" s="19" t="s">
         <v>156</v>
       </c>
       <c r="Y28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z28" s="19" t="s">
         <v>156</v>
       </c>
       <c r="AA28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB28" s="19" t="s">
         <v>159</v>
       </c>
       <c r="AC28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD28" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AF28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG28" s="19" t="s">
         <v>171</v>
       </c>
       <c r="AH28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI28" s="19" t="s">
         <v>173</v>
       </c>
       <c r="AJ28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK28" s="19" t="s">
         <v>173</v>
       </c>
       <c r="AL28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM28" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AN28" s="46">
-        <v>10</v>
-      </c>
-      <c r="AO28" s="19"/>
+        <v>9</v>
+      </c>
+      <c r="AO28" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AP28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ28" s="19"/>
       <c r="AR28" s="46">
-        <v>10</v>
-      </c>
-      <c r="AS28" s="19"/>
+        <v>9</v>
+      </c>
+      <c r="AS28" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AU28" s="46">
-        <v>10</v>
-      </c>
-      <c r="AV28" s="19"/>
+        <v>9</v>
+      </c>
+      <c r="AV28" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AW28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX28" s="19"/>
       <c r="AY28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ28" s="19"/>
       <c r="BA28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB28" s="19"/>
       <c r="BC28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD28" s="19"/>
       <c r="BE28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF28" s="19"/>
       <c r="BG28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BH28" s="19"/>
       <c r="BJ28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK28" s="19"/>
       <c r="BL28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BM28" s="19"/>
       <c r="BN28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BO28" s="19"/>
       <c r="BP28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BQ28" s="19"/>
       <c r="BR28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BS28" s="19"/>
       <c r="BT28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BU28" s="19"/>
       <c r="BV28" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BW28" s="19"/>
     </row>
     <row r="29" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M29" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N29" s="46">
-        <v>11</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>115</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O29" s="19"/>
       <c r="Q29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R29" s="19" t="s">
         <v>137</v>
       </c>
       <c r="S29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T29" s="19" t="s">
         <v>146</v>
       </c>
       <c r="U29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V29" s="19" t="s">
         <v>148</v>
       </c>
       <c r="W29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X29" s="19" t="s">
         <v>156</v>
       </c>
       <c r="Y29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z29" s="19" t="s">
         <v>156</v>
       </c>
       <c r="AA29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB29" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD29" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AF29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG29" s="19" t="s">
         <v>171</v>
       </c>
       <c r="AH29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" s="19" t="s">
         <v>173</v>
       </c>
       <c r="AJ29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK29" s="19" t="s">
         <v>173</v>
       </c>
       <c r="AL29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM29" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AN29" s="46">
-        <v>11</v>
-      </c>
-      <c r="AO29" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="AO29" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AP29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="46">
-        <v>11</v>
-      </c>
-      <c r="AS29" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="AS29" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AU29" s="46">
-        <v>11</v>
-      </c>
-      <c r="AV29" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="AV29" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AW29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX29" s="19"/>
       <c r="AY29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ29" s="19"/>
       <c r="BA29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB29" s="19"/>
       <c r="BC29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD29" s="19"/>
       <c r="BE29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BF29" s="19"/>
       <c r="BG29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BH29" s="19"/>
       <c r="BJ29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK29" s="19"/>
       <c r="BL29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BM29" s="19"/>
       <c r="BN29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BO29" s="19"/>
       <c r="BP29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BQ29" s="19"/>
       <c r="BR29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BS29" s="19"/>
       <c r="BT29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BU29" s="19"/>
       <c r="BV29" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BW29" s="19"/>
     </row>
     <row r="30" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K30" s="19"/>
       <c r="L30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M30" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O30" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30" s="19" t="s">
         <v>137</v>
       </c>
       <c r="S30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T30" s="19" t="s">
         <v>146</v>
       </c>
       <c r="U30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V30" s="19" t="s">
         <v>148</v>
       </c>
       <c r="W30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X30" s="19" t="s">
         <v>156</v>
       </c>
       <c r="Y30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z30" s="19" t="s">
         <v>156</v>
       </c>
       <c r="AA30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB30" s="19" t="s">
         <v>160</v>
       </c>
       <c r="AC30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD30" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AF30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG30" s="19" t="s">
         <v>171</v>
       </c>
       <c r="AH30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI30" s="19" t="s">
         <v>173</v>
       </c>
       <c r="AJ30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK30" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AL30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM30" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AN30" s="46">
-        <v>12</v>
-      </c>
-      <c r="AO30" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="AO30" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AP30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ30" s="19"/>
       <c r="AR30" s="46">
-        <v>12</v>
-      </c>
-      <c r="AS30" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="AS30" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AU30" s="46">
-        <v>12</v>
-      </c>
-      <c r="AV30" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="AV30" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AW30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX30" s="19"/>
       <c r="AY30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ30" s="19"/>
       <c r="BA30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB30" s="19"/>
       <c r="BC30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD30" s="19"/>
       <c r="BE30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BF30" s="19"/>
       <c r="BG30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BH30" s="19"/>
       <c r="BJ30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK30" s="19"/>
       <c r="BL30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BM30" s="19"/>
       <c r="BN30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO30" s="19"/>
       <c r="BP30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BQ30" s="19"/>
       <c r="BR30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BS30" s="19"/>
       <c r="BT30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BU30" s="19"/>
       <c r="BV30" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BW30" s="19"/>
     </row>
     <row r="31" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K31" s="19"/>
       <c r="L31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M31" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R31" s="19" t="s">
         <v>137</v>
       </c>
       <c r="S31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T31" s="19" t="s">
         <v>146</v>
       </c>
       <c r="U31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="V31" s="19" t="s">
         <v>148</v>
       </c>
       <c r="W31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X31" s="19" t="s">
         <v>156</v>
       </c>
       <c r="Y31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Z31" s="19" t="s">
         <v>156</v>
       </c>
       <c r="AA31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AB31" s="19" t="s">
         <v>160</v>
       </c>
       <c r="AC31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AD31" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AF31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AG31" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AI31" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AJ31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AK31" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AL31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AM31" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AN31" s="46">
-        <v>1</v>
-      </c>
-      <c r="AO31" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="AO31" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AP31" s="46">
-        <v>1</v>
-      </c>
-      <c r="AQ31" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="AQ31" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AR31" s="46">
-        <v>1</v>
-      </c>
-      <c r="AS31" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="AS31" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AU31" s="46">
-        <v>1</v>
-      </c>
-      <c r="AV31" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="AV31" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AW31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AX31" s="19"/>
       <c r="AY31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AZ31" s="19"/>
       <c r="BA31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BB31" s="19"/>
       <c r="BC31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BD31" s="19"/>
       <c r="BE31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BF31" s="19"/>
       <c r="BG31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BH31" s="19"/>
       <c r="BJ31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BK31" s="19"/>
       <c r="BL31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BM31" s="19"/>
       <c r="BN31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BO31" s="19"/>
       <c r="BP31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BQ31" s="19"/>
       <c r="BR31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BS31" s="19"/>
       <c r="BT31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BU31" s="19"/>
       <c r="BV31" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BW31" s="19"/>
     </row>
     <row r="32" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" s="19"/>
       <c r="L32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O32" s="19" t="s">
         <v>116</v>
       </c>
       <c r="Q32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R32" s="19" t="s">
         <v>137</v>
       </c>
       <c r="S32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T32" s="19" t="s">
         <v>146</v>
       </c>
       <c r="U32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V32" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X32" s="19" t="s">
         <v>156</v>
       </c>
       <c r="Y32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="19" t="s">
         <v>156</v>
       </c>
       <c r="AA32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="19" t="s">
         <v>160</v>
       </c>
       <c r="AC32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AF32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG32" s="19" t="s">
         <v>172</v>
       </c>
       <c r="AH32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI32" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AJ32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK32" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AL32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM32" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AN32" s="46">
-        <v>2</v>
-      </c>
-      <c r="AO32" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="AO32" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AP32" s="46">
-        <v>2</v>
-      </c>
-      <c r="AQ32" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AR32" s="46">
-        <v>2</v>
-      </c>
-      <c r="AS32" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="AS32" s="19" t="s">
+        <v>193</v>
+      </c>
       <c r="AU32" s="46">
-        <v>2</v>
-      </c>
-      <c r="AV32" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="AV32" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AW32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX32" s="19"/>
       <c r="AY32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ32" s="19"/>
       <c r="BA32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB32" s="19"/>
       <c r="BC32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD32" s="19"/>
       <c r="BE32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF32" s="19"/>
       <c r="BG32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH32" s="19"/>
       <c r="BJ32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK32" s="19"/>
       <c r="BL32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM32" s="19"/>
       <c r="BN32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO32" s="19"/>
       <c r="BP32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ32" s="19"/>
       <c r="BR32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS32" s="19"/>
       <c r="BT32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU32" s="19"/>
       <c r="BV32" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW32" s="19"/>
     </row>
     <row r="33" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="19"/>
       <c r="J33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33" s="19"/>
       <c r="L33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O33" s="19" t="s">
         <v>116</v>
       </c>
       <c r="Q33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R33" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T33" s="19" t="s">
         <v>146</v>
       </c>
       <c r="U33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V33" s="19" t="s">
         <v>149</v>
       </c>
       <c r="W33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X33" s="19" t="s">
         <v>156</v>
       </c>
       <c r="Y33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z33" s="19" t="s">
         <v>156</v>
       </c>
       <c r="AA33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB33" s="19" t="s">
         <v>160</v>
       </c>
       <c r="AC33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD33" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AF33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG33" s="19" t="s">
         <v>172</v>
       </c>
       <c r="AH33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI33" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AJ33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK33" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AL33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM33" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AN33" s="46">
-        <v>3</v>
-      </c>
-      <c r="AO33" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="AO33" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="AP33" s="46">
-        <v>3</v>
-      </c>
-      <c r="AQ33" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="AQ33" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AR33" s="46">
-        <v>3</v>
-      </c>
-      <c r="AS33" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="AS33" s="19" t="s">
+        <v>193</v>
+      </c>
       <c r="AU33" s="46">
-        <v>3</v>
-      </c>
-      <c r="AV33" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="AV33" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AW33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX33" s="19"/>
       <c r="AY33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ33" s="19"/>
       <c r="BA33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB33" s="19"/>
       <c r="BC33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD33" s="19"/>
       <c r="BE33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF33" s="19"/>
       <c r="BG33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH33" s="19"/>
       <c r="BJ33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BK33" s="19"/>
       <c r="BL33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM33" s="19"/>
       <c r="BN33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO33" s="19"/>
       <c r="BP33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BQ33" s="19"/>
       <c r="BR33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BS33" s="19"/>
       <c r="BT33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU33" s="19"/>
       <c r="BV33" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BW33" s="19"/>
     </row>
     <row r="34" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K34" s="19"/>
       <c r="L34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M34" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O34" s="19" t="s">
         <v>116</v>
       </c>
       <c r="Q34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R34" s="19" t="s">
         <v>138</v>
       </c>
       <c r="S34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T34" s="19" t="s">
         <v>146</v>
       </c>
       <c r="U34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V34" s="19" t="s">
         <v>149</v>
       </c>
       <c r="W34" s="46">
-        <v>4</v>
-      </c>
-      <c r="X34" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="X34" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="Y34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z34" s="19" t="s">
         <v>156</v>
       </c>
       <c r="AA34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB34" s="19" t="s">
         <v>160</v>
       </c>
       <c r="AC34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD34" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AF34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG34" s="19" t="s">
         <v>172</v>
       </c>
       <c r="AH34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI34" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AJ34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK34" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AL34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM34" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AN34" s="46">
-        <v>4</v>
-      </c>
-      <c r="AO34" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="AO34" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AP34" s="46">
-        <v>4</v>
-      </c>
-      <c r="AQ34" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="AQ34" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AR34" s="46">
-        <v>4</v>
-      </c>
-      <c r="AS34" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="AS34" s="19" t="s">
+        <v>193</v>
+      </c>
       <c r="AU34" s="46">
-        <v>4</v>
-      </c>
-      <c r="AV34" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="AV34" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AW34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX34" s="19"/>
       <c r="AY34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ34" s="19"/>
       <c r="BA34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB34" s="19"/>
       <c r="BC34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD34" s="19"/>
       <c r="BE34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF34" s="19"/>
       <c r="BG34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH34" s="19"/>
       <c r="BJ34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BK34" s="19"/>
       <c r="BL34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BM34" s="19"/>
       <c r="BN34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO34" s="19"/>
       <c r="BP34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ34" s="19"/>
       <c r="BR34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BS34" s="19"/>
       <c r="BT34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BU34" s="19"/>
       <c r="BV34" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BW34" s="19"/>
     </row>
     <row r="35" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I35" s="19"/>
       <c r="J35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N35" s="46">
-        <v>5</v>
-      </c>
-      <c r="O35" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="Q35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R35" s="19" t="s">
         <v>138</v>
       </c>
       <c r="S35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T35" s="19" t="s">
         <v>146</v>
       </c>
       <c r="U35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" s="19" t="s">
         <v>149</v>
       </c>
       <c r="W35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X35" s="19"/>
       <c r="Y35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z35" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB35" s="19" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="AC35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD35" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AF35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG35" s="19" t="s">
         <v>172</v>
       </c>
       <c r="AH35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI35" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AJ35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK35" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AL35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM35" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AN35" s="46">
-        <v>5</v>
-      </c>
-      <c r="AO35" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="AO35" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AP35" s="46">
-        <v>5</v>
-      </c>
-      <c r="AQ35" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="AQ35" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AR35" s="46">
-        <v>5</v>
-      </c>
-      <c r="AS35" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="AS35" s="19" t="s">
+        <v>193</v>
+      </c>
       <c r="AU35" s="46">
-        <v>5</v>
-      </c>
-      <c r="AV35" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="AV35" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AW35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX35" s="19"/>
       <c r="AY35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ35" s="19"/>
       <c r="BA35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB35" s="19"/>
       <c r="BC35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD35" s="19"/>
       <c r="BE35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF35" s="19"/>
       <c r="BG35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH35" s="19"/>
       <c r="BJ35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK35" s="19"/>
       <c r="BL35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BM35" s="19"/>
       <c r="BN35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO35" s="19"/>
       <c r="BP35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BQ35" s="19"/>
       <c r="BR35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BS35" s="19"/>
       <c r="BT35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BU35" s="19"/>
       <c r="BV35" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW35" s="19"/>
     </row>
     <row r="36" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36" s="19"/>
       <c r="H36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I36" s="19"/>
       <c r="J36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K36" s="19"/>
       <c r="L36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M36" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N36" s="46">
-        <v>6</v>
-      </c>
-      <c r="O36" s="19" t="s">
-        <v>114</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O36" s="19"/>
       <c r="Q36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R36" s="19" t="s">
         <v>138</v>
       </c>
       <c r="S36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T36" s="19" t="s">
         <v>146</v>
       </c>
       <c r="U36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V36" s="19" t="s">
         <v>149</v>
       </c>
       <c r="W36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X36" s="19"/>
       <c r="Y36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z36" s="19" t="s">
         <v>157</v>
       </c>
       <c r="AA36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB36" s="19" t="s">
         <v>112</v>
       </c>
       <c r="AC36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD36" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AF36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG36" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AH36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI36" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AJ36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK36" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AL36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM36" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AN36" s="46">
-        <v>6</v>
-      </c>
-      <c r="AO36" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="AO36" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AP36" s="46">
-        <v>6</v>
-      </c>
-      <c r="AQ36" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="AQ36" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AR36" s="46">
-        <v>6</v>
-      </c>
-      <c r="AS36" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="AS36" s="19" t="s">
+        <v>193</v>
+      </c>
       <c r="AU36" s="46">
-        <v>6</v>
-      </c>
-      <c r="AV36" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="AV36" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AW36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX36" s="19"/>
       <c r="AY36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ36" s="19"/>
       <c r="BA36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB36" s="19"/>
       <c r="BC36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD36" s="19"/>
       <c r="BE36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF36" s="19"/>
       <c r="BG36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH36" s="19"/>
       <c r="BJ36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK36" s="19"/>
       <c r="BL36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BM36" s="19"/>
       <c r="BN36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BO36" s="19"/>
       <c r="BP36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BQ36" s="19"/>
       <c r="BR36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BS36" s="19"/>
       <c r="BT36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BU36" s="19"/>
       <c r="BV36" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BW36" s="19"/>
     </row>
     <row r="37" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G37" s="19"/>
       <c r="H37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K37" s="19"/>
       <c r="L37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M37" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O37" s="19" t="s">
         <v>114</v>
       </c>
       <c r="Q37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R37" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T37" s="19" t="s">
         <v>146</v>
       </c>
       <c r="U37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V37" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X37" s="19"/>
       <c r="Y37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z37" s="19" t="s">
         <v>157</v>
       </c>
       <c r="AA37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB37" s="19" t="s">
         <v>112</v>
       </c>
       <c r="AC37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD37" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AF37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG37" s="19" t="s">
         <v>173</v>
       </c>
       <c r="AH37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI37" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AJ37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK37" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AL37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM37" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AN37" s="46">
-        <v>7</v>
-      </c>
-      <c r="AO37" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="AO37" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AP37" s="46">
-        <v>7</v>
-      </c>
-      <c r="AQ37" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="AQ37" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AR37" s="46">
-        <v>7</v>
-      </c>
-      <c r="AS37" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="AS37" s="19" t="s">
+        <v>193</v>
+      </c>
       <c r="AU37" s="46">
-        <v>7</v>
-      </c>
-      <c r="AV37" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="AV37" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AW37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX37" s="19"/>
       <c r="AY37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ37" s="19"/>
       <c r="BA37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB37" s="19"/>
       <c r="BC37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD37" s="19"/>
       <c r="BE37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF37" s="19"/>
       <c r="BG37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH37" s="19"/>
       <c r="BJ37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK37" s="19"/>
       <c r="BL37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BM37" s="19"/>
       <c r="BN37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BO37" s="19"/>
       <c r="BP37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BQ37" s="19"/>
       <c r="BR37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BS37" s="19"/>
       <c r="BT37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BU37" s="19"/>
       <c r="BV37" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BW37" s="19"/>
     </row>
     <row r="38" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" s="19"/>
       <c r="H38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I38" s="19"/>
       <c r="J38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K38" s="19"/>
       <c r="L38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O38" s="19" t="s">
         <v>114</v>
       </c>
       <c r="Q38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R38" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T38" s="19" t="s">
         <v>146</v>
       </c>
       <c r="U38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V38" s="19" t="s">
         <v>150</v>
       </c>
       <c r="W38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X38" s="19"/>
       <c r="Y38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z38" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB38" s="19" t="s">
         <v>112</v>
       </c>
       <c r="AC38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD38" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AF38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG38" s="19" t="s">
         <v>173</v>
       </c>
       <c r="AH38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI38" s="19" t="s">
         <v>177</v>
       </c>
       <c r="AJ38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK38" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AL38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM38" s="19" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AN38" s="46">
-        <v>8</v>
-      </c>
-      <c r="AO38" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="AO38" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AP38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ38" s="19"/>
       <c r="AR38" s="46">
-        <v>8</v>
-      </c>
-      <c r="AS38" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="AS38" s="19" t="s">
+        <v>193</v>
+      </c>
       <c r="AU38" s="46">
-        <v>8</v>
-      </c>
-      <c r="AV38" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="AV38" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AW38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX38" s="19"/>
       <c r="AY38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ38" s="19"/>
       <c r="BA38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB38" s="19"/>
       <c r="BC38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD38" s="19"/>
       <c r="BE38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF38" s="19"/>
       <c r="BG38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH38" s="19"/>
       <c r="BJ38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK38" s="19"/>
       <c r="BL38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM38" s="19"/>
       <c r="BN38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO38" s="19"/>
       <c r="BP38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ38" s="19"/>
       <c r="BR38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS38" s="19"/>
       <c r="BT38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU38" s="19"/>
       <c r="BV38" s="46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW38" s="19"/>
     </row>
     <row r="39" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39" s="19"/>
       <c r="H39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K39" s="19"/>
       <c r="L39" s="46">
-        <v>9</v>
-      </c>
-      <c r="M39" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="N39" s="46">
-        <v>9</v>
-      </c>
-      <c r="O39" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="O39" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="Q39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R39" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T39" s="19" t="s">
         <v>146</v>
       </c>
       <c r="U39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V39" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X39" s="19"/>
       <c r="Y39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z39" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AA39" s="46">
-        <v>9</v>
-      </c>
-      <c r="AB39" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="AB39" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="AC39" s="46">
-        <v>9</v>
-      </c>
-      <c r="AD39" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="AD39" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="AF39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG39" s="19" t="s">
         <v>173</v>
       </c>
       <c r="AH39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI39" s="19" t="s">
         <v>177</v>
       </c>
       <c r="AJ39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK39" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AL39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM39" s="19" t="s">
         <v>185</v>
       </c>
       <c r="AN39" s="46">
-        <v>9</v>
-      </c>
-      <c r="AO39" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="AO39" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AP39" s="46">
-        <v>9</v>
-      </c>
-      <c r="AQ39" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="AQ39" s="19" t="s">
+        <v>193</v>
+      </c>
       <c r="AR39" s="46">
-        <v>9</v>
-      </c>
-      <c r="AS39" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="AS39" s="19" t="s">
+        <v>193</v>
+      </c>
       <c r="AU39" s="46">
-        <v>9</v>
-      </c>
-      <c r="AV39" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="AV39" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AW39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX39" s="19"/>
       <c r="AY39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ39" s="19"/>
       <c r="BA39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB39" s="19"/>
       <c r="BC39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD39" s="19"/>
       <c r="BE39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF39" s="19"/>
       <c r="BG39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH39" s="19"/>
       <c r="BJ39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK39" s="19"/>
       <c r="BL39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BM39" s="19"/>
       <c r="BN39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BO39" s="19"/>
       <c r="BP39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BQ39" s="19"/>
       <c r="BR39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS39" s="19"/>
       <c r="BT39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BU39" s="19"/>
       <c r="BV39" s="46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BW39" s="19"/>
     </row>
     <row r="40" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" s="19"/>
       <c r="H40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="46">
-        <v>10</v>
-      </c>
-      <c r="M40" s="19" t="s">
-        <v>108</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="M40" s="19"/>
       <c r="N40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O40" s="19"/>
       <c r="Q40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R40" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T40" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V40" s="19" t="s">
         <v>151</v>
       </c>
       <c r="W40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X40" s="19"/>
       <c r="Y40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z40" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AA40" s="46">
-        <v>10</v>
-      </c>
-      <c r="AB40" s="19" t="s">
-        <v>108</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AB40" s="19"/>
       <c r="AC40" s="46">
-        <v>10</v>
-      </c>
-      <c r="AD40" s="19" t="s">
-        <v>166</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AD40" s="19"/>
       <c r="AF40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG40" s="19" t="s">
         <v>173</v>
       </c>
       <c r="AH40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI40" s="19" t="s">
         <v>177</v>
       </c>
       <c r="AJ40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK40" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM40" s="19" t="s">
         <v>185</v>
       </c>
       <c r="AN40" s="46">
-        <v>10</v>
-      </c>
-      <c r="AO40" s="19"/>
+        <v>9</v>
+      </c>
+      <c r="AO40" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AP40" s="46">
-        <v>10</v>
-      </c>
-      <c r="AQ40" s="19"/>
+        <v>9</v>
+      </c>
+      <c r="AQ40" s="19" t="s">
+        <v>193</v>
+      </c>
       <c r="AR40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS40" s="19"/>
       <c r="AU40" s="46">
-        <v>10</v>
-      </c>
-      <c r="AV40" s="19"/>
+        <v>9</v>
+      </c>
+      <c r="AV40" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AW40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX40" s="19"/>
       <c r="AY40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ40" s="19"/>
       <c r="BA40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB40" s="19"/>
       <c r="BC40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD40" s="19"/>
       <c r="BE40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF40" s="19"/>
       <c r="BG40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BH40" s="19"/>
       <c r="BJ40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK40" s="19"/>
       <c r="BL40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BM40" s="19"/>
       <c r="BN40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BO40" s="19"/>
       <c r="BP40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BQ40" s="19"/>
       <c r="BR40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BS40" s="19"/>
       <c r="BT40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BU40" s="19"/>
       <c r="BV40" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BW40" s="19"/>
     </row>
     <row r="41" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="19"/>
       <c r="H41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="46">
-        <v>11</v>
-      </c>
-      <c r="M41" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="N41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O41" s="19"/>
       <c r="Q41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R41" s="19" t="s">
         <v>142</v>
       </c>
       <c r="S41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T41" s="19" t="s">
         <v>147</v>
       </c>
       <c r="U41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V41" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X41" s="19"/>
       <c r="Y41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z41" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AA41" s="46">
-        <v>11</v>
-      </c>
-      <c r="AB41" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="AB41" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="AC41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD41" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG41" s="19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AH41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI41" s="19" t="s">
         <v>177</v>
       </c>
       <c r="AJ41" s="46">
-        <v>11</v>
-      </c>
-      <c r="AK41" s="47" t="s">
-        <v>184</v>
+        <v>10</v>
+      </c>
+      <c r="AK41" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="AL41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM41" s="19" t="s">
         <v>185</v>
       </c>
       <c r="AN41" s="46">
-        <v>11</v>
-      </c>
-      <c r="AO41" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="AO41" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AP41" s="46">
-        <v>11</v>
-      </c>
-      <c r="AQ41" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="AQ41" s="19" t="s">
+        <v>193</v>
+      </c>
       <c r="AR41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS41" s="19"/>
       <c r="AU41" s="46">
-        <v>11</v>
-      </c>
-      <c r="AV41" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="AV41" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="AW41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX41" s="19"/>
       <c r="AY41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ41" s="19"/>
       <c r="BA41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB41" s="19"/>
       <c r="BC41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD41" s="19"/>
       <c r="BE41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BF41" s="19"/>
       <c r="BG41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BH41" s="19"/>
       <c r="BJ41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK41" s="19"/>
       <c r="BL41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BM41" s="19"/>
       <c r="BN41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BO41" s="19"/>
       <c r="BP41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BQ41" s="19"/>
       <c r="BR41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BS41" s="19"/>
       <c r="BT41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BU41" s="19"/>
       <c r="BV41" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BW41" s="19"/>
     </row>
     <row r="42" spans="2:75" x14ac:dyDescent="0.3">
       <c r="B42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" s="19"/>
       <c r="H42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="46">
-        <v>12</v>
-      </c>
-      <c r="M42" s="19" t="s">
-        <v>111</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M42" s="19"/>
       <c r="N42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O42" s="19"/>
       <c r="Q42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R42" s="19" t="s">
         <v>142</v>
       </c>
       <c r="S42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T42" s="19" t="s">
         <v>147</v>
       </c>
       <c r="U42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V42" s="19" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="W42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X42" s="19"/>
       <c r="Y42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z42" s="19" t="s">
         <v>158</v>
       </c>
       <c r="AA42" s="46">
-        <v>12</v>
-      </c>
-      <c r="AB42" s="19" t="s">
-        <v>111</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="AB42" s="19"/>
       <c r="AC42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD42" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG42" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AH42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI42" s="19" t="s">
         <v>177</v>
       </c>
       <c r="AJ42" s="46">
-        <v>12</v>
-      </c>
-      <c r="AK42" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="AK42" s="47" t="s">
+        <v>184</v>
+      </c>
       <c r="AL42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM42" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AN42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO42" s="19"/>
       <c r="AP42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ42" s="19"/>
       <c r="AR42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS42" s="19"/>
       <c r="AU42" s="46">
-        <v>12</v>
-      </c>
-      <c r="AV42" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="AV42" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="AW42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX42" s="19"/>
       <c r="AY42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ42" s="19"/>
       <c r="BA42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB42" s="19"/>
       <c r="BC42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD42" s="19"/>
       <c r="BE42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BF42" s="19"/>
       <c r="BG42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BH42" s="19"/>
       <c r="BJ42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK42" s="19"/>
       <c r="BL42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BM42" s="19"/>
       <c r="BN42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO42" s="19"/>
       <c r="BP42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BQ42" s="19"/>
       <c r="BR42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BS42" s="19"/>
       <c r="BT42" s="46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BU42" s="19"/>
       <c r="BV42" s="46">
+        <v>11</v>
+      </c>
+      <c r="BW42" s="19"/>
+    </row>
+    <row r="43" spans="2:75" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="46">
         <v>12</v>
-      </c>
-      <c r="BW42" s="19"/>
-    </row>
-    <row r="43" spans="2:75" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="B43" s="46">
-        <v>1</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G43" s="19"/>
       <c r="H43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="46">
-        <v>1</v>
-      </c>
-      <c r="M43" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="N43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O43" s="19"/>
       <c r="Q43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R43" s="19" t="s">
         <v>142</v>
       </c>
       <c r="S43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T43" s="19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="U43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="V43" s="19" t="s">
         <v>145</v>
       </c>
       <c r="W43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X43" s="19"/>
       <c r="Y43" s="46">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="Z43" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="AA43" s="46">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="AB43" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="AC43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AD43" s="19" t="s">
         <v>168</v>
       </c>
       <c r="AF43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AG43" s="19" t="s">
         <v>174</v>
       </c>
       <c r="AH43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AI43" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AJ43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AK43" s="19"/>
       <c r="AL43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AM43" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AO43" s="19"/>
       <c r="AP43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AQ43" s="19"/>
       <c r="AR43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AS43" s="19"/>
       <c r="AU43" s="46">
-        <v>1</v>
-      </c>
-      <c r="AV43" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="AV43" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="AW43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AX43" s="19"/>
       <c r="AY43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AZ43" s="19"/>
       <c r="BA43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BB43" s="19"/>
       <c r="BC43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BD43" s="19"/>
       <c r="BE43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BF43" s="19"/>
       <c r="BG43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BH43" s="19"/>
       <c r="BJ43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BK43" s="19"/>
       <c r="BL43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BM43" s="19"/>
       <c r="BN43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BO43" s="19"/>
       <c r="BP43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BQ43" s="19"/>
       <c r="BR43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BS43" s="19"/>
       <c r="BT43" s="46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BU43" s="19"/>
       <c r="BV43" s="46">
+        <v>12</v>
+      </c>
+      <c r="BW43" s="19"/>
+    </row>
+    <row r="44" spans="2:75" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B44" s="46">
         <v>1</v>
       </c>
-      <c r="BW43" s="19"/>
-    </row>
-    <row r="44" spans="2:75" x14ac:dyDescent="0.3">
+      <c r="C44" s="19"/>
+      <c r="D44" s="46">
+        <v>1</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="46">
+        <v>1</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="46">
+        <v>1</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="46">
+        <v>1</v>
+      </c>
+      <c r="K44" s="19"/>
+      <c r="L44" s="46">
+        <v>1</v>
+      </c>
+      <c r="M44" s="19"/>
+      <c r="N44" s="46">
+        <v>1</v>
+      </c>
+      <c r="O44" s="19"/>
       <c r="Q44" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R44" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="S44" s="46">
+        <v>1</v>
+      </c>
+      <c r="T44" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="U44" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V44" s="19" t="s">
         <v>145</v>
       </c>
+      <c r="W44" s="46">
+        <v>1</v>
+      </c>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="46">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="46">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="19"/>
       <c r="AC44" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF44" s="46">
-        <v>2</v>
-      </c>
-      <c r="AG44" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="AG44" s="19" t="s">
+        <v>174</v>
+      </c>
       <c r="AH44" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI44" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AJ44" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK44" s="19"/>
+      <c r="AL44" s="46">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN44" s="46">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="19"/>
+      <c r="AP44" s="46">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="19"/>
+      <c r="AR44" s="46">
+        <v>1</v>
+      </c>
+      <c r="AS44" s="19"/>
       <c r="AU44" s="46">
-        <v>2</v>
-      </c>
-      <c r="AV44" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="AV44" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="AW44" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX44" s="19"/>
       <c r="AY44" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ44" s="19"/>
+      <c r="BA44" s="46">
+        <v>1</v>
+      </c>
+      <c r="BB44" s="19"/>
+      <c r="BC44" s="46">
+        <v>1</v>
+      </c>
+      <c r="BD44" s="19"/>
+      <c r="BE44" s="46">
+        <v>1</v>
+      </c>
+      <c r="BF44" s="19"/>
+      <c r="BG44" s="46">
+        <v>1</v>
+      </c>
+      <c r="BH44" s="19"/>
       <c r="BJ44" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK44" s="19"/>
       <c r="BL44" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM44" s="19"/>
       <c r="BN44" s="46">
+        <v>1</v>
+      </c>
+      <c r="BO44" s="19"/>
+      <c r="BP44" s="46">
+        <v>1</v>
+      </c>
+      <c r="BQ44" s="19"/>
+      <c r="BR44" s="46">
+        <v>1</v>
+      </c>
+      <c r="BS44" s="19"/>
+      <c r="BT44" s="46">
+        <v>1</v>
+      </c>
+      <c r="BU44" s="19"/>
+      <c r="BV44" s="46">
+        <v>1</v>
+      </c>
+      <c r="BW44" s="19"/>
+    </row>
+    <row r="45" spans="2:75" x14ac:dyDescent="0.3">
+      <c r="Q45" s="46">
         <v>2</v>
-      </c>
-      <c r="BO44" s="19"/>
-    </row>
-    <row r="45" spans="2:75" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="Q45" s="46">
-        <v>3</v>
       </c>
       <c r="R45" s="19" t="s">
         <v>144</v>
       </c>
+      <c r="U45" s="46">
+        <v>2</v>
+      </c>
       <c r="V45" s="19" t="s">
         <v>145</v>
       </c>
+      <c r="AC45" s="46">
+        <v>2</v>
+      </c>
+      <c r="AD45" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="AF45" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG45" s="19"/>
       <c r="AH45" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI45" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="AJ45" s="46">
+        <v>2</v>
       </c>
       <c r="AK45" s="19"/>
       <c r="AU45" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV45" s="19"/>
       <c r="AW45" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX45" s="19"/>
+      <c r="AY45" s="46">
+        <v>2</v>
+      </c>
       <c r="AZ45" s="19"/>
       <c r="BJ45" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BK45" s="19"/>
       <c r="BL45" s="46">
+        <v>2</v>
+      </c>
+      <c r="BM45" s="19"/>
+      <c r="BN45" s="46">
+        <v>2</v>
+      </c>
+      <c r="BO45" s="19"/>
+    </row>
+    <row r="46" spans="2:75" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="Q46" s="46">
         <v>3</v>
       </c>
-      <c r="BM45" s="19"/>
-      <c r="BO45" s="19"/>
+      <c r="R46" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="V46" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF46" s="46">
+        <v>3</v>
+      </c>
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="46">
+        <v>3</v>
+      </c>
+      <c r="AI46" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK46" s="19"/>
+      <c r="AU46" s="46">
+        <v>3</v>
+      </c>
+      <c r="AV46" s="19"/>
+      <c r="AW46" s="46">
+        <v>3</v>
+      </c>
+      <c r="AX46" s="19"/>
+      <c r="AZ46" s="19"/>
+      <c r="BJ46" s="46">
+        <v>3</v>
+      </c>
+      <c r="BK46" s="19"/>
+      <c r="BL46" s="46">
+        <v>3</v>
+      </c>
+      <c r="BM46" s="19"/>
+      <c r="BO46" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64FA5BC4-5D5E-4024-9490-B0E14E2E5F12}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4282E5E1-803E-44CD-8C8A-2B0A1D5D8F2B}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="199">
   <si>
     <t>InstanceData</t>
   </si>
@@ -632,6 +632,18 @@
   </si>
   <si>
     <t>아키타입 구현을 위해 Instance 분리</t>
+  </si>
+  <si>
+    <t>아키타입 구현</t>
+  </si>
+  <si>
+    <t>아키타입 구현 완료!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>응용</t>
+  </si>
+  <si>
+    <t>JSON 연동 파일 저장 구현</t>
   </si>
 </sst>
 </file>
@@ -2922,7 +2934,7 @@
   <dimension ref="A1:BW46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AT1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AV11" sqref="AV11"/>
+      <selection activeCell="AY18" sqref="AY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
@@ -3960,8 +3972,13 @@
         <v>190</v>
       </c>
       <c r="AW12" s="46"/>
-      <c r="AX12" s="19"/>
+      <c r="AX12" s="19" t="s">
+        <v>190</v>
+      </c>
       <c r="AY12" s="46"/>
+      <c r="AZ12" s="19" t="s">
+        <v>190</v>
+      </c>
       <c r="BA12" s="46"/>
       <c r="BB12" s="19"/>
       <c r="BC12" s="46"/>
@@ -4067,9 +4084,13 @@
         <v>183</v>
       </c>
       <c r="AW13" s="46"/>
-      <c r="AX13" s="19"/>
+      <c r="AX13" s="19" t="s">
+        <v>183</v>
+      </c>
       <c r="AY13" s="46"/>
-      <c r="AZ13" s="19"/>
+      <c r="AZ13" s="19" t="s">
+        <v>183</v>
+      </c>
       <c r="BA13" s="46"/>
       <c r="BB13" s="19"/>
       <c r="BC13" s="46"/>
@@ -4159,9 +4180,13 @@
         <v>189</v>
       </c>
       <c r="AW14" s="46"/>
-      <c r="AX14" s="19"/>
+      <c r="AX14" s="19" t="s">
+        <v>189</v>
+      </c>
       <c r="AY14" s="46"/>
-      <c r="AZ14" s="19"/>
+      <c r="AZ14" s="19" t="s">
+        <v>189</v>
+      </c>
       <c r="BA14" s="46"/>
       <c r="BB14" s="19"/>
       <c r="BC14" s="46"/>
@@ -4245,9 +4270,13 @@
         <v>182</v>
       </c>
       <c r="AW15" s="46"/>
-      <c r="AX15" s="19"/>
+      <c r="AX15" s="19" t="s">
+        <v>182</v>
+      </c>
       <c r="AY15" s="46"/>
-      <c r="AZ15" s="19"/>
+      <c r="AZ15" s="19" t="s">
+        <v>182</v>
+      </c>
       <c r="BA15" s="46"/>
       <c r="BB15" s="19"/>
       <c r="BC15" s="46"/>
@@ -4319,9 +4348,15 @@
         <v>194</v>
       </c>
       <c r="AW16" s="46"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="46"/>
-      <c r="AZ16" s="19"/>
+      <c r="AX16" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY16" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ16" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="BA16" s="46"/>
       <c r="BB16" s="19"/>
       <c r="BC16" s="46"/>
@@ -4395,9 +4430,15 @@
         <v>191</v>
       </c>
       <c r="AW17" s="46"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="46"/>
-      <c r="AZ17" s="19"/>
+      <c r="AX17" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AY17" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ17" s="19" t="s">
+        <v>191</v>
+      </c>
       <c r="BA17" s="46"/>
       <c r="BB17" s="19"/>
       <c r="BC17" s="46"/>
@@ -5501,11 +5542,15 @@
       <c r="AW28" s="46">
         <v>9</v>
       </c>
-      <c r="AX28" s="19"/>
+      <c r="AX28" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AY28" s="46">
         <v>9</v>
       </c>
-      <c r="AZ28" s="19"/>
+      <c r="AZ28" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BA28" s="46">
         <v>9</v>
       </c>
@@ -5673,11 +5718,15 @@
       <c r="AW29" s="46">
         <v>10</v>
       </c>
-      <c r="AX29" s="19"/>
+      <c r="AX29" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AY29" s="46">
         <v>10</v>
       </c>
-      <c r="AZ29" s="19"/>
+      <c r="AZ29" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BA29" s="46">
         <v>10</v>
       </c>
@@ -5847,11 +5896,15 @@
       <c r="AW30" s="46">
         <v>11</v>
       </c>
-      <c r="AX30" s="19"/>
+      <c r="AX30" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AY30" s="46">
         <v>11</v>
       </c>
-      <c r="AZ30" s="19"/>
+      <c r="AZ30" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BA30" s="46">
         <v>11</v>
       </c>
@@ -6023,11 +6076,15 @@
       <c r="AW31" s="46">
         <v>12</v>
       </c>
-      <c r="AX31" s="19"/>
+      <c r="AX31" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AY31" s="46">
         <v>12</v>
       </c>
-      <c r="AZ31" s="19"/>
+      <c r="AZ31" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BA31" s="46">
         <v>12</v>
       </c>
@@ -6199,11 +6256,15 @@
       <c r="AW32" s="46">
         <v>1</v>
       </c>
-      <c r="AX32" s="19"/>
+      <c r="AX32" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AY32" s="46">
         <v>1</v>
       </c>
-      <c r="AZ32" s="19"/>
+      <c r="AZ32" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BA32" s="46">
         <v>1</v>
       </c>
@@ -6375,11 +6436,15 @@
       <c r="AW33" s="46">
         <v>2</v>
       </c>
-      <c r="AX33" s="19"/>
+      <c r="AX33" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AY33" s="46">
         <v>2</v>
       </c>
-      <c r="AZ33" s="19"/>
+      <c r="AZ33" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BA33" s="46">
         <v>2</v>
       </c>
@@ -6551,11 +6616,15 @@
       <c r="AW34" s="46">
         <v>3</v>
       </c>
-      <c r="AX34" s="19"/>
+      <c r="AX34" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AY34" s="46">
         <v>3</v>
       </c>
-      <c r="AZ34" s="19"/>
+      <c r="AZ34" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BA34" s="46">
         <v>3</v>
       </c>
@@ -6725,11 +6794,15 @@
       <c r="AW35" s="46">
         <v>4</v>
       </c>
-      <c r="AX35" s="19"/>
+      <c r="AX35" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AY35" s="46">
         <v>4</v>
       </c>
-      <c r="AZ35" s="19"/>
+      <c r="AZ35" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BA35" s="46">
         <v>4</v>
       </c>
@@ -6897,11 +6970,15 @@
       <c r="AW36" s="46">
         <v>5</v>
       </c>
-      <c r="AX36" s="19"/>
+      <c r="AX36" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AY36" s="46">
         <v>5</v>
       </c>
-      <c r="AZ36" s="19"/>
+      <c r="AZ36" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BA36" s="46">
         <v>5</v>
       </c>
@@ -7071,11 +7148,15 @@
       <c r="AW37" s="46">
         <v>6</v>
       </c>
-      <c r="AX37" s="19"/>
+      <c r="AX37" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AY37" s="46">
         <v>6</v>
       </c>
-      <c r="AZ37" s="19"/>
+      <c r="AZ37" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BA37" s="46">
         <v>6</v>
       </c>
@@ -7243,11 +7324,15 @@
       <c r="AW38" s="46">
         <v>7</v>
       </c>
-      <c r="AX38" s="19"/>
+      <c r="AX38" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AY38" s="46">
         <v>7</v>
       </c>
-      <c r="AZ38" s="19"/>
+      <c r="AZ38" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BA38" s="46">
         <v>7</v>
       </c>
@@ -7417,11 +7502,15 @@
       <c r="AW39" s="46">
         <v>8</v>
       </c>
-      <c r="AX39" s="19"/>
+      <c r="AX39" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="AY39" s="46">
         <v>8</v>
       </c>
-      <c r="AZ39" s="19"/>
+      <c r="AZ39" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BA39" s="46">
         <v>8</v>
       </c>
@@ -7581,11 +7670,15 @@
       <c r="AW40" s="46">
         <v>9</v>
       </c>
-      <c r="AX40" s="19"/>
+      <c r="AX40" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="AY40" s="46">
         <v>9</v>
       </c>
-      <c r="AZ40" s="19"/>
+      <c r="AZ40" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="BA40" s="46">
         <v>9</v>
       </c>
@@ -7751,11 +7844,15 @@
       <c r="AW41" s="46">
         <v>10</v>
       </c>
-      <c r="AX41" s="19"/>
+      <c r="AX41" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="AY41" s="46">
         <v>10</v>
       </c>
-      <c r="AZ41" s="19"/>
+      <c r="AZ41" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="BA41" s="46">
         <v>10</v>
       </c>
@@ -7913,11 +8010,15 @@
       <c r="AW42" s="46">
         <v>11</v>
       </c>
-      <c r="AX42" s="19"/>
+      <c r="AX42" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="AY42" s="46">
         <v>11</v>
       </c>
-      <c r="AZ42" s="19"/>
+      <c r="AZ42" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="BA42" s="46">
         <v>11</v>
       </c>
@@ -8077,11 +8178,15 @@
       <c r="AW43" s="46">
         <v>12</v>
       </c>
-      <c r="AX43" s="19"/>
+      <c r="AX43" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="AY43" s="46">
         <v>12</v>
       </c>
-      <c r="AZ43" s="19"/>
+      <c r="AZ43" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="BA43" s="46">
         <v>12</v>
       </c>
@@ -8235,11 +8340,15 @@
       <c r="AW44" s="46">
         <v>1</v>
       </c>
-      <c r="AX44" s="19"/>
+      <c r="AX44" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="AY44" s="46">
         <v>1</v>
       </c>
-      <c r="AZ44" s="19"/>
+      <c r="AZ44" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="BA44" s="46">
         <v>1</v>
       </c>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4282E5E1-803E-44CD-8C8A-2B0A1D5D8F2B}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C94C5E56-D442-4127-93AC-52A5DDCDCF43}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
+    <workbookView xWindow="46104" yWindow="0" windowWidth="46056" windowHeight="25320" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Struct" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="200">
   <si>
     <t>InstanceData</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t>JSON 연동 파일 저장 구현</t>
+  </si>
+  <si>
+    <t>저장 로직 개선</t>
   </si>
 </sst>
 </file>
@@ -2934,7 +2937,7 @@
   <dimension ref="A1:BW46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AT1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AY18" sqref="AY18"/>
+      <selection activeCell="BA13" sqref="BA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
@@ -3979,8 +3982,12 @@
       <c r="AZ12" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="BA12" s="46"/>
-      <c r="BB12" s="19"/>
+      <c r="BA12" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB12" s="19" t="s">
+        <v>199</v>
+      </c>
       <c r="BC12" s="46"/>
       <c r="BD12" s="19"/>
       <c r="BE12" s="46"/>
@@ -4092,7 +4099,9 @@
         <v>183</v>
       </c>
       <c r="BA13" s="46"/>
-      <c r="BB13" s="19"/>
+      <c r="BB13" s="19" t="s">
+        <v>183</v>
+      </c>
       <c r="BC13" s="46"/>
       <c r="BD13" s="19"/>
       <c r="BE13" s="46"/>
@@ -4188,7 +4197,9 @@
         <v>189</v>
       </c>
       <c r="BA14" s="46"/>
-      <c r="BB14" s="19"/>
+      <c r="BB14" s="19" t="s">
+        <v>190</v>
+      </c>
       <c r="BC14" s="46"/>
       <c r="BD14" s="19"/>
       <c r="BE14" s="46"/>
@@ -5554,7 +5565,9 @@
       <c r="BA28" s="46">
         <v>9</v>
       </c>
-      <c r="BB28" s="19"/>
+      <c r="BB28" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BC28" s="46">
         <v>9</v>
       </c>
@@ -5730,7 +5743,9 @@
       <c r="BA29" s="46">
         <v>10</v>
       </c>
-      <c r="BB29" s="19"/>
+      <c r="BB29" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BC29" s="46">
         <v>10</v>
       </c>
@@ -5908,7 +5923,9 @@
       <c r="BA30" s="46">
         <v>11</v>
       </c>
-      <c r="BB30" s="19"/>
+      <c r="BB30" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BC30" s="46">
         <v>11</v>
       </c>
@@ -6088,7 +6105,9 @@
       <c r="BA31" s="46">
         <v>12</v>
       </c>
-      <c r="BB31" s="19"/>
+      <c r="BB31" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BC31" s="46">
         <v>12</v>
       </c>
@@ -6268,7 +6287,9 @@
       <c r="BA32" s="46">
         <v>1</v>
       </c>
-      <c r="BB32" s="19"/>
+      <c r="BB32" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BC32" s="46">
         <v>1</v>
       </c>
@@ -6448,7 +6469,9 @@
       <c r="BA33" s="46">
         <v>2</v>
       </c>
-      <c r="BB33" s="19"/>
+      <c r="BB33" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BC33" s="46">
         <v>2</v>
       </c>
@@ -6628,7 +6651,9 @@
       <c r="BA34" s="46">
         <v>3</v>
       </c>
-      <c r="BB34" s="19"/>
+      <c r="BB34" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BC34" s="46">
         <v>3</v>
       </c>
@@ -6806,7 +6831,9 @@
       <c r="BA35" s="46">
         <v>4</v>
       </c>
-      <c r="BB35" s="19"/>
+      <c r="BB35" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BC35" s="46">
         <v>4</v>
       </c>
@@ -6982,7 +7009,9 @@
       <c r="BA36" s="46">
         <v>5</v>
       </c>
-      <c r="BB36" s="19"/>
+      <c r="BB36" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BC36" s="46">
         <v>5</v>
       </c>
@@ -7160,7 +7189,9 @@
       <c r="BA37" s="46">
         <v>6</v>
       </c>
-      <c r="BB37" s="19"/>
+      <c r="BB37" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="BC37" s="46">
         <v>6</v>
       </c>
@@ -7336,7 +7367,9 @@
       <c r="BA38" s="46">
         <v>7</v>
       </c>
-      <c r="BB38" s="19"/>
+      <c r="BB38" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="BC38" s="46">
         <v>7</v>
       </c>
@@ -7514,7 +7547,9 @@
       <c r="BA39" s="46">
         <v>8</v>
       </c>
-      <c r="BB39" s="19"/>
+      <c r="BB39" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="BC39" s="46">
         <v>8</v>
       </c>

--- a/Doc/데이터 정리.xlsx
+++ b/Doc/데이터 정리.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1574e86df6b37cf/Kyun/01_PROJECT/26_DirectX12/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C94C5E56-D442-4127-93AC-52A5DDCDCF43}"/>
+  <xr:revisionPtr revIDLastSave="385" documentId="13_ncr:1_{C86A9A51-E514-413A-AC42-586636D63F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20570902-62C9-49C3-BD25-4CD20B0A598D}"/>
   <bookViews>
-    <workbookView xWindow="46104" yWindow="0" windowWidth="46056" windowHeight="25320" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14532" windowHeight="25320" activeTab="2" xr2:uid="{42312EC7-06E0-49F0-84AA-5D15BB2763A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Struct" sheetId="1" r:id="rId1"/>
     <sheet name="Function" sheetId="2" r:id="rId2"/>
-    <sheet name="일정" sheetId="4" r:id="rId3"/>
+    <sheet name="System" sheetId="6" r:id="rId3"/>
+    <sheet name="일정" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="257">
   <si>
     <t>InstanceData</t>
   </si>
@@ -647,6 +648,179 @@
   </si>
   <si>
     <t>저장 로직 개선</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>FMODAudioSystem</t>
+  </si>
+  <si>
+    <t>FMODAudioComponent</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>bool loop;</t>
+  </si>
+  <si>
+    <t>float volume;</t>
+  </si>
+  <si>
+    <t>AudioHandle (size_t)</t>
+  </si>
+  <si>
+    <t>PhysicsSystem</t>
+  </si>
+  <si>
+    <t>TransformComponent</t>
+  </si>
+  <si>
+    <t>float4</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>RotationQuat</t>
+  </si>
+  <si>
+    <t>RigidBodyComponent</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>DiffPosition</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>AngularVelocity</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Torque</t>
+  </si>
+  <si>
+    <t>Acceleration</t>
+  </si>
+  <si>
+    <t>AngularAcceleration</t>
+  </si>
+  <si>
+    <t>UseGravity</t>
+  </si>
+  <si>
+    <t>IsKinematic</t>
+  </si>
+  <si>
+    <t>GravityComponent</t>
+  </si>
+  <si>
+    <t>Audio 출력 관리</t>
+  </si>
+  <si>
+    <t>물체 이동 관리</t>
+  </si>
+  <si>
+    <t>LightSystem</t>
+  </si>
+  <si>
+    <t>DirectX::SimpleMath::Vector3</t>
+  </si>
+  <si>
+    <t>LightComponent</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>FalloffStart</t>
+  </si>
+  <si>
+    <t>FalloffEnd</t>
+  </si>
+  <si>
+    <t>SpotPower</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>eLightType</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>haloRadius</t>
+  </si>
+  <si>
+    <t>haloStrength</t>
+  </si>
+  <si>
+    <t>DX12_BoundingSystem</t>
+  </si>
+  <si>
+    <t>DX12_BoundingComponent</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Sphere</t>
+  </si>
+  <si>
+    <t>BoundingVolumeUpdateSystem</t>
+  </si>
+  <si>
+    <t>Base Data</t>
+  </si>
+  <si>
+    <t>Instance 별 데이터</t>
+  </si>
+  <si>
+    <t>PlayerControlSystem</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+  </si>
+  <si>
+    <t>PlayerControlComponent</t>
+  </si>
+  <si>
+    <t>RenderDataSyncSystem</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Final Update</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>RigidBody 정보 업데이트</t>
+  </si>
+  <si>
+    <t>RigidBody 정보에 따른 Transform 정보 업데이트
++
+업데이트 발생 시 Dirty Flag 제어</t>
   </si>
 </sst>
 </file>
@@ -657,7 +831,7 @@
     <numFmt numFmtId="164" formatCode="ddd\ \ d"/>
     <numFmt numFmtId="165" formatCode="m/d\ \[ddd\]"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,6 +858,24 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Noto Sans KR Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans KR Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Sans KR Black"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -718,7 +910,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1001,11 +1193,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1123,6 +1352,75 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1460,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2829DBA9-5371-49D6-92D0-267134EE5124}">
   <dimension ref="B1:R82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2319,7 +2617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA21CF0-8236-4A40-BA73-8D682A484C77}">
   <dimension ref="B1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2933,10 +3231,1516 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D5F00D-32C1-46CE-A27E-DD70C762CAB5}">
+  <dimension ref="B1:S114"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36:F56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="0.88671875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="48" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" style="48" customWidth="1"/>
+    <col min="6" max="7" width="16" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="19" width="9.21875" style="48" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" s="48" customFormat="1" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+    </row>
+    <row r="6" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+    </row>
+    <row r="8" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+    </row>
+    <row r="9" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+    </row>
+    <row r="10" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+    </row>
+    <row r="11" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+    </row>
+    <row r="13" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+    </row>
+    <row r="14" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="57"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="57"/>
+      <c r="C15" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+    </row>
+    <row r="16" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+    </row>
+    <row r="18" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+    </row>
+    <row r="19" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+    </row>
+    <row r="20" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+    </row>
+    <row r="21" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+    </row>
+    <row r="22" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+    </row>
+    <row r="23" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+    </row>
+    <row r="24" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="57"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+    </row>
+    <row r="25" spans="2:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="61"/>
+      <c r="C25" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+    </row>
+    <row r="26" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+    </row>
+    <row r="27" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+    </row>
+    <row r="28" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+    </row>
+    <row r="29" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+    </row>
+    <row r="30" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+    </row>
+    <row r="31" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+    </row>
+    <row r="32" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+    </row>
+    <row r="33" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+    </row>
+    <row r="34" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+    </row>
+    <row r="35" spans="2:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="61"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+    </row>
+    <row r="36" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+    </row>
+    <row r="37" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+    </row>
+    <row r="39" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+    </row>
+    <row r="40" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="57"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+    </row>
+    <row r="41" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="57"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+    </row>
+    <row r="42" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+    </row>
+    <row r="43" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+    </row>
+    <row r="44" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="57"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+    </row>
+    <row r="45" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="57"/>
+      <c r="C45" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+    </row>
+    <row r="46" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="57"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+    </row>
+    <row r="47" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+    </row>
+    <row r="48" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="57"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+    </row>
+    <row r="49" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+    </row>
+    <row r="50" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="57"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+    </row>
+    <row r="51" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="57"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+    </row>
+    <row r="52" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="57"/>
+      <c r="C52" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+    </row>
+    <row r="53" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="57"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+    </row>
+    <row r="54" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="57"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+    </row>
+    <row r="55" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="57"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+    </row>
+    <row r="56" spans="2:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="61"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+    </row>
+    <row r="57" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+    </row>
+    <row r="58" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="57"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+    </row>
+    <row r="59" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="57"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+    </row>
+    <row r="60" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="57"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+    </row>
+    <row r="61" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="57"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+    </row>
+    <row r="62" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="57"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+    </row>
+    <row r="63" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="57"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+    </row>
+    <row r="64" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="57"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+    </row>
+    <row r="65" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="57"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+    </row>
+    <row r="66" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="57"/>
+      <c r="C66" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+    </row>
+    <row r="67" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="57"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+    </row>
+    <row r="68" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="57"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+    </row>
+    <row r="69" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="57"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+    </row>
+    <row r="70" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="57"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+    </row>
+    <row r="71" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="57"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="G71" s="69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="57"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="G72" s="69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="57"/>
+      <c r="C73" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="F73" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="G73" s="69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="61"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="F74" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="G74" s="70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="G75" s="68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="57"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+    </row>
+    <row r="77" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="57"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+    </row>
+    <row r="78" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="57"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F78" s="69"/>
+      <c r="G78" s="69"/>
+    </row>
+    <row r="79" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="57"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
+    </row>
+    <row r="80" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="57"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+    </row>
+    <row r="81" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="57"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F81" s="69"/>
+      <c r="G81" s="69"/>
+    </row>
+    <row r="82" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="57"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E82" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+    </row>
+    <row r="83" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="57"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+    </row>
+    <row r="84" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="57"/>
+      <c r="C84" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+    </row>
+    <row r="85" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="57"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="F85" s="69"/>
+      <c r="G85" s="69"/>
+    </row>
+    <row r="86" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="57"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="F86" s="69"/>
+      <c r="G86" s="69"/>
+    </row>
+    <row r="87" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="57"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="F87" s="69"/>
+      <c r="G87" s="69"/>
+    </row>
+    <row r="88" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="57"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
+    </row>
+    <row r="89" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="57"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
+    </row>
+    <row r="90" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="57"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="F90" s="69"/>
+      <c r="G90" s="69"/>
+    </row>
+    <row r="91" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="57"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="F91" s="69"/>
+      <c r="G91" s="69"/>
+    </row>
+    <row r="92" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="57"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+    </row>
+    <row r="93" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="57"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="F93" s="69"/>
+      <c r="G93" s="69"/>
+    </row>
+    <row r="94" spans="2:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="61"/>
+      <c r="C94" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="D94" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="F94" s="70"/>
+      <c r="G94" s="70"/>
+    </row>
+    <row r="95" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D95" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F95" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="G95" s="68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="57"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F96" s="69"/>
+      <c r="G96" s="69"/>
+    </row>
+    <row r="97" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="57"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F97" s="69"/>
+      <c r="G97" s="69"/>
+    </row>
+    <row r="98" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="57"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E98" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+    </row>
+    <row r="99" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="57"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+    </row>
+    <row r="100" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="57"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F100" s="69"/>
+      <c r="G100" s="69"/>
+    </row>
+    <row r="101" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="57"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F101" s="69"/>
+      <c r="G101" s="69"/>
+    </row>
+    <row r="102" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="57"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E102" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F102" s="69"/>
+      <c r="G102" s="69"/>
+    </row>
+    <row r="103" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="57"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F103" s="69"/>
+      <c r="G103" s="69"/>
+    </row>
+    <row r="104" spans="2:7" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="57"/>
+      <c r="C104" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="F104" s="69"/>
+      <c r="G104" s="69"/>
+    </row>
+    <row r="105" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="57"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="F105" s="69"/>
+      <c r="G105" s="69"/>
+    </row>
+    <row r="106" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="57"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="F106" s="69"/>
+      <c r="G106" s="69"/>
+    </row>
+    <row r="107" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="57"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="F107" s="69"/>
+      <c r="G107" s="69"/>
+    </row>
+    <row r="108" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="57"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="F108" s="69"/>
+      <c r="G108" s="69"/>
+    </row>
+    <row r="109" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="57"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="F109" s="69"/>
+      <c r="G109" s="69"/>
+    </row>
+    <row r="110" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="57"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="F110" s="69"/>
+      <c r="G110" s="69"/>
+    </row>
+    <row r="111" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="57"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="F111" s="69"/>
+      <c r="G111" s="69"/>
+    </row>
+    <row r="112" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="57"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F112" s="69"/>
+      <c r="G112" s="69"/>
+    </row>
+    <row r="113" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="57"/>
+      <c r="C113" s="65"/>
+      <c r="D113" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" s="69"/>
+      <c r="G113" s="69"/>
+    </row>
+    <row r="114" spans="2:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="61"/>
+      <c r="C114" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="F114" s="70"/>
+      <c r="G114" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="G36:G56"/>
+    <mergeCell ref="B95:B114"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="C104:C113"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="F6:F25"/>
+    <mergeCell ref="G6:G25"/>
+    <mergeCell ref="F26:F35"/>
+    <mergeCell ref="G26:G35"/>
+    <mergeCell ref="F36:F56"/>
+    <mergeCell ref="C66:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B57:B74"/>
+    <mergeCell ref="B75:B94"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="C84:C93"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="B6:B25"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="B36:B56"/>
+    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="C15:C24"/>
+    <mergeCell ref="C26:C35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE69813-0201-43C0-866C-5D3C128F7149}">
   <dimension ref="A1:BW46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AT1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="AT1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="BA13" sqref="BA13"/>
     </sheetView>
   </sheetViews>
